--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -70,7 +70,10 @@
     <t xml:space="preserve">Disks in vdev</t>
   </si>
   <si>
-    <t xml:space="preserve"># Vspares</t>
+    <t xml:space="preserve"># Vspares (PER vdev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total vspares in pool</t>
   </si>
   <si>
     <t xml:space="preserve"># Pspares</t>
@@ -112,9 +115,6 @@
     <t xml:space="preserve">draid1:2d:4c:1s</t>
   </si>
   <si>
-    <t xml:space="preserve">1 per vdev = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 with 1 vspare and 1 UNAVAIL</t>
   </si>
   <si>
@@ -169,7 +169,13 @@
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to uncompressed DS - including sync - with 2 UNAVAIL and 1 vspare </t>
   </si>
   <si>
-    <t xml:space="preserve">1 per vdev = 2</t>
+    <t xml:space="preserve">draid1:13d:16c:2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 with 2 vspare and 2 pspares + 1 UNAVAIL = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of Data disks</t>
   </si>
   <si>
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to uncompressed DS - including sync - with no UNAVAIL</t>
@@ -199,9 +205,6 @@
     <t xml:space="preserve">draid1:8d:12c:2s</t>
   </si>
   <si>
-    <t xml:space="preserve">2 per vdev = 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 with 2 vspare and 1 UNAVAIL</t>
   </si>
   <si>
@@ -226,9 +229,6 @@
     <t xml:space="preserve">copy in-vm 6GB iso to LZ4 DS - including sync - with 8 UNAVAIL – and 4 vspares in use</t>
   </si>
   <si>
-    <t xml:space="preserve">1 per vdev = 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 6 UNAVAIL – and 3 vspares in use</t>
   </si>
   <si>
@@ -241,9 +241,6 @@
     <t xml:space="preserve">draid1:5d:8c:1s-0</t>
   </si>
   <si>
-    <t xml:space="preserve">1 per vdev = 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 4 UNAVAIL – and 4 vspares in use</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t xml:space="preserve">draid2:8d:48c:2s</t>
   </si>
   <si>
-    <t xml:space="preserve">2 per vdev = 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">4 with 2 vspares and 2 UNAVAIL</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t xml:space="preserve">draid2:8d:16c:2s</t>
   </si>
   <si>
-    <t xml:space="preserve">2 per vdev = 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">draid2:12d:16c:2s</t>
   </si>
   <si>
@@ -355,15 +346,9 @@
     <t xml:space="preserve">draid2:12d:96c:12s</t>
   </si>
   <si>
-    <t xml:space="preserve">12 = 1 for every 8 drives</t>
-  </si>
-  <si>
     <t xml:space="preserve">draid2:24d:96c:8s</t>
   </si>
   <si>
-    <t xml:space="preserve">8 = 1 for every 12 drives</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 with 12 UNAVAIL and 8 vspares in use</t>
   </si>
   <si>
@@ -391,9 +376,6 @@
     <t xml:space="preserve">draid2:8d:24c:3s</t>
   </si>
   <si>
-    <t xml:space="preserve">3 per vdev = 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 without pspares, up to 9 with 2 UNAVAIL</t>
   </si>
   <si>
@@ -418,7 +400,7 @@
     <t xml:space="preserve">draid1:8d:24c:4s</t>
   </si>
   <si>
-    <t xml:space="preserve">12, 4 per vdev</t>
+    <t xml:space="preserve">should be 16</t>
   </si>
   <si>
     <t xml:space="preserve">5 without pspares; with 1 UNAVAIL</t>
@@ -439,7 +421,7 @@
     <t xml:space="preserve">Dave Bechtel</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracking various DRAID configs with variable # of disks in a VM</t>
+    <t xml:space="preserve">Tracking various ZFS DRAID configs with variable # of disks in a VM</t>
   </si>
   <si>
     <t xml:space="preserve">Scripts here:</t>
@@ -488,6 +470,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.reddit.com/r/zfs/comments/lnoh7v/im_trying_to_understand_how_draid_works_but_im/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you use my data please include original-author attribution.</t>
   </si>
   <si>
     <t xml:space="preserve">https://klarasystems.com/articles/openzfs-draid-finally/</t>
@@ -511,7 +496,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,6 +568,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -638,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,6 +717,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -771,8 +765,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -787,6 +781,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -795,8 +793,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -819,7 +817,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -900,33 +906,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="F103" activeCellId="0" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="9.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="29.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,19 +948,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -963,28 +969,31 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>4</v>
@@ -995,42 +1004,46 @@
       <c r="D2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <f aca="false">E2*C2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="L2" s="4" t="n">
         <v>7.1</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="5"/>
+      <c r="N2" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="O2" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O2" s="1" t="n">
-        <f aca="false">M2*B2</f>
+      <c r="P2" s="1" t="n">
+        <f aca="false">N2*B2</f>
         <v>14.92</v>
       </c>
-      <c r="P2" s="3" t="n">
-        <f aca="false">O2-K2</f>
+      <c r="Q2" s="3" t="n">
+        <f aca="false">P2-L2</f>
         <v>7.82</v>
       </c>
-      <c r="Q2" s="1" t="n">
-        <f aca="false">B2+F2</f>
+      <c r="R2" s="1" t="n">
+        <f aca="false">B2+G2</f>
         <v>4</v>
       </c>
     </row>
@@ -1047,58 +1060,65 @@
       <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <f aca="false">E3*C3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="n">
+      <c r="L3" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="5"/>
+      <c r="N3" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="O3" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <f aca="false">M3*B3</f>
+      <c r="P3" s="1" t="n">
+        <f aca="false">N3*B3</f>
         <v>22.38</v>
       </c>
-      <c r="P3" s="10" t="n">
-        <f aca="false">O3-K3</f>
+      <c r="Q3" s="10" t="n">
+        <f aca="false">P3-L3</f>
         <v>8.38</v>
       </c>
-      <c r="Q3" s="1" t="n">
-        <f aca="false">B3+F3</f>
+      <c r="R3" s="1" t="n">
+        <f aca="false">B3+G3</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="7" t="n">
+        <f aca="false">E4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="1" t="n">
-        <f aca="false">B4+F4</f>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="1" t="n">
+        <f aca="false">B4+G4</f>
         <v>0</v>
       </c>
     </row>
@@ -1115,48 +1135,52 @@
       <c r="D5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <f aca="false">E5*C5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="n">
         <v>25.5</v>
       </c>
-      <c r="K5" s="12" t="n">
+      <c r="L5" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="5"/>
+      <c r="N5" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O5" s="1" t="n">
-        <f aca="false">M5*B5</f>
+      <c r="P5" s="1" t="n">
+        <f aca="false">N5*B5</f>
         <v>29.84</v>
       </c>
-      <c r="P5" s="10" t="n">
-        <f aca="false">O5-K5</f>
+      <c r="Q5" s="10" t="n">
+        <f aca="false">P5-L5</f>
         <v>8.84</v>
       </c>
-      <c r="Q5" s="1" t="n">
-        <f aca="false">B5+F5</f>
+      <c r="R5" s="1" t="n">
+        <f aca="false">B5+G5</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>8</v>
@@ -1167,58 +1191,62 @@
       <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="E6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">E6*C6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="L6" s="4" t="n">
         <v>14.2</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="5"/>
+      <c r="N6" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N6" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O6" s="1" t="n">
-        <f aca="false">M6*B6</f>
+      <c r="P6" s="1" t="n">
+        <f aca="false">N6*B6</f>
         <v>29.84</v>
       </c>
-      <c r="P6" s="3" t="n">
-        <f aca="false">O6-K6</f>
+      <c r="Q6" s="3" t="n">
+        <f aca="false">P6-L6</f>
         <v>15.64</v>
       </c>
-      <c r="Q6" s="13" t="n">
-        <f aca="false">B6+F6</f>
+      <c r="R6" s="13" t="n">
+        <f aca="false">B6+G6</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
       <c r="B7" s="4"/>
       <c r="E7" s="7"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="1" t="n">
-        <f aca="false">B7+F7</f>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="1" t="n">
+        <f aca="false">B7+G7</f>
         <v>0</v>
       </c>
     </row>
@@ -1238,41 +1266,45 @@
       <c r="E8" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="15" t="n">
+        <f aca="false">E8*C8</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="K8" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="L8" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="5"/>
+      <c r="N8" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N8" s="1" t="n">
+      <c r="O8" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O8" s="1" t="n">
-        <f aca="false">M8*B8</f>
+      <c r="P8" s="1" t="n">
+        <f aca="false">N8*B8</f>
         <v>37.3</v>
       </c>
-      <c r="P8" s="10" t="n">
-        <f aca="false">O8-K8</f>
+      <c r="Q8" s="10" t="n">
+        <f aca="false">P8-L8</f>
         <v>12.3</v>
       </c>
-      <c r="Q8" s="1" t="n">
-        <f aca="false">B8+F8</f>
+      <c r="R8" s="1" t="n">
+        <f aca="false">B8+G8</f>
         <v>10</v>
       </c>
     </row>
@@ -1280,18 +1312,19 @@
       <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="1" t="n">
-        <f aca="false">B9+F9</f>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="1" t="n">
+        <f aca="false">B9+G9</f>
         <v>0</v>
       </c>
     </row>
@@ -1311,48 +1344,52 @@
       <c r="E10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="15" t="n">
+        <f aca="false">E10*C10</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="K10" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="L10" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="L10" s="19" t="n">
+      <c r="M10" s="19" t="n">
         <v>0.0888888888888889</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="N10" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="O10" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O10" s="1" t="n">
-        <f aca="false">M10*B10</f>
+      <c r="P10" s="1" t="n">
+        <f aca="false">N10*B10</f>
         <v>37.3</v>
       </c>
-      <c r="P10" s="3" t="n">
-        <f aca="false">O10-K10</f>
+      <c r="Q10" s="3" t="n">
+        <f aca="false">P10-L10</f>
         <v>14.3</v>
       </c>
-      <c r="Q10" s="1" t="n">
-        <f aca="false">B10+F10</f>
+      <c r="R10" s="1" t="n">
+        <f aca="false">B10+G10</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -1364,41 +1401,45 @@
       <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <f aca="false">E11*C11</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="1" t="n">
-        <v>20</v>
-      </c>
       <c r="K11" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="L11" s="0"/>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="0"/>
+      <c r="N11" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="O11" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O11" s="1" t="n">
-        <f aca="false">M11*B11</f>
+      <c r="P11" s="1" t="n">
+        <f aca="false">N11*B11</f>
         <v>37.3</v>
       </c>
-      <c r="P11" s="3" t="n">
-        <f aca="false">O11-K11</f>
+      <c r="Q11" s="3" t="n">
+        <f aca="false">P11-L11</f>
         <v>16.4</v>
       </c>
-      <c r="Q11" s="1" t="n">
-        <f aca="false">B11+F11</f>
+      <c r="R11" s="1" t="n">
+        <f aca="false">B11+G11</f>
         <v>12</v>
       </c>
     </row>
@@ -1407,34 +1448,35 @@
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="0"/>
-      <c r="J12" s="0"/>
+      <c r="H12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
       <c r="P12" s="0"/>
-      <c r="Q12" s="1" t="n">
-        <f aca="false">B12+F12</f>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="1" t="n">
+        <f aca="false">B12+G12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="1" t="n">
-        <f aca="false">B13+F13</f>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="1" t="n">
+        <f aca="false">B13+G13</f>
         <v>0</v>
       </c>
     </row>
@@ -1451,62 +1493,66 @@
       <c r="D14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="E14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <f aca="false">E14*C14</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="4" t="n">
+      <c r="K14" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="L14" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="L14" s="20" t="n">
+      <c r="M14" s="20" t="n">
         <v>0.0263888888888889</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="N14" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N14" s="1" t="n">
+      <c r="O14" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O14" s="1" t="n">
-        <f aca="false">M14*B14</f>
+      <c r="P14" s="1" t="n">
+        <f aca="false">N14*B14</f>
         <v>44.76</v>
       </c>
-      <c r="P14" s="10" t="n">
-        <f aca="false">O14-K14</f>
+      <c r="Q14" s="10" t="n">
+        <f aca="false">P14-L14</f>
         <v>9.76</v>
       </c>
-      <c r="Q14" s="1" t="n">
-        <f aca="false">B14+F14</f>
+      <c r="R14" s="1" t="n">
+        <f aca="false">B14+G14</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="E15" s="7"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="4"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="1" t="n">
-        <f aca="false">B15+F15</f>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="1" t="n">
+        <f aca="false">B15+G15</f>
         <v>0</v>
       </c>
     </row>
@@ -1523,44 +1569,48 @@
       <c r="D16" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="E16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">E16*C16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="K16" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="L16" s="4" t="n">
         <v>47.8</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="5"/>
+      <c r="N16" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N16" s="1" t="n">
+      <c r="O16" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O16" s="1" t="n">
-        <f aca="false">M16*B16</f>
+      <c r="P16" s="1" t="n">
+        <f aca="false">N16*B16</f>
         <v>59.68</v>
       </c>
-      <c r="P16" s="10" t="n">
-        <f aca="false">O16-K16</f>
+      <c r="Q16" s="10" t="n">
+        <f aca="false">P16-L16</f>
         <v>11.88</v>
       </c>
-      <c r="Q16" s="1" t="n">
-        <f aca="false">B16+F16</f>
+      <c r="R16" s="1" t="n">
+        <f aca="false">B16+G16</f>
         <v>16</v>
       </c>
     </row>
@@ -1568,20 +1618,21 @@
       <c r="A17" s="13"/>
       <c r="B17" s="4"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="4" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="4"/>
+      <c r="M17" s="5" t="n">
         <v>0.0298611111111111</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="1" t="n">
-        <f aca="false">B17+F17</f>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="1" t="n">
+        <f aca="false">B17+G17</f>
         <v>0</v>
       </c>
     </row>
@@ -1589,38 +1640,80 @@
       <c r="A18" s="13"/>
       <c r="B18" s="4"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="4" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="19" t="n">
+      <c r="L18" s="4"/>
+      <c r="M18" s="19" t="n">
         <v>0.0770833333333333</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="1" t="n">
-        <f aca="false">B18+F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="1" t="n">
-        <f aca="false">B19+F19</f>
-        <v>0</v>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="1" t="n">
+        <f aca="false">B18+G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <f aca="false">E19*C19</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="L19" s="4" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <f aca="false">N19*B19</f>
+        <v>59.68</v>
+      </c>
+      <c r="Q19" s="10" t="n">
+        <f aca="false">P19-L19</f>
+        <v>14.48</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <f aca="false">B19+G19</f>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,92 +1729,96 @@
       <c r="D20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <f aca="false">E20*C20</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="4" t="n">
+      <c r="J20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="L20" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>0.0319444444444444</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="N20" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N20" s="1" t="n">
+      <c r="O20" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O20" s="1" t="n">
-        <f aca="false">M20*B20</f>
+      <c r="P20" s="1" t="n">
+        <f aca="false">N20*B20</f>
         <v>59.68</v>
       </c>
-      <c r="P20" s="10" t="n">
-        <f aca="false">O20-K20</f>
+      <c r="Q20" s="10" t="n">
+        <f aca="false">P20-L20</f>
         <v>17.68</v>
       </c>
-      <c r="Q20" s="1" t="n">
-        <f aca="false">B20+F20</f>
+      <c r="R20" s="1" t="n">
+        <f aca="false">B20+G20</f>
         <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="14"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="22" t="n">
+      <c r="L21" s="4"/>
+      <c r="M21" s="23" t="n">
         <v>0.05625</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="1" t="n">
-        <f aca="false">B21+F21</f>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="1" t="n">
+        <f aca="false">B21+G21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="22" t="n">
+      <c r="L22" s="4"/>
+      <c r="M22" s="23" t="n">
         <v>0.110416666666667</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="1" t="n">
-        <f aca="false">B22+F22</f>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="1" t="n">
+        <f aca="false">B22+G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>16</v>
@@ -1732,79 +1829,83 @@
       <c r="D23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="4" t="n">
+      <c r="E23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <f aca="false">E23*C23</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="L23" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="1" t="n">
+      <c r="M23" s="5"/>
+      <c r="N23" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N23" s="1" t="n">
+      <c r="O23" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O23" s="1" t="n">
-        <f aca="false">M23*B23</f>
+      <c r="P23" s="1" t="n">
+        <f aca="false">N23*B23</f>
         <v>59.68</v>
       </c>
-      <c r="P23" s="10" t="n">
-        <f aca="false">O23-K23</f>
+      <c r="Q23" s="10" t="n">
+        <f aca="false">P23-L23</f>
         <v>13.68</v>
       </c>
-      <c r="Q23" s="1" t="n">
-        <f aca="false">B23+F23</f>
+      <c r="R23" s="1" t="n">
+        <f aca="false">B23+G23</f>
         <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="4"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="P24" s="10"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
       <c r="B25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="1" t="n">
-        <f aca="false">B25+F25</f>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="1" t="n">
+        <f aca="false">B25+G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>24</v>
@@ -1815,52 +1916,56 @@
       <c r="D26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="s">
+      <c r="E26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <f aca="false">E26*C26</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="4" t="n">
+      <c r="J26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="L26" s="4" t="n">
         <v>72.3</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>0.0243055555555556</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="N26" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="O26" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O26" s="1" t="n">
-        <f aca="false">M26*B26</f>
+      <c r="P26" s="1" t="n">
+        <f aca="false">N26*B26</f>
         <v>89.52</v>
       </c>
-      <c r="P26" s="10" t="n">
-        <f aca="false">O26-K26</f>
+      <c r="Q26" s="10" t="n">
+        <f aca="false">P26-L26</f>
         <v>17.22</v>
       </c>
-      <c r="Q26" s="1" t="n">
-        <f aca="false">B26+F26</f>
+      <c r="R26" s="1" t="n">
+        <f aca="false">B26+G26</f>
         <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>24</v>
@@ -1871,125 +1976,129 @@
       <c r="D27" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="22" t="n">
+        <f aca="false">E27*C27</f>
+        <v>4</v>
+      </c>
+      <c r="G27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="27" t="n">
+      <c r="K27" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="L27" s="4" t="n">
         <v>62.9</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>0.0222222222222222</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="N27" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N27" s="1" t="n">
+      <c r="O27" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O27" s="1" t="n">
-        <f aca="false">M27*B27</f>
+      <c r="P27" s="1" t="n">
+        <f aca="false">N27*B27</f>
         <v>89.52</v>
       </c>
-      <c r="P27" s="28" t="n">
-        <f aca="false">O27-K27</f>
+      <c r="Q27" s="29" t="n">
+        <f aca="false">P27-L27</f>
         <v>26.62</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <f aca="false">B27+F27</f>
+      <c r="R27" s="1" t="n">
+        <f aca="false">B27+G27</f>
         <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
       <c r="B28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="G28" s="11"/>
-      <c r="I28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="20" t="n">
+      <c r="F28" s="7"/>
+      <c r="H28" s="11"/>
+      <c r="J28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="20" t="n">
         <v>0.0194444444444444</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="1" t="n">
-        <f aca="false">B28+F28</f>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="1" t="n">
+        <f aca="false">B28+G28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
       <c r="B29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="5" t="n">
+      <c r="F29" s="7"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="5" t="n">
         <v>0.0201388888888889</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="1" t="n">
-        <f aca="false">B29+F29</f>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="1" t="n">
+        <f aca="false">B29+G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="I30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="20" t="n">
+      <c r="F30" s="7"/>
+      <c r="H30" s="11"/>
+      <c r="J30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="20" t="n">
         <v>0.0138888888888889</v>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="1" t="n">
-        <f aca="false">B30+F30</f>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="1" t="n">
+        <f aca="false">B30+G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="20"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="1" t="n">
-        <f aca="false">B31+F31</f>
+      <c r="F31" s="7"/>
+      <c r="H31" s="11"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="20"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="1" t="n">
+        <f aca="false">B31+G31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>24</v>
@@ -2000,46 +2109,50 @@
       <c r="D32" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="22" t="n">
+        <f aca="false">E32*C32</f>
+        <v>4</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="27" t="n">
+      <c r="K32" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="K32" s="27" t="n">
+      <c r="L32" s="28" t="n">
         <v>56.5</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>0.0263888888888889</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="N32" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N32" s="1" t="n">
+      <c r="O32" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O32" s="1" t="n">
-        <f aca="false">M32*B32</f>
+      <c r="P32" s="1" t="n">
+        <f aca="false">N32*B32</f>
         <v>89.52</v>
       </c>
-      <c r="P32" s="30" t="n">
-        <f aca="false">O32-K32</f>
+      <c r="Q32" s="31" t="n">
+        <f aca="false">P32-L32</f>
         <v>33.02</v>
       </c>
-      <c r="Q32" s="1" t="n">
-        <f aca="false">B32+F32</f>
+      <c r="R32" s="1" t="n">
+        <f aca="false">B32+G32</f>
         <v>24</v>
       </c>
     </row>
@@ -2047,18 +2160,19 @@
       <c r="A33" s="13"/>
       <c r="B33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="G33" s="11"/>
-      <c r="I33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="20" t="n">
+      <c r="F33" s="7"/>
+      <c r="H33" s="11"/>
+      <c r="J33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="20" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="1" t="n">
-        <f aca="false">B33+F33</f>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="1" t="n">
+        <f aca="false">B33+G33</f>
         <v>0</v>
       </c>
     </row>
@@ -2066,33 +2180,34 @@
       <c r="A34" s="13"/>
       <c r="B34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="G34" s="11"/>
-      <c r="I34" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="20" t="n">
+      <c r="F34" s="7"/>
+      <c r="H34" s="11"/>
+      <c r="J34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="20" t="n">
         <v>0.00902777777777778</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="1" t="n">
-        <f aca="false">B34+F34</f>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="1" t="n">
+        <f aca="false">B34+G34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="11"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="20"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="1" t="n">
-        <f aca="false">B35+F35</f>
+      <c r="F35" s="7"/>
+      <c r="H35" s="11"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="20"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="1" t="n">
+        <f aca="false">B35+G35</f>
         <v>0</v>
       </c>
     </row>
@@ -2101,22 +2216,23 @@
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="0"/>
-      <c r="J36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="K36" s="0"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
       <c r="P36" s="0"/>
-      <c r="Q36" s="1" t="n">
-        <f aca="false">B36+F36</f>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="1" t="n">
+        <f aca="false">B36+G36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -2128,111 +2244,119 @@
       <c r="D37" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22" t="n">
+        <f aca="false">E37*C37</f>
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="L37" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>0.0243055555555556</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="N37" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N37" s="1" t="n">
+      <c r="O37" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O37" s="1" t="n">
-        <f aca="false">M37*B37</f>
+      <c r="P37" s="1" t="n">
+        <f aca="false">N37*B37</f>
         <v>89.52</v>
       </c>
-      <c r="P37" s="10" t="n">
-        <f aca="false">O37-K37</f>
+      <c r="Q37" s="10" t="n">
+        <f aca="false">P37-L37</f>
         <v>26.52</v>
       </c>
-      <c r="Q37" s="1" t="n">
-        <f aca="false">B37+F37</f>
+      <c r="R37" s="1" t="n">
+        <f aca="false">B37+G37</f>
         <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
+      <c r="A38" s="13"/>
       <c r="E38" s="4"/>
-      <c r="G38" s="11"/>
-      <c r="I38" s="4" t="s">
+      <c r="F38" s="7"/>
+      <c r="H38" s="11"/>
+      <c r="J38" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="20" t="n">
+      <c r="M38" s="20" t="n">
         <v>0.01875</v>
       </c>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="1" t="n">
-        <f aca="false">B38+F38</f>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="1" t="n">
+        <f aca="false">B38+G38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
+      <c r="A39" s="13"/>
       <c r="E39" s="4"/>
-      <c r="G39" s="11"/>
-      <c r="I39" s="31" t="s">
+      <c r="F39" s="7"/>
+      <c r="H39" s="11"/>
+      <c r="J39" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="20" t="n">
+      <c r="M39" s="20" t="n">
         <v>0.0194444444444444</v>
       </c>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="1" t="n">
-        <f aca="false">B39+F39</f>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="1" t="n">
+        <f aca="false">B39+G39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
+      <c r="A40" s="13"/>
       <c r="E40" s="4"/>
-      <c r="G40" s="11"/>
-      <c r="I40" s="4" t="s">
+      <c r="F40" s="7"/>
+      <c r="H40" s="11"/>
+      <c r="J40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="32" t="n">
+      <c r="M40" s="33" t="n">
         <v>0.0368055555555556</v>
       </c>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="1" t="n">
-        <f aca="false">B40+F40</f>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="1" t="n">
+        <f aca="false">B40+G40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
+      <c r="A41" s="13"/>
       <c r="E41" s="4"/>
-      <c r="G41" s="11"/>
-      <c r="I41" s="4"/>
-      <c r="L41" s="20"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="1" t="n">
-        <f aca="false">B41+F41</f>
+      <c r="F41" s="7"/>
+      <c r="H41" s="11"/>
+      <c r="J41" s="4"/>
+      <c r="M41" s="20"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="1" t="n">
+        <f aca="false">B41+G41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="1" t="n">
@@ -2247,50 +2371,55 @@
       <c r="E42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0" t="s">
+      <c r="F42" s="15" t="n">
+        <f aca="false">E42*C42</f>
+        <v>9</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="1" t="n">
+      <c r="K42" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="L42" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="L42" s="0"/>
-      <c r="M42" s="1" t="n">
+      <c r="M42" s="0"/>
+      <c r="N42" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="O42" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O42" s="1" t="n">
-        <f aca="false">M42*B42</f>
+      <c r="P42" s="1" t="n">
+        <f aca="false">N42*B42</f>
         <v>89.52</v>
       </c>
-      <c r="P42" s="10" t="n">
-        <f aca="false">O42-K42</f>
+      <c r="Q42" s="10" t="n">
+        <f aca="false">P42-L42</f>
         <v>28.52</v>
       </c>
-      <c r="Q42" s="1" t="n">
-        <f aca="false">B42+F42</f>
+      <c r="R42" s="1" t="n">
+        <f aca="false">B42+G42</f>
         <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L43" s="0"/>
-      <c r="Q43" s="1" t="n">
-        <f aca="false">B43+F43</f>
+      <c r="F43" s="7"/>
+      <c r="M43" s="0"/>
+      <c r="R43" s="1" t="n">
+        <f aca="false">B43+G43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="1" t="n">
@@ -2302,83 +2431,90 @@
       <c r="D44" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15" t="n">
+        <f aca="false">E44*C44</f>
+        <v>4</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="L44" s="35" t="n">
+        <v>56</v>
+      </c>
+      <c r="M44" s="5" t="n">
+        <v>0.0236111111111111</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <f aca="false">N44*B44</f>
+        <v>89.52</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <f aca="false">P44-L44</f>
+        <v>33.52</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <f aca="false">B44+G44</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="7"/>
+      <c r="J45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="K44" s="34" t="n">
-        <v>56</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>0.0236111111111111</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <f aca="false">M44*B44</f>
-        <v>89.52</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <f aca="false">O44-K44</f>
-        <v>33.52</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <f aca="false">B44+F44</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="4" t="s">
+      <c r="M45" s="20" t="n">
+        <v>0.0173611111111111</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <f aca="false">B45+G45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="7"/>
+      <c r="J46" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L45" s="20" t="n">
-        <v>0.0173611111111111</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <f aca="false">B45+F45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="31" t="s">
+      <c r="M46" s="20" t="n">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <f aca="false">B46+G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="7"/>
+      <c r="M47" s="0"/>
+      <c r="R47" s="1" t="n">
+        <f aca="false">B47+G47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="L46" s="20" t="n">
-        <v>0.0104166666666667</v>
-      </c>
-      <c r="Q46" s="1" t="n">
-        <f aca="false">B46+F46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L47" s="0"/>
-      <c r="Q47" s="1" t="n">
-        <f aca="false">B47+F47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>24</v>
@@ -2389,98 +2525,105 @@
       <c r="D48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22" t="n">
+        <f aca="false">E48*C48</f>
+        <v>4</v>
+      </c>
+      <c r="G48" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="L48" s="35" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>0.0361111111111111</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <f aca="false">N48*B48</f>
+        <v>89.52</v>
+      </c>
+      <c r="Q48" s="3" t="n">
+        <f aca="false">P48-L48</f>
+        <v>48.12</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <f aca="false">B48+G48</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="11"/>
+      <c r="J49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="K48" s="34" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>0.0361111111111111</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O48" s="1" t="n">
-        <f aca="false">M48*B48</f>
-        <v>89.52</v>
-      </c>
-      <c r="P48" s="3" t="n">
-        <f aca="false">O48-K48</f>
-        <v>48.12</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <f aca="false">B48+F48</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="11"/>
-      <c r="I49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="34"/>
-      <c r="L49" s="20" t="n">
+      <c r="L49" s="35"/>
+      <c r="M49" s="20" t="n">
         <v>0.0298611111111111</v>
       </c>
-      <c r="Q49" s="1" t="n">
-        <f aca="false">B49+F49</f>
+      <c r="R49" s="1" t="n">
+        <f aca="false">B49+G49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26"/>
+      <c r="A50" s="13"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="11"/>
-      <c r="I50" s="31" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="11"/>
+      <c r="J50" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L50" s="35"/>
+      <c r="M50" s="20" t="n">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <f aca="false">B50+G50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="11"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="5"/>
+      <c r="R51" s="1" t="n">
+        <f aca="false">B51+G51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="K50" s="34"/>
-      <c r="L50" s="20" t="n">
-        <v>0.0166666666666667</v>
-      </c>
-      <c r="Q50" s="1" t="n">
-        <f aca="false">B50+F50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="11"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="5"/>
-      <c r="Q51" s="1" t="n">
-        <f aca="false">B51+F51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>24</v>
@@ -2491,56 +2634,61 @@
       <c r="D52" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E52" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18" t="n">
+      <c r="E52" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="38" t="n">
+        <f aca="false">E52*C52</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="G52" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="M52" s="0"/>
+      <c r="N52" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <f aca="false">N52*B52</f>
+        <v>89.52</v>
+      </c>
+      <c r="Q52" s="39" t="n">
+        <f aca="false">P52-L52</f>
+        <v>13.72</v>
+      </c>
+      <c r="R52" s="13" t="n">
+        <f aca="false">B52+G52</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="7"/>
+      <c r="J53" s="4"/>
+      <c r="M53" s="0"/>
+      <c r="R53" s="1" t="n">
+        <f aca="false">B53+G53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="L52" s="0"/>
-      <c r="M52" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O52" s="1" t="n">
-        <f aca="false">M52*B52</f>
-        <v>89.52</v>
-      </c>
-      <c r="P52" s="37" t="n">
-        <f aca="false">O52-K52</f>
-        <v>13.72</v>
-      </c>
-      <c r="Q52" s="1" t="n">
-        <f aca="false">B52+F52</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="4"/>
-      <c r="L53" s="0"/>
-      <c r="Q53" s="1" t="n">
-        <f aca="false">B53+F53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="B54" s="9" t="n">
         <v>24</v>
@@ -2551,67 +2699,73 @@
       <c r="D54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" s="0" t="s">
+      <c r="E54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22" t="n">
+        <f aca="false">E54*C54</f>
+        <v>3</v>
+      </c>
+      <c r="G54" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J54" s="1" t="n">
+      <c r="K54" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="K54" s="1" t="n">
+      <c r="L54" s="1" t="n">
         <v>52.1</v>
       </c>
-      <c r="L54" s="0"/>
-      <c r="M54" s="1" t="n">
+      <c r="M54" s="0"/>
+      <c r="N54" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N54" s="1" t="n">
+      <c r="O54" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O54" s="1" t="n">
-        <f aca="false">M54*B54</f>
+      <c r="P54" s="1" t="n">
+        <f aca="false">N54*B54</f>
         <v>89.52</v>
       </c>
-      <c r="P54" s="10" t="n">
-        <f aca="false">O54-K54</f>
+      <c r="Q54" s="10" t="n">
+        <f aca="false">P54-L54</f>
         <v>37.42</v>
       </c>
-      <c r="Q54" s="1" t="n">
-        <f aca="false">B54+F54</f>
+      <c r="R54" s="1" t="n">
+        <f aca="false">B54+G54</f>
         <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="L55" s="0"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="1" t="n">
-        <f aca="false">B55+F55</f>
+      <c r="F55" s="7"/>
+      <c r="G55" s="13"/>
+      <c r="M55" s="0"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="1" t="n">
+        <f aca="false">B55+G55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="L56" s="0"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="1" t="n">
-        <f aca="false">B56+F56</f>
+      <c r="F56" s="7"/>
+      <c r="G56" s="13"/>
+      <c r="M56" s="0"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="1" t="n">
+        <f aca="false">B56+G56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>69</v>
+      <c r="A57" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B57" s="13" t="n">
         <v>48</v>
@@ -2622,47 +2776,51 @@
       <c r="D57" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" s="0" t="s">
+      <c r="E57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <f aca="false">E57*C57</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="1" t="n">
+      <c r="K57" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="L57" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="L57" s="0"/>
-      <c r="M57" s="1" t="n">
+      <c r="M57" s="0"/>
+      <c r="N57" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N57" s="1" t="n">
+      <c r="O57" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O57" s="1" t="n">
-        <f aca="false">M57*B57</f>
+      <c r="P57" s="1" t="n">
+        <f aca="false">N57*B57</f>
         <v>179.04</v>
       </c>
-      <c r="P57" s="10" t="n">
-        <f aca="false">O57-K57</f>
+      <c r="Q57" s="10" t="n">
+        <f aca="false">P57-L57</f>
         <v>31.04</v>
       </c>
-      <c r="Q57" s="1" t="n">
-        <f aca="false">B57+F57</f>
+      <c r="R57" s="1" t="n">
+        <f aca="false">B57+G57</f>
         <v>48</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>44</v>
+      <c r="A58" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B58" s="13" t="n">
         <v>48</v>
@@ -2673,47 +2831,51 @@
       <c r="D58" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J58" s="1" t="n">
+      <c r="E58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <f aca="false">E58*C58</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="K58" s="1" t="n">
+      <c r="L58" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="L58" s="0"/>
-      <c r="M58" s="1" t="n">
+      <c r="M58" s="0"/>
+      <c r="N58" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N58" s="1" t="n">
+      <c r="O58" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O58" s="1" t="n">
-        <f aca="false">M58*B58</f>
+      <c r="P58" s="1" t="n">
+        <f aca="false">N58*B58</f>
         <v>179.04</v>
       </c>
-      <c r="P58" s="10" t="n">
-        <f aca="false">O58-K58</f>
+      <c r="Q58" s="10" t="n">
+        <f aca="false">P58-L58</f>
         <v>34.04</v>
       </c>
-      <c r="Q58" s="1" t="n">
-        <f aca="false">B58+F58</f>
+      <c r="R58" s="1" t="n">
+        <f aca="false">B58+G58</f>
         <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>70</v>
+      <c r="A59" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B59" s="13" t="n">
         <v>48</v>
@@ -2724,58 +2886,63 @@
       <c r="D59" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" s="1" t="n">
+      <c r="E59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="41" t="n">
+        <f aca="false">E59*C59</f>
+        <v>3</v>
+      </c>
+      <c r="G59" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K59" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="L59" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="L59" s="0"/>
-      <c r="M59" s="1" t="n">
+      <c r="M59" s="0"/>
+      <c r="N59" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N59" s="1" t="n">
+      <c r="O59" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O59" s="1" t="n">
-        <f aca="false">M59*B59</f>
+      <c r="P59" s="1" t="n">
+        <f aca="false">N59*B59</f>
         <v>179.04</v>
       </c>
-      <c r="P59" s="3" t="n">
-        <f aca="false">O59-K59</f>
+      <c r="Q59" s="3" t="n">
+        <f aca="false">P59-L59</f>
         <v>38.04</v>
       </c>
-      <c r="Q59" s="1" t="n">
-        <f aca="false">B59+F59</f>
+      <c r="R59" s="1" t="n">
+        <f aca="false">B59+G59</f>
         <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11"/>
-      <c r="L60" s="0"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="1" t="n">
-        <f aca="false">B60+F60</f>
+      <c r="F60" s="7"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="11"/>
+      <c r="M60" s="0"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="1" t="n">
+        <f aca="false">B60+G60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="s">
-        <v>71</v>
+      <c r="A61" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="B61" s="13" t="n">
         <v>48</v>
@@ -2786,69 +2953,74 @@
       <c r="D61" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7" t="n">
+        <f aca="false">E61*C61</f>
+        <v>2</v>
+      </c>
+      <c r="G61" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="1" t="n">
+      <c r="K61" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="L61" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="L61" s="5" t="n">
+      <c r="M61" s="5" t="n">
         <v>0.0430555555555556</v>
       </c>
-      <c r="M61" s="1" t="n">
+      <c r="N61" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N61" s="1" t="n">
+      <c r="O61" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O61" s="1" t="n">
-        <f aca="false">M61*B61</f>
+      <c r="P61" s="1" t="n">
+        <f aca="false">N61*B61</f>
         <v>179.04</v>
       </c>
-      <c r="P61" s="10" t="n">
-        <f aca="false">O61-K61</f>
+      <c r="Q61" s="10" t="n">
+        <f aca="false">P61-L61</f>
         <v>49.04</v>
       </c>
-      <c r="Q61" s="1" t="n">
-        <f aca="false">B61+F61</f>
+      <c r="R61" s="1" t="n">
+        <f aca="false">B61+G61</f>
         <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13"/>
-      <c r="C62" s="23"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11"/>
-      <c r="I62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L62" s="20" t="n">
+      <c r="C62" s="24"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="11"/>
+      <c r="J62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" s="20" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="1" t="n">
-        <f aca="false">B62+F62</f>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="1" t="n">
+        <f aca="false">B62+G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>76</v>
+      <c r="A63" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B63" s="13" t="n">
         <v>48</v>
@@ -2859,58 +3031,63 @@
       <c r="D63" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J63" s="1" t="n">
+      <c r="E63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="22" t="n">
+        <f aca="false">E63*C63</f>
+        <v>4</v>
+      </c>
+      <c r="G63" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="K63" s="1" t="n">
+      <c r="L63" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="L63" s="0"/>
-      <c r="M63" s="1" t="n">
+      <c r="M63" s="0"/>
+      <c r="N63" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N63" s="1" t="n">
+      <c r="O63" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O63" s="1" t="n">
-        <f aca="false">M63*B63</f>
+      <c r="P63" s="1" t="n">
+        <f aca="false">N63*B63</f>
         <v>179.04</v>
       </c>
-      <c r="P63" s="10" t="n">
-        <f aca="false">O63-K63</f>
+      <c r="Q63" s="10" t="n">
+        <f aca="false">P63-L63</f>
         <v>54.04</v>
       </c>
-      <c r="Q63" s="1" t="n">
-        <f aca="false">B63+F63</f>
+      <c r="R63" s="1" t="n">
+        <f aca="false">B63+G63</f>
         <v>48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11"/>
-      <c r="L64" s="0"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="1" t="n">
-        <f aca="false">B64+F64</f>
+      <c r="F64" s="7"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="11"/>
+      <c r="M64" s="0"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="1" t="n">
+        <f aca="false">B64+G64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>77</v>
+      <c r="A65" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B65" s="13" t="n">
         <v>48</v>
@@ -2921,47 +3098,51 @@
       <c r="D65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="1" t="n">
+      <c r="E65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="22" t="n">
+        <f aca="false">E65*C65</f>
+        <v>6</v>
+      </c>
+      <c r="G65" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K65" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="K65" s="1" t="n">
+      <c r="L65" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="L65" s="0"/>
-      <c r="M65" s="1" t="n">
+      <c r="M65" s="0"/>
+      <c r="N65" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N65" s="1" t="n">
+      <c r="O65" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O65" s="1" t="n">
-        <f aca="false">M65*B65</f>
+      <c r="P65" s="1" t="n">
+        <f aca="false">N65*B65</f>
         <v>179.04</v>
       </c>
-      <c r="P65" s="3" t="n">
-        <f aca="false">O65-K65</f>
+      <c r="Q65" s="3" t="n">
+        <f aca="false">P65-L65</f>
         <v>61.04</v>
       </c>
-      <c r="Q65" s="1" t="n">
-        <f aca="false">B65+F65</f>
+      <c r="R65" s="1" t="n">
+        <f aca="false">B65+G65</f>
         <v>48</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="s">
-        <v>79</v>
+      <c r="A66" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B66" s="13" t="n">
         <v>48</v>
@@ -2972,70 +3153,76 @@
       <c r="D66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" s="1" t="n">
+      <c r="E66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="22" t="n">
+        <f aca="false">E66*C66</f>
+        <v>6</v>
+      </c>
+      <c r="G66" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="K66" s="13" t="n">
+      <c r="L66" s="13" t="n">
         <v>123</v>
       </c>
-      <c r="L66" s="0"/>
-      <c r="M66" s="1" t="n">
+      <c r="M66" s="0"/>
+      <c r="N66" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N66" s="1" t="n">
+      <c r="O66" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O66" s="1" t="n">
-        <f aca="false">M66*B66</f>
+      <c r="P66" s="1" t="n">
+        <f aca="false">N66*B66</f>
         <v>179.04</v>
       </c>
-      <c r="P66" s="10" t="n">
-        <f aca="false">O66-K66</f>
+      <c r="Q66" s="10" t="n">
+        <f aca="false">P66-L66</f>
         <v>56.04</v>
       </c>
-      <c r="Q66" s="1" t="n">
-        <f aca="false">B66+F66</f>
+      <c r="R66" s="1" t="n">
+        <f aca="false">B66+G66</f>
         <v>48</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="L67" s="0"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="1" t="n">
-        <f aca="false">B67+F67</f>
+      <c r="F67" s="7"/>
+      <c r="G67" s="13"/>
+      <c r="M67" s="0"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="1" t="n">
+        <f aca="false">B67+G67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="L68" s="0"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="1" t="n">
-        <f aca="false">B68+F68</f>
+      <c r="F68" s="7"/>
+      <c r="G68" s="13"/>
+      <c r="M68" s="0"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="1" t="n">
+        <f aca="false">B68+G68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>81</v>
+      <c r="A69" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B69" s="13" t="n">
         <v>72</v>
@@ -3046,47 +3233,51 @@
       <c r="D69" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7" t="n">
+        <f aca="false">E69*C69</f>
+        <v>2</v>
+      </c>
+      <c r="G69" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="M69" s="0"/>
+      <c r="N69" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <f aca="false">N69*B69</f>
+        <v>268.56</v>
+      </c>
+      <c r="Q69" s="10" t="n">
+        <f aca="false">P69-L69</f>
+        <v>48.56</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <f aca="false">B69+G69</f>
         <v>72</v>
       </c>
-      <c r="F69" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="K69" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="L69" s="0"/>
-      <c r="M69" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N69" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <f aca="false">M69*B69</f>
-        <v>268.56</v>
-      </c>
-      <c r="P69" s="10" t="n">
-        <f aca="false">O69-K69</f>
-        <v>48.56</v>
-      </c>
-      <c r="Q69" s="1" t="n">
-        <f aca="false">B69+F69</f>
-        <v>72</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>82</v>
+      <c r="A70" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B70" s="13" t="n">
         <v>72</v>
@@ -3097,58 +3288,63 @@
       <c r="D70" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" s="0" t="s">
+      <c r="E70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <f aca="false">E70*C70</f>
+        <v>4</v>
+      </c>
+      <c r="G70" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="1" t="n">
+      <c r="K70" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K70" s="1" t="n">
+      <c r="L70" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="L70" s="0"/>
-      <c r="M70" s="1" t="n">
+      <c r="M70" s="0"/>
+      <c r="N70" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N70" s="1" t="n">
+      <c r="O70" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O70" s="1" t="n">
-        <f aca="false">M70*B70</f>
+      <c r="P70" s="1" t="n">
+        <f aca="false">N70*B70</f>
         <v>268.56</v>
       </c>
-      <c r="P70" s="10" t="n">
-        <f aca="false">O70-K70</f>
+      <c r="Q70" s="10" t="n">
+        <f aca="false">P70-L70</f>
         <v>54.56</v>
       </c>
-      <c r="Q70" s="1" t="n">
-        <f aca="false">B70+F70</f>
+      <c r="R70" s="1" t="n">
+        <f aca="false">B70+G70</f>
         <v>72</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="8"/>
-      <c r="L71" s="0"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="1" t="n">
-        <f aca="false">B71+F71</f>
+      <c r="F71" s="7"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="11"/>
+      <c r="M71" s="0"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="1" t="n">
+        <f aca="false">B71+G71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>83</v>
+      <c r="A72" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B72" s="13" t="n">
         <v>72</v>
@@ -3159,47 +3355,51 @@
       <c r="D72" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="0" t="s">
+      <c r="E72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" s="22" t="n">
+        <f aca="false">E72*C72</f>
+        <v>6</v>
+      </c>
+      <c r="G72" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J72" s="1" t="n">
+      <c r="K72" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="K72" s="1" t="n">
+      <c r="L72" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="L72" s="0"/>
-      <c r="M72" s="1" t="n">
+      <c r="M72" s="0"/>
+      <c r="N72" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N72" s="1" t="n">
+      <c r="O72" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O72" s="1" t="n">
-        <f aca="false">M72*B72</f>
+      <c r="P72" s="1" t="n">
+        <f aca="false">N72*B72</f>
         <v>268.56</v>
       </c>
-      <c r="P72" s="3" t="n">
-        <f aca="false">O72-K72</f>
+      <c r="Q72" s="3" t="n">
+        <f aca="false">P72-L72</f>
         <v>60.56</v>
       </c>
-      <c r="Q72" s="1" t="n">
-        <f aca="false">B72+F72</f>
+      <c r="R72" s="1" t="n">
+        <f aca="false">B72+G72</f>
         <v>72</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="s">
-        <v>84</v>
+      <c r="A73" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B73" s="13" t="n">
         <v>72</v>
@@ -3210,97 +3410,104 @@
       <c r="D73" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" s="0" t="s">
+      <c r="E73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" s="22" t="n">
+        <f aca="false">E73*C73</f>
+        <v>6</v>
+      </c>
+      <c r="G73" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J73" s="1" t="n">
+      <c r="J73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="K73" s="13" t="n">
+      <c r="L73" s="13" t="n">
         <v>219</v>
       </c>
-      <c r="L73" s="0"/>
-      <c r="M73" s="1" t="n">
+      <c r="M73" s="0"/>
+      <c r="N73" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N73" s="1" t="n">
+      <c r="O73" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O73" s="1" t="n">
-        <f aca="false">M73*B73</f>
+      <c r="P73" s="1" t="n">
+        <f aca="false">N73*B73</f>
         <v>268.56</v>
       </c>
-      <c r="P73" s="10" t="n">
-        <f aca="false">O73-K73</f>
+      <c r="Q73" s="10" t="n">
+        <f aca="false">P73-L73</f>
         <v>49.56</v>
       </c>
-      <c r="Q73" s="1" t="n">
-        <f aca="false">B73+F73</f>
+      <c r="R73" s="1" t="n">
+        <f aca="false">B73+G73</f>
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="11"/>
-      <c r="I74" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="20" t="n">
+      <c r="F74" s="7"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11"/>
+      <c r="J74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L74" s="13"/>
+      <c r="M74" s="20" t="n">
         <v>0.0340277777777778</v>
       </c>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="1" t="n">
-        <f aca="false">B74+F74</f>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="1" t="n">
+        <f aca="false">B74+G74</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11"/>
-      <c r="I75" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="20" t="n">
+      <c r="F75" s="7"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="J75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L75" s="13"/>
+      <c r="M75" s="20" t="n">
         <v>0.0354166666666667</v>
       </c>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="1" t="n">
-        <f aca="false">B75+F75</f>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="1" t="n">
+        <f aca="false">B75+G75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11"/>
-      <c r="L76" s="0"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="1" t="n">
-        <f aca="false">B76+F76</f>
+      <c r="F76" s="7"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="M76" s="0"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="1" t="n">
+        <f aca="false">B76+G76</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="s">
-        <v>86</v>
+      <c r="A77" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B77" s="13" t="n">
         <v>72</v>
@@ -3311,50 +3518,54 @@
       <c r="D77" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" s="7" t="n">
+        <f aca="false">E77*C77</f>
+        <v>2</v>
+      </c>
+      <c r="G77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="L77" s="13" t="n">
+        <v>206</v>
+      </c>
+      <c r="M77" s="0"/>
+      <c r="N77" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <f aca="false">N77*B77</f>
+        <v>268.56</v>
+      </c>
+      <c r="Q77" s="10" t="n">
+        <f aca="false">P77-L77</f>
+        <v>62.56</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <f aca="false">B77+G77</f>
         <v>72</v>
       </c>
-      <c r="F77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="K77" s="13" t="n">
-        <v>206</v>
-      </c>
-      <c r="L77" s="0"/>
-      <c r="M77" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N77" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O77" s="1" t="n">
-        <f aca="false">M77*B77</f>
-        <v>268.56</v>
-      </c>
-      <c r="P77" s="10" t="n">
-        <f aca="false">O77-K77</f>
-        <v>62.56</v>
-      </c>
-      <c r="Q77" s="1" t="n">
-        <f aca="false">B77+F77</f>
-        <v>72</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="s">
-        <v>88</v>
+      <c r="A78" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B78" s="13" t="n">
         <v>72</v>
@@ -3365,65 +3576,70 @@
       <c r="D78" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="E78" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" s="7" t="n">
+        <f aca="false">E78*C78</f>
+        <v>2</v>
+      </c>
+      <c r="G78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="M78" s="0"/>
+      <c r="N78" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <f aca="false">N78*B78</f>
+        <v>268.56</v>
+      </c>
+      <c r="Q78" s="3" t="n">
+        <f aca="false">P78-L78</f>
+        <v>70.56</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <f aca="false">B78+G78</f>
         <v>72</v>
       </c>
-      <c r="F78" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="L78" s="0"/>
-      <c r="M78" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N78" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O78" s="1" t="n">
-        <f aca="false">M78*B78</f>
-        <v>268.56</v>
-      </c>
-      <c r="P78" s="3" t="n">
-        <f aca="false">O78-K78</f>
-        <v>70.56</v>
-      </c>
-      <c r="Q78" s="1" t="n">
-        <f aca="false">B78+F78</f>
-        <v>72</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="23"/>
-      <c r="I79" s="4"/>
-      <c r="L79" s="0"/>
-      <c r="Q79" s="1" t="n">
-        <f aca="false">B79+F79</f>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="24"/>
+      <c r="J79" s="4"/>
+      <c r="M79" s="0"/>
+      <c r="R79" s="1" t="n">
+        <f aca="false">B79+G79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39" t="s">
-        <v>90</v>
+      <c r="A80" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B80" s="13" t="n">
         <v>72</v>
@@ -3434,47 +3650,51 @@
       <c r="D80" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" s="1" t="n">
+      <c r="E80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" s="7" t="n">
+        <f aca="false">E80*C80</f>
+        <v>4</v>
+      </c>
+      <c r="G80" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K80" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K80" s="1" t="n">
+      <c r="L80" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="L80" s="0"/>
-      <c r="M80" s="1" t="n">
+      <c r="M80" s="0"/>
+      <c r="N80" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N80" s="1" t="n">
+      <c r="O80" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O80" s="1" t="n">
-        <f aca="false">M80*B80</f>
+      <c r="P80" s="1" t="n">
+        <f aca="false">N80*B80</f>
         <v>268.56</v>
       </c>
-      <c r="P80" s="10" t="n">
-        <f aca="false">O80-K80</f>
+      <c r="Q80" s="10" t="n">
+        <f aca="false">P80-L80</f>
         <v>76.56</v>
       </c>
-      <c r="Q80" s="1" t="n">
-        <f aca="false">B80+F80</f>
+      <c r="R80" s="1" t="n">
+        <f aca="false">B80+G80</f>
         <v>72</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>91</v>
+      <c r="A81" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="B81" s="13" t="n">
         <v>72</v>
@@ -3485,50 +3705,54 @@
       <c r="D81" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>53</v>
+      <c r="E81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="7" t="n">
+        <f aca="false">E81*C81</f>
+        <v>4</v>
+      </c>
+      <c r="G81" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="40" t="n">
+        <v>2</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="J81" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="K81" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K81" s="1" t="n">
+      <c r="L81" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="L81" s="0"/>
-      <c r="M81" s="1" t="n">
+      <c r="M81" s="0"/>
+      <c r="N81" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N81" s="1" t="n">
+      <c r="O81" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O81" s="1" t="n">
-        <f aca="false">M81*B81</f>
+      <c r="P81" s="1" t="n">
+        <f aca="false">N81*B81</f>
         <v>268.56</v>
       </c>
-      <c r="P81" s="10" t="n">
-        <f aca="false">O81-K81</f>
+      <c r="Q81" s="10" t="n">
+        <f aca="false">P81-L81</f>
         <v>76.56</v>
       </c>
-      <c r="Q81" s="1" t="n">
-        <f aca="false">B81+F81</f>
+      <c r="R81" s="1" t="n">
+        <f aca="false">B81+G81</f>
         <v>72</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>93</v>
+      <c r="A82" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B82" s="13" t="n">
         <v>72</v>
@@ -3539,62 +3763,67 @@
       <c r="D82" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82" s="1" t="n">
+      <c r="E82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="7" t="n">
+        <f aca="false">E82*C82</f>
+        <v>4</v>
+      </c>
+      <c r="G82" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="K82" s="13" t="n">
+      <c r="L82" s="13" t="n">
         <v>199</v>
       </c>
-      <c r="L82" s="0"/>
-      <c r="M82" s="1" t="n">
+      <c r="M82" s="0"/>
+      <c r="N82" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N82" s="1" t="n">
+      <c r="O82" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O82" s="1" t="n">
-        <f aca="false">M82*B82</f>
+      <c r="P82" s="1" t="n">
+        <f aca="false">N82*B82</f>
         <v>268.56</v>
       </c>
-      <c r="P82" s="3" t="n">
-        <f aca="false">O82-K82</f>
+      <c r="Q82" s="3" t="n">
+        <f aca="false">P82-L82</f>
         <v>69.56</v>
       </c>
-      <c r="Q82" s="1" t="n">
-        <f aca="false">B82+F82</f>
+      <c r="R82" s="1" t="n">
+        <f aca="false">B82+G82</f>
         <v>72</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="23"/>
-      <c r="L83" s="0"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="1" t="n">
-        <f aca="false">B83+F83</f>
+      <c r="F83" s="7"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="24"/>
+      <c r="M83" s="0"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="1" t="n">
+        <f aca="false">B83+G83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>94</v>
+      <c r="A84" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B84" s="13" t="n">
         <v>72</v>
@@ -3605,71 +3834,77 @@
       <c r="D84" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F84" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J84" s="1" t="n">
+      <c r="E84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="22" t="n">
+        <f aca="false">E84*C84</f>
+        <v>6</v>
+      </c>
+      <c r="G84" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="K84" s="1" t="n">
+      <c r="L84" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="L84" s="0"/>
-      <c r="M84" s="1" t="n">
+      <c r="M84" s="0"/>
+      <c r="N84" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N84" s="1" t="n">
+      <c r="O84" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O84" s="1" t="n">
-        <f aca="false">M84*B84</f>
+      <c r="P84" s="1" t="n">
+        <f aca="false">N84*B84</f>
         <v>268.56</v>
       </c>
-      <c r="P84" s="10" t="n">
-        <f aca="false">O84-K84</f>
+      <c r="Q84" s="10" t="n">
+        <f aca="false">P84-L84</f>
         <v>73.56</v>
       </c>
-      <c r="Q84" s="1" t="n">
-        <f aca="false">B84+F84</f>
+      <c r="R84" s="1" t="n">
+        <f aca="false">B84+G84</f>
         <v>72</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="I85" s="4"/>
-      <c r="L85" s="20"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="1" t="n">
-        <f aca="false">B85+F85</f>
+      <c r="F85" s="7"/>
+      <c r="G85" s="13"/>
+      <c r="J85" s="4"/>
+      <c r="M85" s="20"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="1" t="n">
+        <f aca="false">B85+G85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="L86" s="0"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="1" t="n">
-        <f aca="false">B86+F86</f>
+      <c r="F86" s="7"/>
+      <c r="G86" s="13"/>
+      <c r="M86" s="0"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="1" t="n">
+        <f aca="false">B86+G86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="s">
-        <v>95</v>
+      <c r="A87" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="B87" s="13" t="n">
         <v>96</v>
@@ -3683,55 +3918,60 @@
       <c r="E87" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F87" s="1" t="n">
+      <c r="F87" s="7" t="n">
+        <f aca="false">E87*C87</f>
+        <v>6</v>
+      </c>
+      <c r="G87" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="G87" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="1" t="n">
+      <c r="H87" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="K87" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="K87" s="1" t="n">
+      <c r="L87" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="L87" s="0"/>
-      <c r="M87" s="1" t="n">
+      <c r="M87" s="0"/>
+      <c r="N87" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N87" s="1" t="n">
+      <c r="O87" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O87" s="1" t="n">
-        <f aca="false">M87*B87</f>
+      <c r="P87" s="1" t="n">
+        <f aca="false">N87*B87</f>
         <v>358.08</v>
       </c>
-      <c r="P87" s="40" t="n">
-        <f aca="false">O87-K87</f>
+      <c r="Q87" s="42" t="n">
+        <f aca="false">P87-L87</f>
         <v>103.08</v>
       </c>
-      <c r="Q87" s="1" t="n">
-        <f aca="false">B87+F87</f>
+      <c r="R87" s="13" t="n">
+        <f aca="false">B87+G87</f>
         <v>103</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H88" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L88" s="0"/>
-      <c r="Q88" s="1" t="n">
-        <f aca="false">B88+F88</f>
+      <c r="F88" s="7"/>
+      <c r="I88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" s="0"/>
+      <c r="R88" s="1" t="n">
+        <f aca="false">B88+G88</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26" t="s">
-        <v>98</v>
+      <c r="A89" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B89" s="13" t="n">
         <v>96</v>
@@ -3742,48 +3982,52 @@
       <c r="D89" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J89" s="1" t="n">
+      <c r="E89" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F89" s="22" t="n">
+        <f aca="false">E89*C89</f>
+        <v>12</v>
+      </c>
+      <c r="G89" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" s="12"/>
+      <c r="J89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="K89" s="1" t="n">
+      <c r="L89" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L89" s="0"/>
-      <c r="M89" s="1" t="n">
+      <c r="M89" s="0"/>
+      <c r="N89" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N89" s="1" t="n">
+      <c r="O89" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O89" s="1" t="n">
-        <f aca="false">M89*B89</f>
+      <c r="P89" s="1" t="n">
+        <f aca="false">N89*B89</f>
         <v>358.08</v>
       </c>
-      <c r="P89" s="40" t="n">
-        <f aca="false">O89-K89</f>
+      <c r="Q89" s="42" t="n">
+        <f aca="false">P89-L89</f>
         <v>110.08</v>
       </c>
-      <c r="Q89" s="1" t="n">
-        <f aca="false">B89+F89</f>
+      <c r="R89" s="1" t="n">
+        <f aca="false">B89+G89</f>
         <v>96</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="s">
-        <v>100</v>
+      <c r="A90" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="B90" s="13" t="n">
         <v>96</v>
@@ -3794,100 +4038,107 @@
       <c r="D90" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" s="22" t="n">
+        <f aca="false">E90*C90</f>
+        <v>8</v>
+      </c>
+      <c r="G90" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K90" s="13" t="n">
+        <v>322</v>
+      </c>
+      <c r="L90" s="13" t="n">
+        <v>279</v>
+      </c>
+      <c r="M90" s="0"/>
+      <c r="N90" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <f aca="false">N90*B90</f>
+        <v>358.08</v>
+      </c>
+      <c r="Q90" s="43" t="n">
+        <f aca="false">P90-L90</f>
+        <v>79.08</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <f aca="false">B90+G90</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M91" s="20" t="n">
+        <v>0.0347222222222222</v>
+      </c>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="1" t="n">
+        <f aca="false">B91+G91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M92" s="20" t="n">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="1" t="n">
+        <f aca="false">B92+G92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="7"/>
+      <c r="J93" s="4"/>
+      <c r="M93" s="0"/>
+      <c r="R93" s="1" t="n">
+        <f aca="false">B93+G93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="F90" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J90" s="13" t="n">
-        <v>322</v>
-      </c>
-      <c r="K90" s="13" t="n">
-        <v>279</v>
-      </c>
-      <c r="L90" s="0"/>
-      <c r="M90" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N90" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O90" s="1" t="n">
-        <f aca="false">M90*B90</f>
-        <v>358.08</v>
-      </c>
-      <c r="P90" s="41" t="n">
-        <f aca="false">O90-K90</f>
-        <v>79.08</v>
-      </c>
-      <c r="Q90" s="1" t="n">
-        <f aca="false">B90+F90</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L91" s="20" t="n">
-        <v>0.0347222222222222</v>
-      </c>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="1" t="n">
-        <f aca="false">B91+F91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L92" s="20" t="n">
-        <v>0.0243055555555556</v>
-      </c>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="1" t="n">
-        <f aca="false">B92+F92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="4"/>
-      <c r="L93" s="0"/>
-      <c r="Q93" s="1" t="n">
-        <f aca="false">B93+F93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="26" t="s">
-        <v>106</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>96</v>
@@ -3899,57 +4150,61 @@
         <v>48</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J94" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="F94" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K94" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="K94" s="1" t="n">
+      <c r="L94" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="L94" s="0"/>
-      <c r="M94" s="1" t="n">
+      <c r="M94" s="0"/>
+      <c r="N94" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N94" s="1" t="n">
+      <c r="O94" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O94" s="1" t="n">
-        <f aca="false">M94*B94</f>
+      <c r="P94" s="1" t="n">
+        <f aca="false">N94*B94</f>
         <v>358.08</v>
       </c>
-      <c r="P94" s="40" t="n">
-        <f aca="false">O94-K94</f>
+      <c r="Q94" s="42" t="n">
+        <f aca="false">P94-L94</f>
         <v>109.08</v>
       </c>
-      <c r="Q94" s="1" t="n">
-        <f aca="false">B94+F94</f>
+      <c r="R94" s="1" t="n">
+        <f aca="false">B94+G94</f>
         <v>96</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="4"/>
-      <c r="L95" s="0"/>
-      <c r="Q95" s="1" t="n">
-        <f aca="false">B95+F95</f>
+      <c r="F95" s="7"/>
+      <c r="J95" s="4"/>
+      <c r="M95" s="0"/>
+      <c r="R95" s="1" t="n">
+        <f aca="false">B95+G95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26" t="s">
-        <v>110</v>
+      <c r="A96" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>96</v>
@@ -3960,110 +4215,119 @@
       <c r="D96" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <f aca="false">E96*C96</f>
+        <v>12</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" s="40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="L96" s="14" t="n">
+        <v>238</v>
+      </c>
+      <c r="M96" s="0"/>
+      <c r="N96" s="1" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <f aca="false">N96*B96</f>
+        <v>358.08</v>
+      </c>
+      <c r="Q96" s="42" t="n">
+        <f aca="false">P96-L96</f>
+        <v>120.08</v>
+      </c>
+      <c r="R96" s="13" t="n">
+        <f aca="false">B96+G96</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="7"/>
+      <c r="J97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M97" s="44" t="n">
+        <v>0.107638888888889</v>
+      </c>
+      <c r="R97" s="1" t="n">
+        <f aca="false">B97+G97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="7"/>
+      <c r="J98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M98" s="45" t="n">
+        <v>0.0756944444444444</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <f aca="false">B98+G98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="7"/>
+      <c r="J99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M99" s="46" t="n">
+        <v>0.0583333333333333</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <f aca="false">B99+G99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="7"/>
+      <c r="J100" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G96" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="H96" s="4" t="s">
+      <c r="M100" s="46" t="n">
+        <v>0.0569444444444444</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <f aca="false">B100+G100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="7"/>
+      <c r="J101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="M101" s="46" t="n">
+        <v>0.00972222222222222</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <f aca="false">B101+G101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="47" t="s">
         <v>113</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="K96" s="14" t="n">
-        <v>238</v>
-      </c>
-      <c r="L96" s="0"/>
-      <c r="M96" s="1" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="N96" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="O96" s="1" t="n">
-        <f aca="false">M96*B96</f>
-        <v>358.08</v>
-      </c>
-      <c r="P96" s="40" t="n">
-        <f aca="false">O96-K96</f>
-        <v>120.08</v>
-      </c>
-      <c r="Q96" s="1" t="n">
-        <f aca="false">B96+F96</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L97" s="42" t="n">
-        <v>0.107638888888889</v>
-      </c>
-      <c r="Q97" s="1" t="n">
-        <f aca="false">B97+F97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L98" s="43" t="n">
-        <v>0.0756944444444444</v>
-      </c>
-      <c r="Q98" s="1" t="n">
-        <f aca="false">B98+F98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L99" s="44" t="n">
-        <v>0.0583333333333333</v>
-      </c>
-      <c r="Q99" s="1" t="n">
-        <f aca="false">B99+F99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L100" s="44" t="n">
-        <v>0.0569444444444444</v>
-      </c>
-      <c r="Q100" s="1" t="n">
-        <f aca="false">B100+F100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L101" s="44" t="n">
-        <v>0.00972222222222222</v>
-      </c>
-      <c r="Q101" s="1" t="n">
-        <f aca="false">B101+F101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="40" t="s">
-        <v>119</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>96</v>
@@ -4075,83 +4339,92 @@
         <v>24</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J102" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K102" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="K102" s="1" t="n">
+      <c r="L102" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="L102" s="2" t="n">
+      <c r="M102" s="2" t="n">
         <v>0.0243055555555556</v>
       </c>
-      <c r="M102" s="1" t="n">
+      <c r="N102" s="1" t="n">
         <v>3.73</v>
       </c>
-      <c r="N102" s="1" t="n">
+      <c r="O102" s="1" t="n">
         <v>512</v>
       </c>
-      <c r="O102" s="1" t="n">
-        <f aca="false">M102*B102</f>
+      <c r="P102" s="1" t="n">
+        <f aca="false">N102*B102</f>
         <v>358.08</v>
       </c>
-      <c r="P102" s="40" t="n">
-        <f aca="false">O102-K102</f>
+      <c r="Q102" s="42" t="n">
+        <f aca="false">P102-L102</f>
         <v>107.08</v>
       </c>
-      <c r="Q102" s="1" t="n">
-        <f aca="false">B102+F102</f>
+      <c r="R102" s="1" t="n">
+        <f aca="false">B102+G102</f>
         <v>96</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L103" s="2" t="n">
+      <c r="F103" s="7"/>
+      <c r="J103" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M103" s="2" t="n">
         <v>0.0444444444444444</v>
       </c>
-      <c r="Q103" s="1" t="n">
-        <f aca="false">B103+F103</f>
+      <c r="R103" s="1" t="n">
+        <f aca="false">B103+G103</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L104" s="45" t="n">
+      <c r="F104" s="7"/>
+      <c r="J104" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="48" t="n">
         <v>0.0625</v>
       </c>
-      <c r="Q104" s="1" t="n">
-        <f aca="false">B104+F104</f>
+      <c r="R104" s="1" t="n">
+        <f aca="false">B104+G104</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L105" s="44" t="n">
+      <c r="F105" s="7"/>
+      <c r="J105" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M105" s="46" t="n">
         <v>0.0215277777777778</v>
       </c>
-      <c r="Q105" s="1" t="n">
-        <f aca="false">B105+F105</f>
-        <v>0</v>
-      </c>
+      <c r="R105" s="1" t="n">
+        <f aca="false">B105+G105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4173,7 +4446,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4185,97 +4458,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="26" t="s">
-        <v>139</v>
+      <c r="C10" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="26" t="s">
-        <v>146</v>
+      <c r="D18" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -547,6 +547,105 @@
   </si>
   <si>
     <t xml:space="preserve">Disk size change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now this will really break your brain:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} spare sdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please hold your nose and run screaming from the room before EVER attempting this IRL!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an UNBALANCED VDEV DRAIDZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It appears to work OK but why would you ever want to risk this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} draid1:4d:6'c':1's' sd{t..y} spare sdz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, 10, 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 2, 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failing sdb puts the PHYSICAL spare in use, not vspare 1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; sdd fails after and then vspare is used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an UNBALANCED VDEV DRAIDZ1 with UNBALANCED SPARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 in vdev #1 with 1 pspare, 2 vspares and 1 UNAVAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to zstd-3 DS - including sync - with 4 UNAVAIL in vdev #1 - and 2 vspares in use + 1 pspare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ 3 in vdev #2 with 2 vspares and 1 UNAVAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to uncompressed DS - including sync - with 7 UNAVAIL - 4 vspares in use + 1 pspare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ 2 in vdev #3 with 1 vspare1 and 1 UNAVAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to LZ4 compressed DS - including sync - with 9 UNAVAIL - 5 vspares in use + 1 pspare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool replace $zp sdb sdaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool replace $zp sdd sdab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool replace $zp sdj sdac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool replace $zp sdn sdad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool replace $zp sdv sdae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 in vdev #1 with vspare in use, 1 in vdev #2 with vspare, 1 in vdev #3 with vspare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Delete existing isos in zstd-3 dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to zstd-3 DS - including sync - with 1 UNAVAIL in vdev #1 + 1 UNAVAIL in vdev #2 + 1 UNAVAIL in vdev #3, all have vspares in use (2 still available)</t>
   </si>
   <si>
     <t xml:space="preserve">2021.July</t>
@@ -627,7 +726,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -716,6 +815,32 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Herculanum"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10.5"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF2FFF12"/>
       <name val="Menlo-Regular"/>
@@ -727,12 +852,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -742,8 +873,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
   </fills>
@@ -781,7 +912,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,12 +945,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -846,19 +981,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,11 +1001,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,11 +1057,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,7 +1073,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,7 +1085,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,7 +1117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1006,7 +1137,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1087,12 +1230,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,7 +1431,7 @@
       <c r="B4" s="2"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1329,7 +1472,7 @@
       <c r="K5" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="L5" s="10" t="n">
+      <c r="L5" s="11" t="n">
         <v>21</v>
       </c>
       <c r="M5" s="5"/>
@@ -1353,13 +1496,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -1368,11 +1511,11 @@
       <c r="E6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="13" t="n">
         <f aca="false">E6*C6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="8" t="n">
@@ -1403,32 +1546,32 @@
         <f aca="false">P6-L6</f>
         <v>15.64</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <f aca="false">B6+G6</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <f aca="false">E7*C7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="n">
@@ -1459,16 +1602,16 @@
         <f aca="false">P7-L7</f>
         <v>8.94</v>
       </c>
-      <c r="R7" s="11" t="n">
+      <c r="R7" s="12" t="n">
         <f aca="false">B7+G7</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="7"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1477,7 +1620,7 @@
       <c r="Q8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -1489,23 +1632,23 @@
       <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="16" t="n">
+      <c r="E9" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="n">
         <f aca="false">E9*C9</f>
         <v>2</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="2" t="n">
@@ -1535,13 +1678,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="2"/>
@@ -1563,20 +1706,20 @@
       <c r="D11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16" t="n">
+      <c r="E11" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="n">
         <f aca="false">E11*C11</f>
         <v>2</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -1626,14 +1769,14 @@
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="15" t="n">
         <f aca="false">E12*C12</f>
         <v>2</v>
       </c>
-      <c r="G12" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8" t="n">
+      <c r="G12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1670,7 +1813,7 @@
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="K13" s="0"/>
@@ -1683,11 +1826,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1707,17 +1850,17 @@
       <c r="D15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14" t="n">
+      <c r="E15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="n">
         <f aca="false">E15*C15</f>
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="17" t="n">
+      <c r="H15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -1756,10 +1899,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1767,7 +1910,7 @@
       <c r="Q16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -1779,23 +1922,23 @@
       <c r="D17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14" t="n">
+      <c r="E17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <f aca="false">E17*C17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="17" t="n">
+      <c r="H17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="2" t="n">
@@ -1825,13 +1968,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="10"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1843,13 +1986,13 @@
       <c r="Q18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="10"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1861,7 +2004,7 @@
       <c r="Q19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -1883,13 +2026,13 @@
       <c r="G20" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="17" t="n">
+      <c r="H20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="2" t="n">
@@ -1913,7 +2056,7 @@
         <f aca="false">P20-L20</f>
         <v>14.48</v>
       </c>
-      <c r="R20" s="11" t="n">
+      <c r="R20" s="12" t="n">
         <f aca="false">B20+G20</f>
         <v>18</v>
       </c>
@@ -1925,7 +2068,7 @@
       <c r="B21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -1938,10 +2081,10 @@
         <f aca="false">E21*C21</f>
         <v>2</v>
       </c>
-      <c r="G21" s="15" t="n">
+      <c r="G21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="8" t="n">
+      <c r="H21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -1980,10 +2123,10 @@
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="I22" s="10"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2000,10 +2143,10 @@
     </row>
     <row r="23" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="I23" s="10"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2019,7 +2162,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -2031,14 +2174,14 @@
       <c r="D24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14" t="n">
+      <c r="E24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="n">
         <f aca="false">E24*C24</f>
         <v>1</v>
       </c>
-      <c r="G24" s="15" t="n">
+      <c r="G24" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="19" t="n">
@@ -2047,7 +2190,7 @@
       <c r="I24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="2" t="n">
@@ -2081,9 +2224,9 @@
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="7"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2093,7 +2236,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2114,17 +2257,17 @@
       <c r="D27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="n">
+      <c r="E27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="n">
         <f aca="false">E27*C27</f>
         <v>1</v>
       </c>
-      <c r="G27" s="15" t="n">
+      <c r="G27" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="17" t="n">
+      <c r="H27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -2181,13 +2324,13 @@
         <f aca="false">E28*C28</f>
         <v>4</v>
       </c>
-      <c r="G28" s="15" t="n">
+      <c r="G28" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
+      <c r="H28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>51</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -2224,8 +2367,8 @@
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="14"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="15"/>
+      <c r="H29" s="10"/>
       <c r="J29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2239,9 +2382,9 @@
     <row r="30" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2255,8 +2398,8 @@
     <row r="31" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="14"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="15"/>
+      <c r="H31" s="10"/>
       <c r="J31" s="2" t="s">
         <v>54</v>
       </c>
@@ -2270,8 +2413,8 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="14"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="15"/>
+      <c r="H32" s="10"/>
       <c r="J32" s="2"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
@@ -2279,7 +2422,7 @@
       <c r="Q32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -2298,13 +2441,13 @@
         <f aca="false">E33*C33</f>
         <v>4</v>
       </c>
-      <c r="G33" s="15" t="n">
+      <c r="G33" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -2339,11 +2482,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="14"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="15"/>
+      <c r="H34" s="10"/>
       <c r="J34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2355,12 +2498,12 @@
       <c r="Q34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="14"/>
-      <c r="H35" s="8"/>
-      <c r="J35" s="10" t="s">
+      <c r="F35" s="15"/>
+      <c r="H35" s="10"/>
+      <c r="J35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="K35" s="28"/>
@@ -2373,8 +2516,8 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="14"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="15"/>
+      <c r="H36" s="10"/>
       <c r="J36" s="2"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28"/>
@@ -2386,7 +2529,7 @@
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="K37" s="0"/>
@@ -2398,7 +2541,7 @@
       <c r="Q37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -2420,7 +2563,7 @@
       <c r="G38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="8" t="n">
+      <c r="H38" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -2452,16 +2595,16 @@
         <f aca="false">P38-L38</f>
         <v>26.52</v>
       </c>
-      <c r="R38" s="11" t="n">
+      <c r="R38" s="12" t="n">
         <f aca="false">B38+G38</f>
         <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="14"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="15"/>
+      <c r="H39" s="10"/>
       <c r="J39" s="2" t="s">
         <v>59</v>
       </c>
@@ -2471,10 +2614,10 @@
       <c r="Q39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="14"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="15"/>
+      <c r="H40" s="10"/>
       <c r="J40" s="31" t="s">
         <v>60</v>
       </c>
@@ -2484,10 +2627,10 @@
       <c r="Q40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="14"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="15"/>
+      <c r="H41" s="10"/>
       <c r="J41" s="2" t="s">
         <v>61</v>
       </c>
@@ -2497,10 +2640,10 @@
       <c r="Q41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="14"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="15"/>
+      <c r="H42" s="10"/>
       <c r="J42" s="2"/>
       <c r="M42" s="21"/>
       <c r="Q42" s="9"/>
@@ -2521,14 +2664,14 @@
       <c r="E43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="17" t="n">
         <f aca="false">E43*C43</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -2555,13 +2698,13 @@
         <f aca="false">P43-L43</f>
         <v>28.52</v>
       </c>
-      <c r="R43" s="11" t="n">
+      <c r="R43" s="12" t="n">
         <f aca="false">B43+G43</f>
         <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="14"/>
+      <c r="F44" s="15"/>
       <c r="M44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,14 +2723,14 @@
       <c r="E45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="16" t="n">
+      <c r="F45" s="17" t="n">
         <f aca="false">E45*C45</f>
         <v>4</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="8" t="n">
+      <c r="H45" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -2619,13 +2762,13 @@
         <f aca="false">P45-L45</f>
         <v>33.52</v>
       </c>
-      <c r="R45" s="11" t="n">
+      <c r="R45" s="12" t="n">
         <f aca="false">B45+G45</f>
         <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="14"/>
+      <c r="F46" s="15"/>
       <c r="J46" s="2" t="s">
         <v>63</v>
       </c>
@@ -2634,7 +2777,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="14"/>
+      <c r="F47" s="15"/>
       <c r="J47" s="31" t="s">
         <v>64</v>
       </c>
@@ -2643,11 +2786,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="14"/>
+      <c r="F48" s="15"/>
       <c r="M48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="1" t="n">
@@ -2672,7 +2815,7 @@
       <c r="H49" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="11" t="s">
         <v>46</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -2707,11 +2850,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="8"/>
+      <c r="H50" s="10"/>
       <c r="J50" s="2" t="s">
         <v>63</v>
       </c>
@@ -2721,11 +2864,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
+      <c r="A51" s="12"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="35"/>
-      <c r="H51" s="8"/>
+      <c r="H51" s="10"/>
       <c r="J51" s="31" t="s">
         <v>66</v>
       </c>
@@ -2735,11 +2878,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="8"/>
+      <c r="H52" s="10"/>
       <c r="L52" s="34"/>
       <c r="M52" s="5"/>
     </row>
@@ -2766,10 +2909,10 @@
       <c r="G53" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="H53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="11" t="s">
         <v>68</v>
       </c>
       <c r="J53" s="2"/>
@@ -2794,13 +2937,13 @@
         <f aca="false">P53-L53</f>
         <v>13.72</v>
       </c>
-      <c r="R53" s="11" t="n">
+      <c r="R53" s="12" t="n">
         <f aca="false">B53+G53</f>
         <v>29</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="14"/>
+      <c r="F54" s="15"/>
       <c r="J54" s="2"/>
       <c r="M54" s="0"/>
     </row>
@@ -2811,7 +2954,7 @@
       <c r="B55" s="39" t="n">
         <v>24</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C55" s="12" t="n">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -2824,7 +2967,7 @@
         <f aca="false">E55*C55</f>
         <v>3</v>
       </c>
-      <c r="G55" s="11" t="n">
+      <c r="G55" s="12" t="n">
         <v>1</v>
       </c>
       <c r="H55" s="40" t="n">
@@ -2854,34 +2997,34 @@
         <f aca="false">P55-L55</f>
         <v>37.42</v>
       </c>
-      <c r="R55" s="11" t="n">
+      <c r="R55" s="12" t="n">
         <f aca="false">B55+G55</f>
         <v>25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="39"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="12"/>
       <c r="F56" s="41"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="25"/>
       <c r="I56" s="42"/>
       <c r="M56" s="0"/>
       <c r="Q56" s="9"/>
-      <c r="R56" s="11"/>
+      <c r="R56" s="12"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="11"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="12"/>
       <c r="M57" s="0"/>
       <c r="Q57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="11" t="n">
+      <c r="B58" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C58" s="22" t="n">
@@ -2890,17 +3033,17 @@
       <c r="D58" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E58" s="11" t="n">
+      <c r="E58" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F58" s="23" t="n">
         <f aca="false">E58*C58</f>
         <v>4</v>
       </c>
-      <c r="G58" s="11" t="n">
+      <c r="G58" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="17" t="n">
+      <c r="H58" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -2930,7 +3073,7 @@
         <f aca="false">P58-L58</f>
         <v>29.06</v>
       </c>
-      <c r="R58" s="11" t="n">
+      <c r="R58" s="12" t="n">
         <f aca="false">B58+G58</f>
         <v>32</v>
       </c>
@@ -2939,10 +3082,10 @@
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="11" t="n">
+      <c r="B59" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C59" s="11" t="n">
+      <c r="C59" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -2955,10 +3098,10 @@
         <f aca="false">E59*C59</f>
         <v>4</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="17" t="n">
+      <c r="H59" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -2985,7 +3128,7 @@
         <f aca="false">P59-L59</f>
         <v>29.06</v>
       </c>
-      <c r="R59" s="11" t="n">
+      <c r="R59" s="12" t="n">
         <f aca="false">B59+G59</f>
         <v>32</v>
       </c>
@@ -2994,10 +3137,10 @@
       <c r="A60" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="11" t="n">
+      <c r="B60" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C60" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
@@ -3010,10 +3153,10 @@
         <f aca="false">E60*C60</f>
         <v>8</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="8" t="n">
+      <c r="H60" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -3025,7 +3168,7 @@
       <c r="K60" s="34" t="n">
         <v>88</v>
       </c>
-      <c r="L60" s="11" t="n">
+      <c r="L60" s="12" t="n">
         <v>69.9</v>
       </c>
       <c r="M60" s="0"/>
@@ -3043,7 +3186,7 @@
         <f aca="false">P60-L60</f>
         <v>49.46</v>
       </c>
-      <c r="R60" s="11" t="n">
+      <c r="R60" s="12" t="n">
         <f aca="false">B60+G60</f>
         <v>32</v>
       </c>
@@ -3052,7 +3195,7 @@
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="11" t="n">
+      <c r="B61" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C61" s="22" t="n">
@@ -3061,14 +3204,14 @@
       <c r="D61" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E61" s="11" t="n">
+      <c r="E61" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F61" s="23" t="n">
         <f aca="false">E61*C61</f>
         <v>4</v>
       </c>
-      <c r="G61" s="11" t="n">
+      <c r="G61" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="40" t="n">
@@ -3101,7 +3244,7 @@
         <f aca="false">P61-L61</f>
         <v>28.36</v>
       </c>
-      <c r="R61" s="11" t="n">
+      <c r="R61" s="12" t="n">
         <f aca="false">B61+G61</f>
         <v>32</v>
       </c>
@@ -3110,10 +3253,10 @@
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="11" t="n">
+      <c r="B62" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C62" s="11" t="n">
+      <c r="C62" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -3126,7 +3269,7 @@
         <f aca="false">E62*C62</f>
         <v>4</v>
       </c>
-      <c r="G62" s="11" t="n">
+      <c r="G62" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="40" t="n">
@@ -3156,7 +3299,7 @@
         <f aca="false">P62-L62</f>
         <v>37.36</v>
       </c>
-      <c r="R62" s="11" t="n">
+      <c r="R62" s="12" t="n">
         <f aca="false">B62+G62</f>
         <v>32</v>
       </c>
@@ -3165,10 +3308,10 @@
       <c r="A63" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="11" t="n">
+      <c r="B63" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C63" s="11" t="n">
+      <c r="C63" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
@@ -3181,7 +3324,7 @@
         <f aca="false">E63*C63</f>
         <v>8</v>
       </c>
-      <c r="G63" s="11" t="n">
+      <c r="G63" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H63" s="40" t="n">
@@ -3193,7 +3336,7 @@
       <c r="J63" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K63" s="11" t="n">
+      <c r="K63" s="12" t="n">
         <v>88</v>
       </c>
       <c r="L63" s="34" t="n">
@@ -3214,19 +3357,19 @@
         <f aca="false">P63-L63</f>
         <v>62.56</v>
       </c>
-      <c r="R63" s="11" t="n">
+      <c r="R63" s="12" t="n">
         <f aca="false">B63+G63</f>
         <v>32</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="11" t="n">
+      <c r="B64" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C64" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="n">
@@ -3239,19 +3382,19 @@
         <f aca="false">E64*C64</f>
         <v>4</v>
       </c>
-      <c r="G64" s="11" t="n">
+      <c r="G64" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H64" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="11" t="s">
         <v>81</v>
       </c>
       <c r="J64" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="K64" s="11" t="n">
+      <c r="K64" s="12" t="n">
         <v>102</v>
       </c>
       <c r="L64" s="35" t="n">
@@ -3272,22 +3415,22 @@
         <f aca="false">P64-L64</f>
         <v>49.86</v>
       </c>
-      <c r="R64" s="11" t="n">
+      <c r="R64" s="12" t="n">
         <f aca="false">B64+G64</f>
         <v>32</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="12"/>
       <c r="M65" s="0"/>
       <c r="Q65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="12"/>
       <c r="M66" s="0"/>
       <c r="Q66" s="9"/>
     </row>
@@ -3295,7 +3438,7 @@
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="11" t="n">
+      <c r="B67" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C67" s="22" t="n">
@@ -3307,14 +3450,14 @@
       <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="14" t="n">
+      <c r="F67" s="15" t="n">
         <f aca="false">E67*C67</f>
         <v>1</v>
       </c>
       <c r="G67" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H67" s="17" t="n">
+      <c r="H67" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -3350,7 +3493,7 @@
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="11" t="n">
+      <c r="B68" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C68" s="1" t="n">
@@ -3362,14 +3505,14 @@
       <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="14" t="n">
+      <c r="F68" s="15" t="n">
         <f aca="false">E68*C68</f>
         <v>2</v>
       </c>
       <c r="G68" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H68" s="17" t="n">
+      <c r="H68" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -3405,7 +3548,7 @@
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="11" t="n">
+      <c r="B69" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C69" s="1" t="n">
@@ -3424,7 +3567,7 @@
       <c r="G69" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H69" s="17" t="n">
+      <c r="H69" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -3457,18 +3600,18 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="8"/>
+      <c r="B70" s="12"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="10"/>
       <c r="M70" s="0"/>
       <c r="Q70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="11" t="n">
+      <c r="B71" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C71" s="22" t="n">
@@ -3480,7 +3623,7 @@
       <c r="E71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F71" s="14" t="n">
+      <c r="F71" s="15" t="n">
         <f aca="false">E71*C71</f>
         <v>2</v>
       </c>
@@ -3525,11 +3668,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="11"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="25"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="8"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="10"/>
       <c r="J72" s="2" t="s">
         <v>88</v>
       </c>
@@ -3542,7 +3685,7 @@
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="11" t="n">
+      <c r="B73" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C73" s="1" t="n">
@@ -3594,10 +3737,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="11"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="8"/>
+      <c r="B74" s="12"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="10"/>
       <c r="M74" s="0"/>
       <c r="Q74" s="9"/>
     </row>
@@ -3605,7 +3748,7 @@
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="11" t="n">
+      <c r="B75" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -3657,10 +3800,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="11" t="n">
+      <c r="B76" s="12" t="n">
         <v>48</v>
       </c>
       <c r="C76" s="1" t="n">
@@ -3691,7 +3834,7 @@
       <c r="K76" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="L76" s="11" t="n">
+      <c r="L76" s="12" t="n">
         <v>123</v>
       </c>
       <c r="M76" s="0"/>
@@ -3715,16 +3858,16 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="11"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="12"/>
       <c r="M77" s="0"/>
       <c r="Q77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="11"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="12"/>
       <c r="M78" s="0"/>
       <c r="Q78" s="9"/>
     </row>
@@ -3732,7 +3875,7 @@
       <c r="A79" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="11" t="n">
+      <c r="B79" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C79" s="22" t="n">
@@ -3744,14 +3887,14 @@
       <c r="E79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="14" t="n">
+      <c r="F79" s="15" t="n">
         <f aca="false">E79*C79</f>
         <v>2</v>
       </c>
       <c r="G79" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H79" s="17" t="n">
+      <c r="H79" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -3787,7 +3930,7 @@
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="11" t="n">
+      <c r="B80" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C80" s="1" t="n">
@@ -3799,14 +3942,14 @@
       <c r="E80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="14" t="n">
+      <c r="F80" s="15" t="n">
         <f aca="false">E80*C80</f>
         <v>4</v>
       </c>
       <c r="G80" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H80" s="17" t="n">
+      <c r="H80" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -3839,10 +3982,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="11"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="8"/>
+      <c r="B81" s="12"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="10"/>
       <c r="M81" s="0"/>
       <c r="Q81" s="9"/>
     </row>
@@ -3850,7 +3993,7 @@
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="11" t="n">
+      <c r="B82" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C82" s="1" t="n">
@@ -3869,7 +4012,7 @@
       <c r="G82" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H82" s="17" t="n">
+      <c r="H82" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -3902,10 +4045,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="11" t="n">
+      <c r="B83" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C83" s="1" t="n">
@@ -3924,7 +4067,7 @@
       <c r="G83" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H83" s="17" t="n">
+      <c r="H83" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -3936,7 +4079,7 @@
       <c r="K83" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="L83" s="11" t="n">
+      <c r="L83" s="12" t="n">
         <v>219</v>
       </c>
       <c r="M83" s="0"/>
@@ -3960,48 +4103,48 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="8"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="10"/>
       <c r="J84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="11"/>
+      <c r="L84" s="12"/>
       <c r="M84" s="21" t="n">
         <v>0.0340277777777778</v>
       </c>
       <c r="Q84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="8"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="10"/>
       <c r="J85" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L85" s="11"/>
+      <c r="L85" s="12"/>
       <c r="M85" s="21" t="n">
         <v>0.0354166666666667</v>
       </c>
       <c r="Q85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="11"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="8"/>
+      <c r="B86" s="12"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="10"/>
       <c r="M86" s="0"/>
       <c r="Q86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="11" t="n">
+      <c r="B87" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C87" s="22" t="n">
@@ -4013,7 +4156,7 @@
       <c r="E87" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F87" s="14" t="n">
+      <c r="F87" s="15" t="n">
         <f aca="false">E87*C87</f>
         <v>2</v>
       </c>
@@ -4026,13 +4169,13 @@
       <c r="I87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" s="11" t="s">
         <v>98</v>
       </c>
       <c r="K87" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="L87" s="11" t="n">
+      <c r="L87" s="12" t="n">
         <v>206</v>
       </c>
       <c r="M87" s="0"/>
@@ -4056,10 +4199,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="11" t="n">
+      <c r="B88" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C88" s="22" t="n">
@@ -4071,7 +4214,7 @@
       <c r="E88" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="F88" s="14" t="n">
+      <c r="F88" s="15" t="n">
         <f aca="false">E88*C88</f>
         <v>2</v>
       </c>
@@ -4114,13 +4257,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="25"/>
       <c r="J89" s="2"/>
       <c r="M89" s="0"/>
@@ -4129,7 +4272,7 @@
       <c r="A90" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="11" t="n">
+      <c r="B90" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C90" s="1" t="n">
@@ -4141,7 +4284,7 @@
       <c r="E90" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F90" s="14" t="n">
+      <c r="F90" s="15" t="n">
         <f aca="false">E90*C90</f>
         <v>4</v>
       </c>
@@ -4181,10 +4324,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="11" t="n">
+      <c r="B91" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C91" s="1" t="n">
@@ -4196,7 +4339,7 @@
       <c r="E91" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F91" s="14" t="n">
+      <c r="F91" s="15" t="n">
         <f aca="false">E91*C91</f>
         <v>4</v>
       </c>
@@ -4239,10 +4382,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="11" t="n">
+      <c r="B92" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C92" s="1" t="n">
@@ -4254,7 +4397,7 @@
       <c r="E92" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F92" s="14" t="n">
+      <c r="F92" s="15" t="n">
         <f aca="false">E92*C92</f>
         <v>4</v>
       </c>
@@ -4273,7 +4416,7 @@
       <c r="K92" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L92" s="11" t="n">
+      <c r="L92" s="12" t="n">
         <v>199</v>
       </c>
       <c r="M92" s="0"/>
@@ -4297,10 +4440,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="11"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="25"/>
       <c r="M93" s="0"/>
       <c r="Q93" s="9"/>
@@ -4309,7 +4452,7 @@
       <c r="A94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="11" t="n">
+      <c r="B94" s="12" t="n">
         <v>72</v>
       </c>
       <c r="C94" s="1" t="n">
@@ -4364,25 +4507,25 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="11"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="12"/>
       <c r="J95" s="2"/>
       <c r="M95" s="21"/>
       <c r="Q95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="11"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="12"/>
       <c r="M96" s="0"/>
       <c r="Q96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="11" t="n">
+      <c r="B97" s="12" t="n">
         <v>96</v>
       </c>
       <c r="C97" s="22" t="n">
@@ -4391,10 +4534,10 @@
       <c r="D97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E97" s="11" t="n">
+      <c r="E97" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="F97" s="14" t="n">
+      <c r="F97" s="15" t="n">
         <f aca="false">E97*C97</f>
         <v>6</v>
       </c>
@@ -4404,7 +4547,7 @@
       <c r="H97" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="11" t="s">
         <v>107</v>
       </c>
       <c r="J97" s="2"/>
@@ -4429,23 +4572,23 @@
         <f aca="false">P97-L97</f>
         <v>103.08</v>
       </c>
-      <c r="R97" s="11" t="n">
+      <c r="R97" s="12" t="n">
         <f aca="false">B97+G97</f>
         <v>103</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="14"/>
+      <c r="F98" s="15"/>
       <c r="I98" s="2" t="s">
         <v>108</v>
       </c>
       <c r="M98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="11" t="n">
+      <c r="B99" s="12" t="n">
         <v>96</v>
       </c>
       <c r="C99" s="22" t="n">
@@ -4454,7 +4597,7 @@
       <c r="D99" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E99" s="10" t="n">
+      <c r="E99" s="11" t="n">
         <v>12</v>
       </c>
       <c r="F99" s="23" t="n">
@@ -4467,7 +4610,7 @@
       <c r="H99" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="2" t="s">
         <v>91</v>
       </c>
@@ -4498,10 +4641,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="11" t="n">
+      <c r="B100" s="12" t="n">
         <v>96</v>
       </c>
       <c r="C100" s="22" t="n">
@@ -4510,7 +4653,7 @@
       <c r="D100" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E100" s="10" t="n">
+      <c r="E100" s="11" t="n">
         <v>8</v>
       </c>
       <c r="F100" s="23" t="n">
@@ -4523,16 +4666,16 @@
       <c r="H100" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I100" s="10" t="s">
+      <c r="I100" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="J100" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="K100" s="11" t="n">
+      <c r="K100" s="12" t="n">
         <v>322</v>
       </c>
-      <c r="L100" s="11" t="n">
+      <c r="L100" s="12" t="n">
         <v>279</v>
       </c>
       <c r="M100" s="0"/>
@@ -4556,15 +4699,15 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="18"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="8"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="25"/>
-      <c r="I101" s="10"/>
+      <c r="I101" s="11"/>
       <c r="J101" s="2" t="s">
         <v>113</v>
       </c>
@@ -4574,15 +4717,15 @@
       <c r="Q101" s="45"/>
     </row>
     <row r="102" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="18"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="8"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="25"/>
-      <c r="I102" s="10"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="2" t="s">
         <v>114</v>
       </c>
@@ -4592,18 +4735,18 @@
       <c r="Q102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="14"/>
+      <c r="F103" s="15"/>
       <c r="J103" s="2"/>
       <c r="M103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C104" s="11" t="n">
+      <c r="C104" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="n">
@@ -4621,7 +4764,7 @@
       <c r="H104" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="11" t="s">
         <v>117</v>
       </c>
       <c r="J104" s="2" t="s">
@@ -4654,18 +4797,18 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="14"/>
+      <c r="F105" s="15"/>
       <c r="J105" s="2"/>
       <c r="M105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C106" s="11" t="n">
+      <c r="C106" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -4678,7 +4821,7 @@
         <f aca="false">E106*C106</f>
         <v>12</v>
       </c>
-      <c r="G106" s="10" t="n">
+      <c r="G106" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H106" s="40" t="n">
@@ -4693,7 +4836,7 @@
       <c r="K106" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="L106" s="15" t="n">
+      <c r="L106" s="16" t="n">
         <v>238</v>
       </c>
       <c r="M106" s="0"/>
@@ -4711,13 +4854,13 @@
         <f aca="false">P106-L106</f>
         <v>120.08</v>
       </c>
-      <c r="R106" s="11" t="n">
+      <c r="R106" s="12" t="n">
         <f aca="false">B106+G106</f>
         <v>100</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="14"/>
+      <c r="F107" s="15"/>
       <c r="J107" s="2" t="s">
         <v>122</v>
       </c>
@@ -4726,7 +4869,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="14"/>
+      <c r="F108" s="15"/>
       <c r="J108" s="2" t="s">
         <v>123</v>
       </c>
@@ -4735,7 +4878,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="14"/>
+      <c r="F109" s="15"/>
       <c r="J109" s="2" t="s">
         <v>124</v>
       </c>
@@ -4744,7 +4887,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="14"/>
+      <c r="F110" s="15"/>
       <c r="J110" s="2" t="s">
         <v>125</v>
       </c>
@@ -4753,7 +4896,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="14"/>
+      <c r="F111" s="15"/>
       <c r="J111" s="2" t="s">
         <v>126</v>
       </c>
@@ -4768,7 +4911,7 @@
       <c r="B112" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C112" s="11" t="n">
+      <c r="C112" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -4777,13 +4920,13 @@
       <c r="E112" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F112" s="16" t="n">
+      <c r="F112" s="17" t="n">
         <v>16</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H112" s="17" t="n">
+      <c r="H112" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -4821,7 +4964,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="14"/>
+      <c r="F113" s="15"/>
       <c r="J113" s="2" t="s">
         <v>129</v>
       </c>
@@ -4830,7 +4973,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="14"/>
+      <c r="F114" s="15"/>
       <c r="J114" s="2" t="s">
         <v>130</v>
       </c>
@@ -4839,7 +4982,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="14"/>
+      <c r="F115" s="15"/>
       <c r="J115" s="2" t="s">
         <v>131</v>
       </c>
@@ -4848,13 +4991,13 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C116" s="11" t="n">
+      <c r="C116" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -4863,14 +5006,14 @@
       <c r="E116" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F116" s="16" t="n">
+      <c r="F116" s="17" t="n">
         <f aca="false">E116*C116</f>
         <v>16</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H116" s="17" t="n">
+      <c r="H116" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -4882,7 +5025,7 @@
       <c r="K116" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="L116" s="11" t="n">
+      <c r="L116" s="12" t="n">
         <v>254</v>
       </c>
       <c r="N116" s="1" t="n">
@@ -4905,13 +5048,13 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C118" s="11" t="n">
+      <c r="C118" s="12" t="n">
         <v>6</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -4920,14 +5063,14 @@
       <c r="E118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F118" s="16" t="n">
+      <c r="F118" s="17" t="n">
         <f aca="false">E118*C118</f>
         <v>12</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H118" s="17" t="n">
+      <c r="H118" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -4936,10 +5079,10 @@
       <c r="J118" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K118" s="11" t="n">
+      <c r="K118" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="L118" s="11" t="n">
+      <c r="L118" s="12" t="n">
         <v>272</v>
       </c>
       <c r="N118" s="1" t="n">
@@ -4962,13 +5105,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C120" s="11" t="n">
+      <c r="C120" s="12" t="n">
         <v>8</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -4977,14 +5120,14 @@
       <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="16" t="n">
+      <c r="F120" s="17" t="n">
         <f aca="false">E120*C120</f>
         <v>16</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H120" s="17" t="n">
+      <c r="H120" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -4996,7 +5139,7 @@
       <c r="K120" s="39" t="n">
         <v>292</v>
       </c>
-      <c r="L120" s="11" t="n">
+      <c r="L120" s="12" t="n">
         <v>249</v>
       </c>
       <c r="N120" s="1" t="n">
@@ -5019,15 +5162,15 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11"/>
-      <c r="C121" s="11"/>
+      <c r="A121" s="12"/>
+      <c r="C121" s="12"/>
       <c r="E121" s="2"/>
       <c r="F121" s="18"/>
       <c r="G121" s="25"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="10"/>
       <c r="J121" s="2"/>
       <c r="K121" s="39"/>
-      <c r="L121" s="11"/>
+      <c r="L121" s="12"/>
       <c r="Q121" s="44"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,7 +5195,7 @@
       <c r="G123" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H123" s="16" t="n">
+      <c r="H123" s="17" t="n">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -5113,7 +5256,7 @@
       <c r="G125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H125" s="16" t="n">
+      <c r="H125" s="17" t="n">
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -5125,7 +5268,7 @@
       <c r="K125" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="L125" s="11" t="n">
+      <c r="L125" s="12" t="n">
         <v>37.8</v>
       </c>
       <c r="N125" s="1" t="n">
@@ -5151,14 +5294,14 @@
       <c r="A126" s="53"/>
       <c r="F126" s="34"/>
       <c r="H126" s="18"/>
-      <c r="L126" s="11"/>
+      <c r="L126" s="12"/>
       <c r="Q126" s="45"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="53"/>
       <c r="F127" s="34"/>
       <c r="H127" s="18"/>
-      <c r="L127" s="11"/>
+      <c r="L127" s="12"/>
       <c r="Q127" s="45"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,10 +5310,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="11" t="n">
+      <c r="B129" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C129" s="22" t="n">
@@ -5180,17 +5323,17 @@
         <f aca="false">B129/C129</f>
         <v>32</v>
       </c>
-      <c r="E129" s="11" t="n">
+      <c r="E129" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="23" t="n">
         <f aca="false">E129*C129</f>
         <v>4</v>
       </c>
-      <c r="G129" s="11" t="n">
+      <c r="G129" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H129" s="17" t="n">
+      <c r="H129" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -5229,10 +5372,10 @@
       <c r="A130" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B130" s="11" t="n">
+      <c r="B130" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C130" s="11" t="n">
+      <c r="C130" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -5246,10 +5389,10 @@
         <f aca="false">E130*C130</f>
         <v>4</v>
       </c>
-      <c r="G130" s="11" t="n">
+      <c r="G130" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H130" s="17" t="n">
+      <c r="H130" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I130" s="2" t="s">
@@ -5285,10 +5428,10 @@
       <c r="A131" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="11" t="n">
+      <c r="B131" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C131" s="11" t="n">
+      <c r="C131" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -5302,10 +5445,10 @@
         <f aca="false">E131*C131</f>
         <v>8</v>
       </c>
-      <c r="G131" s="11" t="n">
+      <c r="G131" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H131" s="8" t="n">
+      <c r="H131" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -5317,7 +5460,7 @@
       <c r="K131" s="34" t="n">
         <v>266</v>
       </c>
-      <c r="L131" s="11" t="n">
+      <c r="L131" s="12" t="n">
         <v>211</v>
       </c>
       <c r="M131" s="0"/>
@@ -5344,7 +5487,7 @@
       <c r="A132" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="11" t="n">
+      <c r="B132" s="12" t="n">
         <v>32</v>
       </c>
       <c r="C132" s="22" t="n">
@@ -5354,14 +5497,14 @@
         <f aca="false">B132/C132</f>
         <v>32</v>
       </c>
-      <c r="E132" s="11" t="n">
+      <c r="E132" s="12" t="n">
         <v>4</v>
       </c>
       <c r="F132" s="23" t="n">
         <f aca="false">E132*C132</f>
         <v>4</v>
       </c>
-      <c r="G132" s="11" t="n">
+      <c r="G132" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H132" s="40" t="n">
@@ -5403,10 +5546,10 @@
       <c r="A133" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="11" t="n">
+      <c r="B133" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C133" s="11" t="n">
+      <c r="C133" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -5420,7 +5563,7 @@
         <f aca="false">E133*C133</f>
         <v>4</v>
       </c>
-      <c r="G133" s="11" t="n">
+      <c r="G133" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H133" s="40" t="n">
@@ -5459,10 +5602,10 @@
       <c r="A134" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B134" s="11" t="n">
+      <c r="B134" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C134" s="11" t="n">
+      <c r="C134" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
@@ -5476,7 +5619,7 @@
         <f aca="false">E134*C134</f>
         <v>8</v>
       </c>
-      <c r="G134" s="11" t="n">
+      <c r="G134" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H134" s="40" t="n">
@@ -5515,39 +5658,39 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="11" t="n">
+      <c r="B135" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="C135" s="11" t="n">
+      <c r="C135" s="12" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
         <f aca="false">B135/C135</f>
         <v>8</v>
       </c>
-      <c r="E135" s="11" t="n">
+      <c r="E135" s="12" t="n">
         <v>1</v>
       </c>
       <c r="F135" s="23" t="n">
         <f aca="false">E135*C135</f>
         <v>4</v>
       </c>
-      <c r="G135" s="11" t="n">
+      <c r="G135" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H135" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="I135" s="10" t="s">
+      <c r="I135" s="11" t="s">
         <v>81</v>
       </c>
       <c r="J135" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="K135" s="11" t="n">
+      <c r="K135" s="12" t="n">
         <v>310</v>
       </c>
       <c r="L135" s="35" t="n">
@@ -5571,6 +5714,204 @@
       <c r="R135" s="39" t="n">
         <f aca="false">B135+G135</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J139" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K139" s="12" t="n">
+        <v>155</v>
+      </c>
+      <c r="L139" s="35" t="n">
+        <v>127</v>
+      </c>
+      <c r="M139" s="0"/>
+      <c r="N139" s="12" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O139" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P139" s="1" t="n">
+        <f aca="false">N139*B139</f>
+        <v>201.6</v>
+      </c>
+      <c r="Q139" s="9" t="n">
+        <f aca="false">P139-L139</f>
+        <v>74.6</v>
+      </c>
+      <c r="R139" s="39" t="n">
+        <f aca="false">B139+G139</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140" s="12"/>
+      <c r="I140" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J141" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="L141" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="N141" s="12" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O141" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P141" s="1" t="n">
+        <f aca="false">N141*B141</f>
+        <v>268.8</v>
+      </c>
+      <c r="Q141" s="9" t="n">
+        <f aca="false">P141-L141</f>
+        <v>98.8</v>
+      </c>
+      <c r="R141" s="39" t="n">
+        <f aca="false">B141+G141</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M142" s="3" t="n">
+        <v>0.0298611111111111</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M143" s="3" t="n">
+        <v>0.0305555555555556</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M144" s="3" t="n">
+        <v>0.03125</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J145" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J146" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J147" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J148" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J149" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J151" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M151" s="48" t="n">
+        <v>0.0277777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -5605,82 +5946,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="52" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="56" t="s">
-        <v>159</v>
+      <c r="C14" s="59" t="s">
+        <v>184</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>136</v>
@@ -5688,17 +6029,17 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="0" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="52" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -88,6 +88,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Physical disks</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N1" authorId="0">
       <text>
         <r>
@@ -122,12 +134,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Total number of physical disks (inpool + spares)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">List of disks to include in VDEV
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="263">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -159,15 +196,15 @@
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">Total time to CP .iso (6GB)</t>
+  </si>
+  <si>
     <t xml:space="preserve">zpool list TOTAL GB</t>
   </si>
   <si>
     <t xml:space="preserve">zfs list AVAIL GB</t>
   </si>
   <si>
-    <t xml:space="preserve">Total time to CP .iso (6GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Usable Disk Size - GiB</t>
   </si>
   <si>
@@ -183,27 +220,93 @@
     <t xml:space="preserve">Total Pdisks</t>
   </si>
   <si>
+    <t xml:space="preserve">zp=zdraidtest # Command to create:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAIDz level 1/2/3
+D=Datadisks per group
+C=Children PER VDEV
+S=Virtual Spares</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">b c d e f g h i j k l m n o p q r s t u v w x y 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a b c d e f g h I j k l m n o p q r s t u v w x (sdaa sdba sdca)
+1 2 3 4 5 6 7 8 9 101112131415161718192021222324</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical spare (if any) - usually sdz + sday sdaz sdby sdbz sdcy sdcz</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:2d:4c:1s</t>
   </si>
   <si>
     <t xml:space="preserve">2 with 1 vspare and 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..e}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:4d:6c:1s</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..g}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:6d:8c:1s</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..i}</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 with 1 vspare + 2 pspares + 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:2d:4c:1s
+draid1:2d:4c:1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..e} \
+sd{f..i}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdj sdk</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:3d:4c:0s</t>
   </si>
   <si>
     <t xml:space="preserve">3 with 2 pspares + 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:3d:4c:0s
+draid1:3d:4c:0s</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:7d:10c:2s</t>
   </si>
   <si>
@@ -225,12 +328,26 @@
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to zstd-3 DS - including sync - with 3 UNAVAIL and 2 vspares</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..k}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:3d:5c:1s</t>
   </si>
   <si>
     <t xml:space="preserve">up to 4 with 1 vspare + 2 pspares</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:3d:5c:1s
+draid1:3d:5c:1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..f} \
+sd{g..k}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdL sdm</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:10d:12c:1s</t>
   </si>
   <si>
@@ -243,6 +360,9 @@
     <t xml:space="preserve">Ok so this is a thing, lots of data disks in (1) vdev and 1 vspare</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..q}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to uncompressed DS - including sync - with 2 UNAVAIL and 1 vspare </t>
   </si>
   <si>
@@ -255,9 +375,20 @@
     <t xml:space="preserve">Lots of Data disks</t>
   </si>
   <si>
+    <t xml:space="preserve">sdr sds</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to uncompressed DS - including sync - with no UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:6d:8c:1s
+draid1:6d:8c:1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..i} \
+sd{j..q}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copy ~7.3GB isos from UDF DVD to zstd-3 DS - including sync - with 2 UNAVAIL + 2 spares in use</t>
   </si>
   <si>
@@ -279,12 +410,23 @@
     <t xml:space="preserve">copy in-vm 6GB iso to uncompressed DS - including sync - with no UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..y}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:8d:12c:2s</t>
   </si>
   <si>
     <t xml:space="preserve">3 with 2 vspare and 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:8d:12c:2s
+draid1:8d:12c:2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..m} \
+sd{n..y}</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 3 UNAVAIL – getting some Write and CKSUM errors on some devs</t>
   </si>
   <si>
@@ -300,12 +442,29 @@
     <t xml:space="preserve">4 with 2 vspare and 2 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid2:8d:12c:2s
+draid2:8d:12c:2s</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 4 UNAVAIL – and 2 vspares in use</t>
   </si>
   <si>
     <t xml:space="preserve">copy in-vm 6GB iso to LZ4 DS - including sync - with 8 UNAVAIL – and 4 vspares in use</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:6d:8c:1s
+draid1:6d:8c:1s
+draid1:6d:8c:1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..i} \
+sd{j..q} \
+sd{r..y}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdz</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 6 UNAVAIL – and 3 vspares in use</t>
   </si>
   <si>
@@ -318,6 +477,23 @@
     <t xml:space="preserve">draid1:5d:8c:1s-0</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:5d:8c:1s-0
+draid1:5d:8c:1s-0
+draid1:5d:8c:1s-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draid1:4d:6c:1s
+draid1:4d:6c:1s
+draid1:4d:6c:1s
+draid1:4d:6c:1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..g} \
+sd{h..m} \
+sd{n..s} \
+sd{t..y}</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with 4 UNAVAIL – and 4 vspares in use</t>
   </si>
   <si>
@@ -327,6 +503,12 @@
     <t xml:space="preserve">draid2:3d:6c:1s</t>
   </si>
   <si>
+    <t xml:space="preserve">draid2:3d:6c:1s
+draid2:3d:6c:1s
+draid2:3d:6c:1s
+draid2:3d:6c:1s</t>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to LZ4 DS - including sync - with 12 UNAVAIL – and 4 vspares in use</t>
   </si>
   <si>
@@ -339,21 +521,49 @@
     <t xml:space="preserve">draid2:5d:8c:1s</t>
   </si>
   <si>
+    <t xml:space="preserve">draid2:5d:8c:1s
+draid2:5d:8c:1s
+draid2:5d:8c:1s</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:27d:32c:4s</t>
   </si>
   <si>
     <t xml:space="preserve">5 with 4 vspares and 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..y} sda{a..f}</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 with 2 vspares and 2 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:13d:16c:2s
+draid1:13d:16c:2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..q} \
+sd{b..y} sda{a..g}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:5d:8c:2s</t>
   </si>
   <si>
     <t xml:space="preserve">Not very wide, lost capacity</t>
   </si>
   <si>
+    <t xml:space="preserve">draid1:5d:8c:2s
+draid1:5d:8c:2s
+draid1:5d:8c:2s
+draid1:5d:8c:2s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..i} \ 
+sd{j..q} \
+sd{r..y} \
+sda{a..g}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:26d:32c:4s</t>
   </si>
   <si>
@@ -369,9 +579,19 @@
     <t xml:space="preserve">4 with 2 vspare + 2 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">draid2:12d:16c:2s
+draid2:12d:16c:2s</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:4d:8c:2s</t>
   </si>
   <si>
+    <t xml:space="preserve">draid2:4d:8c:2s
+draid2:4d:8c:2s
+draid2:4d:8c:2s
+draid2:4d:8c:2s</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 with 1 vspare + 2 UNAVAIL</t>
   </si>
   <si>
@@ -381,9 +601,62 @@
     <t xml:space="preserve">draid1:8d:48c:1s</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..y} sda{a..x}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:1s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:1s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..y} \
+sda{a..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:8d:16c:1s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:16c:1s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:16c:1s
+draid1:8d:16c:1s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..q} \
+sd{r..y} sda{a..h} \
+sda{i..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:8d:48c:2s</t>
   </si>
   <si>
@@ -399,24 +672,139 @@
     <t xml:space="preserve">draid2:8d:24c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:24c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:24c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:8d:16c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:16c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:16c:2s
+draid2:8d:16c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">More data disks, less lost to parity</t>
   </si>
   <si>
     <t xml:space="preserve">draid1:8d:72c:2s</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..y} sda{a..x} sdb{a..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:8d:36c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:36c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:36c:2s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..y} sda{a..l} \
+sda{m..x} sdb{a..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:8d:24c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:2s
+draid1:8d:24c:2s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..y} \
+sda{a..x} \
+sdb{a..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:20d:24c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:20d:24c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:20d:24c:2s
+draid1:20d:24c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to zstd-3 DS - including sync - with 3 UNAVAIL - and 2 vspares in use</t>
   </si>
   <si>
@@ -435,24 +823,111 @@
     <t xml:space="preserve">draid2:8d:36c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:36c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:36c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:9d:36c:2s</t>
   </si>
   <si>
     <t xml:space="preserve">Same as previous(?)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:9d:36c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:9d:36c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:12d:36c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:36c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:36c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:12d:24c:2s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:24c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:24c:2s
+draid2:12d:24c:2s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:8d:96c:6s</t>
   </si>
   <si>
     <t xml:space="preserve">13 with 11 v+pspares in use + 2 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..y} sda{a..x} sdb{a..x} sdc{a..x}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdz sday sdaz sdby sdbz sdcy sdcz</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOTE 2 pspares were still AVAIL but not swapped in, the devs may have failed too soon after each other</t>
   </si>
   <si>
@@ -486,13 +961,68 @@
     <t xml:space="preserve">0 pspares - (7) reserved but not auto-allocated</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:48c:4s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:48c:4s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..y} sda{a..x} \
+sdb{a..x} sdc{a..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:8d:24c:3s</t>
   </si>
   <si>
     <t xml:space="preserve">5 without pspares, up to 9 with 2 UNAVAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">4 hotspares +4 outside of spares</t>
+    <t xml:space="preserve">4 hotspares +4 outside of spares - not efficient, least amount of capacity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:24c:3s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:8d:24c:3s
+draid2:8d:24c:3s
+draid2:8d:24c:3s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..y} \
+sda{a..x} \
+sdb{a..x} \
+sdc{a..x}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdz sday sdaz sdby </t>
   </si>
   <si>
     <t xml:space="preserve">test copy 6GB Highsierra.iso to /home XFS in-vm</t>
@@ -516,6 +1046,28 @@
     <t xml:space="preserve">5 without pspares; with 1 UNAVAIL</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:4s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:8d:24c:4s
+draid1:8d:24c:4s
+draid1:8d:24c:4s</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">copy in-vm 6GB iso to zstd-3 DS - including sync - with no UNAVAIL</t>
   </si>
   <si>
@@ -528,13 +1080,109 @@
     <t xml:space="preserve">draid1:18d:24c:4s</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:18d:24c:4s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:18d:24c:4s
+draid1:18d:24c:4s
+draid1:18d:24c:4s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:13d:16c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:13d:16c:2s
+draid1:13d:16c:2s
+draid1:13d:16c:2s
+draid1:13d:16c:2s
+draid1:13d:16c:2s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..q} \
+sd{r..y} sda{a..h} \
+sda{i..x} \
+sdb{a..p} \
+sdb{q..x} sdc{a..h} \
+sdc{i..x} </t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:9d:12c:2s</t>
   </si>
   <si>
+    <t xml:space="preserve">More data disks, less lost to parity BUT not wide enough - low capacity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:9d:12c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:9d:12c:2s
+draid1:9d:12c:2s
+draid1:9d:12c:2s
+draid1:9d:12c:2s
+draid1:9d:12c:2s
+draid1:9d:12c:2s
+draid1:9d:12c:2s</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..m} \
+sd{n..y} \
+sda{a..l} \
+sda{m..x} \
+sdb{a..l} \
+sdb{m..x} \
+sdc{a..l} \
+Sdc{m..x}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:3d:1s:14c</t>
   </si>
   <si>
     <t xml:space="preserve">klara example - not optimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd{b..o}</t>
   </si>
   <si>
     <t xml:space="preserve">https://klarasystems.com/articles/openzfs-draid-finally/</t>
@@ -708,7 +1356,13 @@
     <t xml:space="preserve">If you use my data please include original-author attribution.</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTE you can double check drive count with:</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://insider-voice.com/a-deep-dive-into-the-new-openzfs-2-1-distributed-raid-topology/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo sd{b..x} sda{a..x} |wc -w</t>
   </si>
   <si>
     <t xml:space="preserve">Original Commit:</t>
@@ -726,7 +1380,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -755,10 +1409,42 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -799,9 +1485,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -912,7 +1598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -933,6 +1619,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,63 +1635,95 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,7 +1735,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,19 +1743,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,15 +1763,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,19 +1779,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1089,15 +1815,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1105,51 +1831,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,12 +1956,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:AMJ151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+      <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1249,17 +1975,21 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="29.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="15.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="4" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="71.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="65.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="29.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,13 +2020,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1308,16 +2038,28 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>4</v>
@@ -1328,30 +2070,30 @@
       <c r="D2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="n">
+      <c r="E2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <f aca="false">E2*C2</f>
         <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
+      <c r="H2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="7"/>
+      <c r="L2" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="M2" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1363,17 +2105,33 @@
         <v>14.92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <f aca="false">P2-L2</f>
+        <f aca="false">P2-M2</f>
         <v>7.82</v>
       </c>
       <c r="R2" s="1" t="n">
         <f aca="false">B2+G2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="16" t="str">
+        <f aca="false">A2</f>
+        <v>draid1:2d:4c:1s</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>6</v>
@@ -1384,30 +2142,30 @@
       <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="n">
         <f aca="false">E3*C3</f>
         <v>1</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
+      <c r="H3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="7"/>
+      <c r="L3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="M3" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1418,30 +2176,39 @@
         <f aca="false">N3*B3</f>
         <v>22.38</v>
       </c>
-      <c r="Q3" s="9" t="n">
-        <f aca="false">P3-L3</f>
+      <c r="Q3" s="18" t="n">
+        <f aca="false">P3-M3</f>
         <v>8.38</v>
       </c>
       <c r="R3" s="1" t="n">
         <f aca="false">B3+G3</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T3" s="16" t="str">
+        <f aca="false">A3</f>
+        <v>draid1:4d:6c:1s</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="5"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="2"/>
+      <c r="Q4" s="18"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>8</v>
@@ -1452,30 +2219,30 @@
       <c r="D5" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="n">
         <f aca="false">E5*C5</f>
         <v>1</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>19</v>
+      <c r="H5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="7"/>
+      <c r="L5" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="M5" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1486,52 +2253,59 @@
         <f aca="false">N5*B5</f>
         <v>29.84</v>
       </c>
-      <c r="Q5" s="9" t="n">
-        <f aca="false">P5-L5</f>
+      <c r="Q5" s="18" t="n">
+        <f aca="false">P5-M5</f>
         <v>8.84</v>
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">B5+G5</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
+      <c r="T5" s="16" t="str">
+        <f aca="false">A5</f>
+        <v>draid1:6d:8c:1s</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="n">
+      <c r="E6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="n">
         <f aca="false">E6*C6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="n">
+      <c r="G6" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>14.2</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1543,51 +2317,63 @@
         <v>29.84</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <f aca="false">P6-L6</f>
+        <f aca="false">P6-M6</f>
         <v>15.64</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="21" t="n">
         <f aca="false">B6+G6</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>23</v>
+      <c r="T6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="17" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="E7" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24" t="n">
         <f aca="false">E7*C7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="n">
+      <c r="G7" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="7"/>
+      <c r="L7" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>20.9</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1598,30 +2384,46 @@
         <f aca="false">N7*B7</f>
         <v>29.84</v>
       </c>
-      <c r="Q7" s="9" t="n">
-        <f aca="false">P7-L7</f>
+      <c r="Q7" s="18" t="n">
+        <f aca="false">P7-M7</f>
         <v>8.94</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="21" t="n">
         <f aca="false">B7+G7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7" s="5"/>
+      <c r="T7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="5"/>
-      <c r="Q8" s="9"/>
+      <c r="M8" s="2"/>
+      <c r="Q8" s="18"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
+      <c r="A9" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>10</v>
@@ -1632,32 +2434,32 @@
       <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="17" t="n">
+      <c r="E9" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="27" t="n">
         <f aca="false">E9*C9</f>
         <v>2</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2" t="n">
+      <c r="H9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="M9" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="M9" s="5"/>
       <c r="N9" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1668,34 +2470,41 @@
         <f aca="false">N9*B9</f>
         <v>37.3</v>
       </c>
-      <c r="Q9" s="9" t="n">
-        <f aca="false">P9-L9</f>
+      <c r="Q9" s="18" t="n">
+        <f aca="false">P9-M9</f>
         <v>12.3</v>
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">B9+G9</f>
         <v>10</v>
       </c>
+      <c r="T9" s="16" t="str">
+        <f aca="false">A9</f>
+        <v>draid1:7d:10c:2s</v>
+      </c>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15" t="s">
-        <v>28</v>
+      <c r="H10" s="19"/>
+      <c r="I10" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="5"/>
-      <c r="Q10" s="9"/>
+      <c r="M10" s="2"/>
+      <c r="Q10" s="18"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>29</v>
+      <c r="A11" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>10</v>
@@ -1706,33 +2515,33 @@
       <c r="D11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17" t="n">
+      <c r="E11" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="27" t="n">
         <f aca="false">E11*C11</f>
         <v>2</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>30</v>
+      <c r="H11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="K11" s="30" t="n">
+        <v>0.0888888888888889</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="M11" s="2" t="n">
         <v>23</v>
-      </c>
-      <c r="M11" s="20" t="n">
-        <v>0.0888888888888889</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>3.73</v>
@@ -1745,22 +2554,29 @@
         <v>37.3</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <f aca="false">P11-L11</f>
+        <f aca="false">P11-M11</f>
         <v>14.3</v>
       </c>
       <c r="R11" s="1" t="n">
         <f aca="false">B11+G11</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T11" s="16" t="str">
+        <f aca="false">A11</f>
+        <v>draid1:5d:10c:2s</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -1769,26 +2585,26 @@
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="25" t="n">
         <f aca="false">E12*C12</f>
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>20.9</v>
       </c>
-      <c r="M12" s="0"/>
       <c r="N12" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1800,20 +2616,32 @@
         <v>37.3</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <f aca="false">P12-L12</f>
+        <f aca="false">P12-M12</f>
         <v>16.4</v>
       </c>
       <c r="R12" s="1" t="n">
         <f aca="false">B12+G12</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="K13" s="0"/>
@@ -1823,23 +2651,27 @@
       <c r="O13" s="0"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="5"/>
-      <c r="Q14" s="9"/>
+      <c r="M14" s="2"/>
+      <c r="Q14" s="18"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>12</v>
@@ -1850,33 +2682,33 @@
       <c r="D15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="n">
+      <c r="E15" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="n">
         <f aca="false">E15*C15</f>
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>19</v>
+      <c r="H15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="31" t="n">
+        <v>0.0263888888888889</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>35</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="M15" s="21" t="n">
-        <v>0.0263888888888889</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>3.73</v>
@@ -1888,66 +2720,75 @@
         <f aca="false">N15*B15</f>
         <v>44.76</v>
       </c>
-      <c r="Q15" s="9" t="n">
-        <f aca="false">P15-L15</f>
+      <c r="Q15" s="18" t="n">
+        <f aca="false">P15-M15</f>
         <v>9.76</v>
       </c>
       <c r="R15" s="1" t="n">
         <f aca="false">B15+G15</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T15" s="16" t="str">
+        <f aca="false">A15</f>
+        <v>draid1:10d:12c:1s</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="5"/>
-      <c r="Q16" s="9"/>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="18"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>36</v>
+      <c r="A17" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="n">
+      <c r="E17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="n">
         <f aca="false">E17*C17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="2" t="n">
+      <c r="G17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>55</v>
       </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -1958,90 +2799,101 @@
         <f aca="false">N17*B17</f>
         <v>59.68</v>
       </c>
-      <c r="Q17" s="9" t="n">
-        <f aca="false">P17-L17</f>
+      <c r="Q17" s="18" t="n">
+        <f aca="false">P17-M17</f>
         <v>11.88</v>
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">B17+G17</f>
         <v>16</v>
       </c>
+      <c r="T17" s="16" t="str">
+        <f aca="false">A17</f>
+        <v>draid1:14d:16c:1s</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0.0298611111111111</v>
+      </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="5" t="n">
-        <v>0.0298611111111111</v>
-      </c>
-      <c r="Q18" s="9"/>
+      <c r="M18" s="2"/>
+      <c r="Q18" s="18"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="K19" s="30" t="n">
+        <v>0.0770833333333333</v>
+      </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="20" t="n">
-        <v>0.0770833333333333</v>
-      </c>
-      <c r="Q19" s="9"/>
+      <c r="M19" s="2"/>
+      <c r="Q19" s="18"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
+      <c r="A20" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="22" t="n">
+      <c r="C20" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E20" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="23" t="n">
+      <c r="E20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="33" t="n">
         <f aca="false">E20*C20</f>
         <v>2</v>
       </c>
-      <c r="G20" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="8" t="n">
+      <c r="G20" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="L20" s="2" t="n">
+      <c r="M20" s="2" t="n">
         <v>45.2</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -2052,55 +2904,71 @@
         <f aca="false">N20*B20</f>
         <v>59.68</v>
       </c>
-      <c r="Q20" s="9" t="n">
-        <f aca="false">P20-L20</f>
+      <c r="Q20" s="18" t="n">
+        <f aca="false">P20-M20</f>
         <v>14.48</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="21" t="n">
         <f aca="false">B20+G20</f>
         <v>18</v>
       </c>
+      <c r="S20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="16" t="str">
+        <f aca="false">A20</f>
+        <v>draid1:13d:16c:2s</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="12" t="n">
+      <c r="C21" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23" t="n">
+      <c r="E21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="33" t="n">
         <f aca="false">E21*C21</f>
         <v>2</v>
       </c>
-      <c r="G21" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>19</v>
+      <c r="G21" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0.0319444444444444</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>42</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0.0319444444444444</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>3.73</v>
@@ -2112,94 +2980,108 @@
         <f aca="false">N21*B21</f>
         <v>59.68</v>
       </c>
-      <c r="Q21" s="9" t="n">
-        <f aca="false">P21-L21</f>
+      <c r="Q21" s="18" t="n">
+        <f aca="false">P21-M21</f>
         <v>17.68</v>
       </c>
       <c r="R21" s="1" t="n">
         <f aca="false">B21+G21</f>
         <v>16</v>
       </c>
+      <c r="T21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">G21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="I22" s="11"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="K22" s="34" t="n">
+        <v>0.05625</v>
+      </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="24" t="n">
-        <v>0.05625</v>
-      </c>
-      <c r="Q22" s="9"/>
+      <c r="M22" s="2"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="1" t="n">
         <f aca="false">B22+G22</f>
         <v>0</v>
       </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="I23" s="11"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K23" s="34" t="n">
+        <v>0.110416666666667</v>
+      </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="24" t="n">
-        <v>0.110416666666667</v>
-      </c>
-      <c r="Q23" s="9"/>
+      <c r="M23" s="2"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="1" t="n">
         <f aca="false">B23+G23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>45</v>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C24" s="22" t="n">
+      <c r="C24" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="15" t="n">
+      <c r="E24" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="25" t="n">
         <f aca="false">E24*C24</f>
         <v>1</v>
       </c>
-      <c r="G24" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="G24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M24" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="M24" s="5"/>
       <c r="N24" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -2210,80 +3092,102 @@
         <f aca="false">N24*B24</f>
         <v>59.68</v>
       </c>
-      <c r="Q24" s="9" t="n">
-        <f aca="false">P24-L24</f>
+      <c r="Q24" s="18" t="n">
+        <f aca="false">P24-M24</f>
         <v>13.68</v>
       </c>
       <c r="R24" s="1" t="n">
         <f aca="false">B24+G24</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S24" s="5"/>
+      <c r="T24" s="16" t="str">
+        <f aca="false">A24</f>
+        <v>draid2:13d:16c:1s</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="V24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="7"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="13"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="5"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="25"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="8"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C27" s="22" t="n">
+      <c r="C27" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15" t="n">
+      <c r="E27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25" t="n">
         <f aca="false">E27*C27</f>
         <v>1</v>
       </c>
-      <c r="G27" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8" t="n">
+      <c r="G27" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="L27" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="M27" s="2" t="n">
         <v>72.3</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0.0243055555555556</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>3.73</v>
@@ -2295,55 +3199,65 @@
         <f aca="false">N27*B27</f>
         <v>89.52</v>
       </c>
-      <c r="Q27" s="9" t="n">
-        <f aca="false">P27-L27</f>
+      <c r="Q27" s="18" t="n">
+        <f aca="false">P27-M27</f>
         <v>17.22</v>
       </c>
       <c r="R27" s="1" t="n">
         <f aca="false">B27+G27</f>
         <v>24</v>
       </c>
+      <c r="S27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="16" t="str">
+        <f aca="false">A27</f>
+        <v>draid1:8d:24c:1s</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="22" t="n">
+      <c r="C28" s="32" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E28" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" s="23" t="n">
+      <c r="E28" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="33" t="n">
         <f aca="false">E28*C28</f>
         <v>4</v>
       </c>
-      <c r="G28" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>51</v>
+      <c r="G28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="28" t="n">
+        <v>71</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="L28" s="38" t="n">
         <v>73</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="M28" s="13" t="n">
         <v>62.9</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0.0222222222222222</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>3.73</v>
@@ -2355,75 +3269,89 @@
         <f aca="false">N28*B28</f>
         <v>89.52</v>
       </c>
-      <c r="Q28" s="29" t="n">
-        <f aca="false">P28-L28</f>
+      <c r="Q28" s="39" t="n">
+        <f aca="false">P28-M28</f>
         <v>26.62</v>
       </c>
       <c r="R28" s="1" t="n">
         <f aca="false">B28+G28</f>
         <v>24</v>
       </c>
+      <c r="T28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="15"/>
-      <c r="H29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="19"/>
       <c r="J29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="21" t="n">
+        <v>77</v>
+      </c>
+      <c r="K29" s="31" t="n">
         <v>0.0194444444444444</v>
       </c>
-      <c r="Q29" s="29"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="Q29" s="39"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="15"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="15"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="25"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="K30" s="7" t="n">
         <v>0.0201388888888889</v>
       </c>
-      <c r="Q30" s="29"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="Q30" s="39"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="15"/>
-      <c r="H31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="25"/>
+      <c r="H31" s="19"/>
       <c r="J31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="21" t="n">
+        <v>79</v>
+      </c>
+      <c r="K31" s="31" t="n">
         <v>0.0138888888888889</v>
       </c>
-      <c r="Q31" s="29"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="15"/>
-      <c r="H32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="25"/>
+      <c r="H32" s="19"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="21"/>
-      <c r="Q32" s="29"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="Q32" s="39"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>55</v>
+      <c r="A33" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>24</v>
@@ -2434,33 +3362,33 @@
       <c r="D33" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="23" t="n">
+      <c r="E33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="33" t="n">
         <f aca="false">E33*C33</f>
         <v>4</v>
       </c>
-      <c r="G33" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>56</v>
+      <c r="G33" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="28" t="n">
+        <v>71</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>0.0263888888888889</v>
+      </c>
+      <c r="L33" s="38" t="n">
         <v>73</v>
       </c>
-      <c r="L33" s="28" t="n">
+      <c r="M33" s="38" t="n">
         <v>56.5</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0.0263888888888889</v>
       </c>
       <c r="N33" s="1" t="n">
         <v>3.73</v>
@@ -2472,64 +3400,79 @@
         <f aca="false">N33*B33</f>
         <v>89.52</v>
       </c>
-      <c r="Q33" s="30" t="n">
-        <f aca="false">P33-L33</f>
+      <c r="Q33" s="40" t="n">
+        <f aca="false">P33-M33</f>
         <v>33.02</v>
       </c>
       <c r="R33" s="1" t="n">
         <f aca="false">B33+G33</f>
         <v>24</v>
       </c>
+      <c r="S33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="15"/>
-      <c r="H34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="25"/>
+      <c r="H34" s="19"/>
       <c r="J34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="21" t="n">
+        <v>83</v>
+      </c>
+      <c r="K34" s="31" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="Q34" s="29"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="Q34" s="39"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="15"/>
-      <c r="H35" s="10"/>
-      <c r="J35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="21" t="n">
+      <c r="E35" s="13"/>
+      <c r="F35" s="25"/>
+      <c r="H35" s="19"/>
+      <c r="J35" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="31" t="n">
         <v>0.00902777777777778</v>
       </c>
-      <c r="Q35" s="29"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="Q35" s="39"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="15"/>
-      <c r="H36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="25"/>
+      <c r="H36" s="19"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="21"/>
-      <c r="Q36" s="29"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="31"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="Q36" s="39"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="K37" s="0"/>
@@ -2539,10 +3482,12 @@
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
       <c r="Q37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
-        <v>21</v>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>24</v>
@@ -2553,33 +3498,33 @@
       <c r="D38" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E38" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="23" t="n">
+      <c r="E38" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="33" t="n">
         <f aca="false">E38*C38</f>
         <v>3</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H38" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="L38" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="M38" s="1" t="n">
         <v>63</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0.0243055555555556</v>
       </c>
       <c r="N38" s="1" t="n">
         <v>3.73</v>
@@ -2591,66 +3536,86 @@
         <f aca="false">N38*B38</f>
         <v>89.52</v>
       </c>
-      <c r="Q38" s="9" t="n">
-        <f aca="false">P38-L38</f>
+      <c r="Q38" s="18" t="n">
+        <f aca="false">P38-M38</f>
         <v>26.52</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="21" t="n">
         <f aca="false">B38+G38</f>
         <v>25</v>
       </c>
+      <c r="T38" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="U38" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="15"/>
-      <c r="H39" s="10"/>
+      <c r="A39" s="21"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="25"/>
+      <c r="H39" s="19"/>
       <c r="J39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="21" t="n">
+        <v>88</v>
+      </c>
+      <c r="K39" s="31" t="n">
         <v>0.01875</v>
       </c>
-      <c r="Q39" s="9"/>
+      <c r="Q39" s="18"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="15"/>
-      <c r="H40" s="10"/>
-      <c r="J40" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M40" s="21" t="n">
+      <c r="A40" s="21"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="25"/>
+      <c r="H40" s="19"/>
+      <c r="J40" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="31" t="n">
         <v>0.0194444444444444</v>
       </c>
-      <c r="Q40" s="9"/>
+      <c r="Q40" s="18"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="15"/>
-      <c r="H41" s="10"/>
+      <c r="A41" s="21"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="25"/>
+      <c r="H41" s="19"/>
       <c r="J41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M41" s="32" t="n">
+        <v>90</v>
+      </c>
+      <c r="K41" s="42" t="n">
         <v>0.0368055555555556</v>
       </c>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="15"/>
-      <c r="H42" s="10"/>
+      <c r="Q41" s="18"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="25"/>
+      <c r="H42" s="19"/>
       <c r="J42" s="2"/>
-      <c r="M42" s="21"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
-        <v>62</v>
+      <c r="K42" s="31"/>
+      <c r="Q42" s="18"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>24</v>
@@ -2664,26 +3629,26 @@
       <c r="E43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="27" t="n">
         <f aca="false">E43*C43</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H43" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="M43" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="M43" s="0"/>
       <c r="N43" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -2694,22 +3659,36 @@
         <f aca="false">N43*B43</f>
         <v>89.52</v>
       </c>
-      <c r="Q43" s="9" t="n">
-        <f aca="false">P43-L43</f>
+      <c r="Q43" s="18" t="n">
+        <f aca="false">P43-M43</f>
         <v>28.52</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="R43" s="21" t="n">
         <f aca="false">B43+G43</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="15"/>
-      <c r="M44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="U43" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="25"/>
+      <c r="K44" s="0"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+    </row>
+    <row r="45" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>24</v>
@@ -2720,33 +3699,33 @@
       <c r="D45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="17" t="n">
+      <c r="E45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="27" t="n">
         <f aca="false">E45*C45</f>
         <v>4</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="10" t="n">
+      <c r="H45" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K45" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0.0236111111111111</v>
+      </c>
+      <c r="L45" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="L45" s="34" t="n">
+      <c r="M45" s="44" t="n">
         <v>56</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0.0236111111111111</v>
       </c>
       <c r="N45" s="1" t="n">
         <v>3.73</v>
@@ -2759,39 +3738,57 @@
         <v>89.52</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <f aca="false">P45-L45</f>
+        <f aca="false">P45-M45</f>
         <v>33.52</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="R45" s="21" t="n">
         <f aca="false">B45+G45</f>
         <v>25</v>
       </c>
+      <c r="T45" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="U45" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="15"/>
+      <c r="F46" s="25"/>
       <c r="J46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M46" s="21" t="n">
+        <v>95</v>
+      </c>
+      <c r="K46" s="31" t="n">
         <v>0.0173611111111111</v>
       </c>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="15"/>
-      <c r="J47" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="M47" s="21" t="n">
+      <c r="F47" s="25"/>
+      <c r="J47" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K47" s="31" t="n">
         <v>0.0104166666666667</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="15"/>
-      <c r="M48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>65</v>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="25"/>
+      <c r="K48" s="0"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+    </row>
+    <row r="49" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>24</v>
@@ -2802,33 +3799,33 @@
       <c r="D49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E49" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="23" t="n">
+      <c r="E49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="33" t="n">
         <f aca="false">E49*C49</f>
         <v>4</v>
       </c>
-      <c r="G49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>46</v>
+      <c r="G49" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K49" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0.0361111111111111</v>
+      </c>
+      <c r="L49" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="L49" s="34" t="n">
+      <c r="M49" s="44" t="n">
         <v>41.4</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0.0361111111111111</v>
       </c>
       <c r="N49" s="1" t="n">
         <v>3.73</v>
@@ -2841,88 +3838,107 @@
         <v>89.52</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <f aca="false">P49-L49</f>
+        <f aca="false">P49-M49</f>
         <v>48.12</v>
       </c>
       <c r="R49" s="1" t="n">
         <f aca="false">B49+G49</f>
         <v>24</v>
       </c>
+      <c r="S49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="U49" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">G49</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="21"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="19"/>
       <c r="J50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L50" s="34"/>
-      <c r="M50" s="21" t="n">
+        <v>95</v>
+      </c>
+      <c r="K50" s="31" t="n">
         <v>0.0298611111111111</v>
       </c>
+      <c r="M50" s="44"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="10"/>
-      <c r="J51" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="34"/>
-      <c r="M51" s="21" t="n">
+      <c r="A51" s="21"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="19"/>
+      <c r="J51" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51" s="31" t="n">
         <v>0.0166666666666667</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="10"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="5"/>
+      <c r="M51" s="44"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="19"/>
+      <c r="K52" s="7"/>
+      <c r="M52" s="44"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="s">
-        <v>67</v>
+      <c r="A53" s="44" t="s">
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C53" s="22" t="n">
+      <c r="C53" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E53" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="37" t="n">
+      <c r="E53" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="47" t="n">
         <f aca="false">E53*C53</f>
         <v>0</v>
       </c>
-      <c r="G53" s="19" t="n">
+      <c r="G53" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="H53" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>68</v>
+      <c r="H53" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="0"/>
+      <c r="L53" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="M53" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="M53" s="0"/>
       <c r="N53" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -2933,28 +3949,41 @@
         <f aca="false">N53*B53</f>
         <v>89.52</v>
       </c>
-      <c r="Q53" s="38" t="n">
-        <f aca="false">P53-L53</f>
+      <c r="Q53" s="48" t="n">
+        <f aca="false">P53-M53</f>
         <v>13.72</v>
       </c>
-      <c r="R53" s="12" t="n">
+      <c r="R53" s="21" t="n">
         <f aca="false">B53+G53</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="15"/>
+      <c r="T53" s="16" t="str">
+        <f aca="false">A53</f>
+        <v>draid1:8d:24c:0s</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">G53</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="25"/>
       <c r="J54" s="2"/>
-      <c r="M54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K54" s="0"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="39" t="n">
+        <v>102</v>
+      </c>
+      <c r="B55" s="49" t="n">
         <v>24</v>
       </c>
-      <c r="C55" s="12" t="n">
+      <c r="C55" s="21" t="n">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -2963,26 +3992,26 @@
       <c r="E55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="33" t="n">
         <f aca="false">E55*C55</f>
         <v>3</v>
       </c>
-      <c r="G55" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="40" t="n">
+      <c r="G55" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K55" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K55" s="0"/>
+      <c r="L55" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="L55" s="1" t="n">
+      <c r="M55" s="1" t="n">
         <v>52.1</v>
       </c>
-      <c r="M55" s="0"/>
       <c r="N55" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -2993,72 +4022,88 @@
         <f aca="false">N55*B55</f>
         <v>89.52</v>
       </c>
-      <c r="Q55" s="9" t="n">
-        <f aca="false">P55-L55</f>
+      <c r="Q55" s="18" t="n">
+        <f aca="false">P55-M55</f>
         <v>37.42</v>
       </c>
-      <c r="R55" s="12" t="n">
+      <c r="R55" s="21" t="n">
         <f aca="false">B55+G55</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="39"/>
-      <c r="C56" s="12"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="42"/>
-      <c r="M56" s="0"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="12"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="12"/>
-      <c r="M57" s="0"/>
-      <c r="Q57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="12" t="n">
+      <c r="T55" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="U55" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="49"/>
+      <c r="C56" s="21"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="52"/>
+      <c r="K56" s="0"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="21"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="21"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="21"/>
+      <c r="K57" s="0"/>
+      <c r="Q57" s="18"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C58" s="22" t="n">
+      <c r="C58" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E58" s="12" t="n">
+      <c r="E58" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F58" s="23" t="n">
+      <c r="F58" s="33" t="n">
         <f aca="false">E58*C58</f>
         <v>4</v>
       </c>
-      <c r="G58" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8" t="n">
+      <c r="G58" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="L58" s="1" t="n">
+      <c r="M58" s="1" t="n">
         <v>90.3</v>
       </c>
-      <c r="M58" s="0"/>
       <c r="N58" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3069,23 +4114,33 @@
         <f aca="false">N58*B58</f>
         <v>119.36</v>
       </c>
-      <c r="Q58" s="9" t="n">
-        <f aca="false">P58-L58</f>
+      <c r="Q58" s="18" t="n">
+        <f aca="false">P58-M58</f>
         <v>29.06</v>
       </c>
-      <c r="R58" s="12" t="n">
+      <c r="R58" s="21" t="n">
         <f aca="false">B58+G58</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T58" s="16" t="str">
+        <f aca="false">A58</f>
+        <v>draid1:27d:32c:4s</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C59" s="12" t="n">
+      <c r="C59" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -3094,26 +4149,27 @@
       <c r="E59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F59" s="23" t="n">
+      <c r="F59" s="33" t="n">
         <f aca="false">E59*C59</f>
         <v>4</v>
       </c>
-      <c r="G59" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8" t="n">
+      <c r="G59" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K59" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="L59" s="1" t="n">
+      <c r="M59" s="1" t="n">
         <v>90.3</v>
       </c>
-      <c r="M59" s="0"/>
       <c r="N59" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3124,23 +4180,29 @@
         <f aca="false">N59*B59</f>
         <v>119.36</v>
       </c>
-      <c r="Q59" s="9" t="n">
-        <f aca="false">P59-L59</f>
+      <c r="Q59" s="18" t="n">
+        <f aca="false">P59-M59</f>
         <v>29.06</v>
       </c>
-      <c r="R59" s="12" t="n">
+      <c r="R59" s="21" t="n">
         <f aca="false">B59+G59</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="12" t="n">
+      <c r="T59" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="U59" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C60" s="12" t="n">
+      <c r="C60" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="n">
@@ -3149,29 +4211,29 @@
       <c r="E60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F60" s="23" t="n">
+      <c r="F60" s="33" t="n">
         <f aca="false">E60*C60</f>
         <v>8</v>
       </c>
-      <c r="G60" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10" t="n">
+      <c r="G60" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="34" t="n">
+        <v>107</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="44" t="n">
         <v>88</v>
       </c>
-      <c r="L60" s="12" t="n">
+      <c r="M60" s="21" t="n">
         <v>69.9</v>
       </c>
-      <c r="M60" s="0"/>
       <c r="N60" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3183,53 +4245,59 @@
         <v>119.36</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <f aca="false">P60-L60</f>
+        <f aca="false">P60-M60</f>
         <v>49.46</v>
       </c>
-      <c r="R60" s="12" t="n">
+      <c r="R60" s="21" t="n">
         <f aca="false">B60+G60</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T60" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="U60" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="12" t="n">
+        <v>114</v>
+      </c>
+      <c r="B61" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C61" s="22" t="n">
+      <c r="C61" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E61" s="12" t="n">
+      <c r="E61" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F61" s="23" t="n">
+      <c r="F61" s="33" t="n">
         <f aca="false">E61*C61</f>
         <v>4</v>
       </c>
-      <c r="G61" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="40" t="n">
+      <c r="G61" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K61" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="M61" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="M61" s="0"/>
       <c r="N61" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3240,23 +4308,30 @@
         <f aca="false">N61*B61</f>
         <v>119.36</v>
       </c>
-      <c r="Q61" s="9" t="n">
-        <f aca="false">P61-L61</f>
+      <c r="Q61" s="18" t="n">
+        <f aca="false">P61-M61</f>
         <v>28.36</v>
       </c>
-      <c r="R61" s="12" t="n">
+      <c r="R61" s="21" t="n">
         <f aca="false">B61+G61</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T61" s="16" t="str">
+        <f aca="false">A61</f>
+        <v>draid2:26d:32c:4s</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="12" t="n">
+        <v>117</v>
+      </c>
+      <c r="B62" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C62" s="12" t="n">
+      <c r="C62" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -3265,26 +4340,27 @@
       <c r="E62" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F62" s="23" t="n">
+      <c r="F62" s="33" t="n">
         <f aca="false">E62*C62</f>
         <v>4</v>
       </c>
-      <c r="G62" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="40" t="n">
+      <c r="G62" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K62" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="L62" s="35" t="n">
+      <c r="M62" s="45" t="n">
         <v>82</v>
       </c>
-      <c r="M62" s="0"/>
       <c r="N62" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3295,23 +4371,29 @@
         <f aca="false">N62*B62</f>
         <v>119.36</v>
       </c>
-      <c r="Q62" s="9" t="n">
-        <f aca="false">P62-L62</f>
+      <c r="Q62" s="18" t="n">
+        <f aca="false">P62-M62</f>
         <v>37.36</v>
       </c>
-      <c r="R62" s="12" t="n">
+      <c r="R62" s="21" t="n">
         <f aca="false">B62+G62</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="12" t="n">
+      <c r="T62" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U62" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C63" s="12" t="n">
+      <c r="C63" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D63" s="1" t="n">
@@ -3320,29 +4402,29 @@
       <c r="E63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F63" s="23" t="n">
+      <c r="F63" s="33" t="n">
         <f aca="false">E63*C63</f>
         <v>8</v>
       </c>
-      <c r="G63" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="40" t="n">
+      <c r="G63" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63" s="12" t="n">
+        <v>118</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="17"/>
+      <c r="L63" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="L63" s="34" t="n">
+      <c r="M63" s="44" t="n">
         <v>56.8</v>
       </c>
-      <c r="M63" s="0"/>
       <c r="N63" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3354,22 +4436,32 @@
         <v>119.36</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <f aca="false">P63-L63</f>
+        <f aca="false">P63-M63</f>
         <v>62.56</v>
       </c>
-      <c r="R63" s="12" t="n">
+      <c r="R63" s="21" t="n">
         <f aca="false">B63+G63</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="12" t="n">
+      <c r="T63" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="U63" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <f aca="false">G63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C64" s="12" t="n">
+      <c r="C64" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D64" s="1" t="n">
@@ -3378,29 +4470,28 @@
       <c r="E64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="23" t="n">
+      <c r="F64" s="33" t="n">
         <f aca="false">E64*C64</f>
         <v>4</v>
       </c>
-      <c r="G64" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K64" s="12" t="n">
+      <c r="G64" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="21" t="n">
         <v>102</v>
       </c>
-      <c r="L64" s="35" t="n">
+      <c r="M64" s="45" t="n">
         <v>69.5</v>
       </c>
-      <c r="M64" s="0"/>
       <c r="N64" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3411,37 +4502,62 @@
         <f aca="false">N64*B64</f>
         <v>119.36</v>
       </c>
-      <c r="Q64" s="9" t="n">
-        <f aca="false">P64-L64</f>
+      <c r="Q64" s="18" t="n">
+        <f aca="false">P64-M64</f>
         <v>49.86</v>
       </c>
-      <c r="R64" s="12" t="n">
+      <c r="R64" s="21" t="n">
         <f aca="false">B64+G64</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="12"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="12"/>
-      <c r="M65" s="0"/>
-      <c r="Q65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="12"/>
-      <c r="M66" s="0"/>
-      <c r="Q66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S64" s="5"/>
+      <c r="T64" s="16" t="str">
+        <f aca="false">A64</f>
+        <v>draid2:5d:8c:1s</v>
+      </c>
+      <c r="U64" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <f aca="false">G64</f>
+        <v>0</v>
+      </c>
+      <c r="AMJ64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="21"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="21"/>
+      <c r="K65" s="0"/>
+      <c r="Q65" s="18"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="0" t="n">
+        <f aca="false">G65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="21"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="21"/>
+      <c r="K66" s="0"/>
+      <c r="Q66" s="18"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="0" t="n">
+        <f aca="false">G66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="12" t="n">
+        <v>124</v>
+      </c>
+      <c r="B67" s="21" t="n">
         <v>48</v>
       </c>
-      <c r="C67" s="22" t="n">
+      <c r="C67" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="n">
@@ -3450,26 +4566,26 @@
       <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="15" t="n">
+      <c r="F67" s="25" t="n">
         <f aca="false">E67*C67</f>
         <v>1</v>
       </c>
-      <c r="G67" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8" t="n">
+      <c r="G67" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K67" s="0"/>
+      <c r="L67" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="L67" s="1" t="n">
+      <c r="M67" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="M67" s="0"/>
       <c r="N67" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3480,20 +4596,33 @@
         <f aca="false">N67*B67</f>
         <v>179.04</v>
       </c>
-      <c r="Q67" s="9" t="n">
-        <f aca="false">P67-L67</f>
+      <c r="Q67" s="18" t="n">
+        <f aca="false">P67-M67</f>
         <v>31.04</v>
       </c>
       <c r="R67" s="1" t="n">
         <f aca="false">B67+G67</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U67" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V67" s="0" t="n">
+        <f aca="false">G67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="12" t="n">
+        <v>70</v>
+      </c>
+      <c r="B68" s="21" t="n">
         <v>48</v>
       </c>
       <c r="C68" s="1" t="n">
@@ -3505,26 +4634,26 @@
       <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="15" t="n">
+      <c r="F68" s="25" t="n">
         <f aca="false">E68*C68</f>
         <v>2</v>
       </c>
-      <c r="G68" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8" t="n">
+      <c r="G68" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="K68" s="0"/>
+      <c r="L68" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="L68" s="1" t="n">
+      <c r="M68" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="M68" s="0"/>
       <c r="N68" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3535,20 +4664,30 @@
         <f aca="false">N68*B68</f>
         <v>179.04</v>
       </c>
-      <c r="Q68" s="9" t="n">
-        <f aca="false">P68-L68</f>
+      <c r="Q68" s="18" t="n">
+        <f aca="false">P68-M68</f>
         <v>34.04</v>
       </c>
       <c r="R68" s="1" t="n">
         <f aca="false">B68+G68</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T68" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="U68" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="V68" s="0" t="n">
+        <f aca="false">G68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="12" t="n">
+        <v>128</v>
+      </c>
+      <c r="B69" s="21" t="n">
         <v>48</v>
       </c>
       <c r="C69" s="1" t="n">
@@ -3560,26 +4699,26 @@
       <c r="E69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F69" s="43" t="n">
+      <c r="F69" s="53" t="n">
         <f aca="false">E69*C69</f>
         <v>3</v>
       </c>
-      <c r="G69" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="8" t="n">
+      <c r="G69" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="K69" s="0"/>
+      <c r="L69" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="L69" s="1" t="n">
+      <c r="M69" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="M69" s="0"/>
       <c r="N69" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3591,30 +4730,38 @@
         <v>179.04</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <f aca="false">P69-L69</f>
+        <f aca="false">P69-M69</f>
         <v>38.04</v>
       </c>
       <c r="R69" s="1" t="n">
         <f aca="false">B69+G69</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="12"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="10"/>
-      <c r="M70" s="0"/>
-      <c r="Q70" s="9"/>
+      <c r="T69" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="U69" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="21"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="19"/>
+      <c r="K70" s="0"/>
+      <c r="Q70" s="18"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
     </row>
     <row r="71" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="12" t="n">
+      <c r="A71" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="21" t="n">
         <v>48</v>
       </c>
-      <c r="C71" s="22" t="n">
+      <c r="C71" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="n">
@@ -3623,30 +4770,30 @@
       <c r="E71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F71" s="15" t="n">
+      <c r="F71" s="25" t="n">
         <f aca="false">E71*C71</f>
         <v>2</v>
       </c>
-      <c r="G71" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="19" t="n">
+      <c r="G71" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="29" t="n">
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K71" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="L71" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="L71" s="1" t="n">
+      <c r="M71" s="1" t="n">
         <v>130</v>
-      </c>
-      <c r="M71" s="5" t="n">
-        <v>0.0430555555555556</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>3.73</v>
@@ -3658,34 +4805,43 @@
         <f aca="false">N71*B71</f>
         <v>179.04</v>
       </c>
-      <c r="Q71" s="9" t="n">
-        <f aca="false">P71-L71</f>
+      <c r="Q71" s="18" t="n">
+        <f aca="false">P71-M71</f>
         <v>49.04</v>
       </c>
       <c r="R71" s="1" t="n">
         <f aca="false">B71+G71</f>
         <v>48</v>
       </c>
+      <c r="T71" s="16" t="str">
+        <f aca="false">A71</f>
+        <v>draid2:8d:48c:2s</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="12"/>
-      <c r="C72" s="25"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="35"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="19"/>
       <c r="J72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M72" s="21" t="n">
+        <v>134</v>
+      </c>
+      <c r="K72" s="31" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="Q72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q72" s="18"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="12" t="n">
+        <v>135</v>
+      </c>
+      <c r="B73" s="21" t="n">
         <v>48</v>
       </c>
       <c r="C73" s="1" t="n">
@@ -3697,26 +4853,26 @@
       <c r="E73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F73" s="23" t="n">
+      <c r="F73" s="33" t="n">
         <f aca="false">E73*C73</f>
         <v>4</v>
       </c>
-      <c r="G73" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" s="19" t="n">
+      <c r="G73" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="29" t="n">
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K73" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="K73" s="0"/>
+      <c r="L73" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="L73" s="1" t="n">
+      <c r="M73" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="M73" s="0"/>
       <c r="N73" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3727,28 +4883,39 @@
         <f aca="false">N73*B73</f>
         <v>179.04</v>
       </c>
-      <c r="Q73" s="9" t="n">
-        <f aca="false">P73-L73</f>
+      <c r="Q73" s="18" t="n">
+        <f aca="false">P73-M73</f>
         <v>54.04</v>
       </c>
       <c r="R73" s="1" t="n">
         <f aca="false">B73+G73</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="12"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="10"/>
-      <c r="M74" s="0"/>
-      <c r="Q74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S73" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T73" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="U73" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="21"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+      <c r="K74" s="0"/>
+      <c r="Q74" s="18"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="12" t="n">
+        <v>137</v>
+      </c>
+      <c r="B75" s="21" t="n">
         <v>48</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -3760,26 +4927,26 @@
       <c r="E75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="23" t="n">
+      <c r="F75" s="33" t="n">
         <f aca="false">E75*C75</f>
         <v>6</v>
       </c>
-      <c r="G75" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="19" t="n">
+      <c r="G75" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="29" t="n">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K75" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="K75" s="0"/>
+      <c r="L75" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="L75" s="1" t="n">
+      <c r="M75" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="M75" s="0"/>
       <c r="N75" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3791,19 +4958,25 @@
         <v>179.04</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <f aca="false">P75-L75</f>
+        <f aca="false">P75-M75</f>
         <v>61.04</v>
       </c>
       <c r="R75" s="1" t="n">
         <f aca="false">B75+G75</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="12" t="n">
+      <c r="T75" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="U75" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" s="17" customFormat="true" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="21" t="n">
         <v>48</v>
       </c>
       <c r="C76" s="1" t="n">
@@ -3815,29 +4988,28 @@
       <c r="E76" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F76" s="23" t="n">
+      <c r="F76" s="33" t="n">
         <f aca="false">E76*C76</f>
         <v>6</v>
       </c>
-      <c r="G76" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19" t="n">
+      <c r="G76" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="29" t="n">
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K76" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="L76" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="L76" s="12" t="n">
+      <c r="M76" s="21" t="n">
         <v>123</v>
       </c>
-      <c r="M76" s="0"/>
       <c r="N76" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3848,37 +5020,51 @@
         <f aca="false">N76*B76</f>
         <v>179.04</v>
       </c>
-      <c r="Q76" s="9" t="n">
-        <f aca="false">P76-L76</f>
+      <c r="Q76" s="18" t="n">
+        <f aca="false">P76-M76</f>
         <v>56.04</v>
       </c>
       <c r="R76" s="1" t="n">
         <f aca="false">B76+G76</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="12"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="12"/>
-      <c r="M77" s="0"/>
-      <c r="Q77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="12"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="12"/>
-      <c r="M78" s="0"/>
-      <c r="Q78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S76" s="5"/>
+      <c r="T76" s="16" t="str">
+        <f aca="false">A76</f>
+        <v>draid2:12d:16c:2s</v>
+      </c>
+      <c r="U76" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="V76" s="0"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="21"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="21"/>
+      <c r="K77" s="0"/>
+      <c r="Q77" s="18"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="21"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="21"/>
+      <c r="K78" s="0"/>
+      <c r="Q78" s="18"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="12" t="n">
+        <v>140</v>
+      </c>
+      <c r="B79" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="C79" s="22" t="n">
+      <c r="C79" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="1" t="n">
@@ -3887,26 +5073,26 @@
       <c r="E79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="15" t="n">
+      <c r="F79" s="25" t="n">
         <f aca="false">E79*C79</f>
         <v>2</v>
       </c>
-      <c r="G79" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="8" t="n">
+      <c r="G79" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K79" s="0"/>
+      <c r="L79" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="L79" s="1" t="n">
+      <c r="M79" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="M79" s="0"/>
       <c r="N79" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3917,20 +5103,30 @@
         <f aca="false">N79*B79</f>
         <v>268.56</v>
       </c>
-      <c r="Q79" s="9" t="n">
-        <f aca="false">P79-L79</f>
+      <c r="Q79" s="18" t="n">
+        <f aca="false">P79-M79</f>
         <v>48.56</v>
       </c>
       <c r="R79" s="1" t="n">
         <f aca="false">B79+G79</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T79" s="16" t="str">
+        <f aca="false">A79</f>
+        <v>draid1:8d:72c:2s</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="12" t="n">
+        <v>142</v>
+      </c>
+      <c r="B80" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C80" s="1" t="n">
@@ -3942,26 +5138,26 @@
       <c r="E80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="15" t="n">
+      <c r="F80" s="25" t="n">
         <f aca="false">E80*C80</f>
         <v>4</v>
       </c>
-      <c r="G80" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8" t="n">
+      <c r="G80" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K80" s="0"/>
+      <c r="L80" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L80" s="1" t="n">
+      <c r="M80" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="M80" s="0"/>
       <c r="N80" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -3972,28 +5168,36 @@
         <f aca="false">N80*B80</f>
         <v>268.56</v>
       </c>
-      <c r="Q80" s="9" t="n">
-        <f aca="false">P80-L80</f>
+      <c r="Q80" s="18" t="n">
+        <f aca="false">P80-M80</f>
         <v>54.56</v>
       </c>
       <c r="R80" s="1" t="n">
         <f aca="false">B80+G80</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="12"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="10"/>
-      <c r="M81" s="0"/>
-      <c r="Q81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T80" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="U80" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="21"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="19"/>
+      <c r="K81" s="0"/>
+      <c r="Q81" s="18"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="12" t="n">
+        <v>145</v>
+      </c>
+      <c r="B82" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C82" s="1" t="n">
@@ -4005,26 +5209,26 @@
       <c r="E82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F82" s="23" t="n">
+      <c r="F82" s="33" t="n">
         <f aca="false">E82*C82</f>
         <v>6</v>
       </c>
-      <c r="G82" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="8" t="n">
+      <c r="G82" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K82" s="0"/>
+      <c r="L82" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="L82" s="1" t="n">
+      <c r="M82" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="M82" s="0"/>
       <c r="N82" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4036,19 +5240,25 @@
         <v>268.56</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <f aca="false">P82-L82</f>
+        <f aca="false">P82-M82</f>
         <v>60.56</v>
       </c>
       <c r="R82" s="1" t="n">
         <f aca="false">B82+G82</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="12" t="n">
+      <c r="T82" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="U82" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" s="17" customFormat="true" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C83" s="1" t="n">
@@ -4060,29 +5270,28 @@
       <c r="E83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F83" s="23" t="n">
+      <c r="F83" s="33" t="n">
         <f aca="false">E83*C83</f>
         <v>6</v>
       </c>
-      <c r="G83" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" s="8" t="n">
+      <c r="G83" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K83" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="L83" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="L83" s="12" t="n">
+      <c r="M83" s="21" t="n">
         <v>219</v>
       </c>
-      <c r="M83" s="0"/>
       <c r="N83" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4093,92 +5302,131 @@
         <f aca="false">N83*B83</f>
         <v>268.56</v>
       </c>
-      <c r="Q83" s="9" t="n">
-        <f aca="false">P83-L83</f>
+      <c r="Q83" s="18" t="n">
+        <f aca="false">P83-M83</f>
         <v>49.56</v>
       </c>
       <c r="R83" s="1" t="n">
         <f aca="false">B83+G83</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="10"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="U83" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="V83" s="0"/>
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" s="17" customFormat="true" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L84" s="12"/>
-      <c r="M84" s="21" t="n">
+        <v>133</v>
+      </c>
+      <c r="K84" s="31" t="n">
         <v>0.0340277777777778</v>
       </c>
-      <c r="Q84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="10"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="0"/>
+      <c r="AMJ84" s="0"/>
+    </row>
+    <row r="85" s="17" customFormat="true" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="21" t="n">
+        <v>150</v>
+      </c>
+      <c r="K85" s="31" t="n">
         <v>0.0354166666666667</v>
       </c>
-      <c r="Q85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="12"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="10"/>
-      <c r="M86" s="0"/>
-      <c r="Q86" s="9"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="0"/>
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="21"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="19"/>
+      <c r="K86" s="0"/>
+      <c r="Q86" s="18"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="12" t="n">
+      <c r="A87" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="C87" s="22" t="n">
+      <c r="C87" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E87" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" s="15" t="n">
+      <c r="E87" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" s="25" t="n">
         <f aca="false">E87*C87</f>
         <v>2</v>
       </c>
-      <c r="G87" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" s="40" t="n">
+      <c r="G87" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K87" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K87" s="0"/>
+      <c r="L87" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="L87" s="12" t="n">
+      <c r="M87" s="21" t="n">
         <v>206</v>
       </c>
-      <c r="M87" s="0"/>
       <c r="N87" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4189,54 +5437,63 @@
         <f aca="false">N87*B87</f>
         <v>268.56</v>
       </c>
-      <c r="Q87" s="9" t="n">
-        <f aca="false">P87-L87</f>
+      <c r="Q87" s="18" t="n">
+        <f aca="false">P87-M87</f>
         <v>62.56</v>
       </c>
       <c r="R87" s="1" t="n">
         <f aca="false">B87+G87</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" s="12" t="n">
+      <c r="S87" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T87" s="16" t="str">
+        <f aca="false">A87</f>
+        <v>draid2:12d:72c:2s</v>
+      </c>
+      <c r="U87" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="C88" s="22" t="n">
+      <c r="C88" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="E88" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" s="15" t="n">
+      <c r="E88" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="25" t="n">
         <f aca="false">E88*C88</f>
         <v>2</v>
       </c>
-      <c r="G88" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" s="40" t="n">
+      <c r="G88" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K88" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="L88" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="L88" s="1" t="n">
+      <c r="M88" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="M88" s="0"/>
       <c r="N88" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4248,31 +5505,53 @@
         <v>268.56</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <f aca="false">P88-L88</f>
+        <f aca="false">P88-M88</f>
         <v>70.56</v>
       </c>
       <c r="R88" s="1" t="n">
         <f aca="false">B88+G88</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="25"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="16" t="str">
+        <f aca="false">A88</f>
+        <v>draid2:8d:72c:2s</v>
+      </c>
+      <c r="U88" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="V88" s="0"/>
+      <c r="AMJ88" s="0"/>
+    </row>
+    <row r="89" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="M89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="12" t="n">
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="0"/>
+      <c r="AMJ89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C90" s="1" t="n">
@@ -4284,26 +5563,26 @@
       <c r="E90" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F90" s="15" t="n">
+      <c r="F90" s="25" t="n">
         <f aca="false">E90*C90</f>
         <v>4</v>
       </c>
-      <c r="G90" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="40" t="n">
+      <c r="G90" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="K90" s="0"/>
+      <c r="L90" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L90" s="1" t="n">
+      <c r="M90" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="M90" s="0"/>
       <c r="N90" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4314,20 +5593,26 @@
         <f aca="false">N90*B90</f>
         <v>268.56</v>
       </c>
-      <c r="Q90" s="9" t="n">
-        <f aca="false">P90-L90</f>
+      <c r="Q90" s="18" t="n">
+        <f aca="false">P90-M90</f>
         <v>76.56</v>
       </c>
       <c r="R90" s="1" t="n">
         <f aca="false">B90+G90</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="12" t="n">
+      <c r="T90" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="U90" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" s="17" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C91" s="1" t="n">
@@ -4339,29 +5624,28 @@
       <c r="E91" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F91" s="15" t="n">
+      <c r="F91" s="25" t="n">
         <f aca="false">E91*C91</f>
         <v>4</v>
       </c>
-      <c r="G91" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="40" t="n">
+      <c r="G91" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="K91" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L91" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L91" s="1" t="n">
+      <c r="M91" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="M91" s="0"/>
       <c r="N91" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4372,20 +5656,29 @@
         <f aca="false">N91*B91</f>
         <v>268.56</v>
       </c>
-      <c r="Q91" s="9" t="n">
-        <f aca="false">P91-L91</f>
+      <c r="Q91" s="18" t="n">
+        <f aca="false">P91-M91</f>
         <v>76.56</v>
       </c>
       <c r="R91" s="1" t="n">
         <f aca="false">B91+G91</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="12" t="n">
+      <c r="S91" s="5"/>
+      <c r="T91" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="U91" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="V91" s="0"/>
+      <c r="AMJ91" s="0"/>
+    </row>
+    <row r="92" s="17" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C92" s="1" t="n">
@@ -4397,29 +5690,28 @@
       <c r="E92" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F92" s="15" t="n">
+      <c r="F92" s="25" t="n">
         <f aca="false">E92*C92</f>
         <v>4</v>
       </c>
-      <c r="G92" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" s="40" t="n">
+      <c r="G92" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K92" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="L92" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="L92" s="12" t="n">
+      <c r="M92" s="21" t="n">
         <v>199</v>
       </c>
-      <c r="M92" s="0"/>
       <c r="N92" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4431,28 +5723,39 @@
         <v>268.56</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <f aca="false">P92-L92</f>
+        <f aca="false">P92-M92</f>
         <v>69.56</v>
       </c>
       <c r="R92" s="1" t="n">
         <f aca="false">B92+G92</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="25"/>
-      <c r="M93" s="0"/>
-      <c r="Q93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S92" s="5"/>
+      <c r="T92" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="U92" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="V92" s="0"/>
+      <c r="AMJ92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="35"/>
+      <c r="K93" s="0"/>
+      <c r="Q93" s="18"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" s="12" t="n">
+        <v>162</v>
+      </c>
+      <c r="B94" s="21" t="n">
         <v>72</v>
       </c>
       <c r="C94" s="1" t="n">
@@ -4464,29 +5767,29 @@
       <c r="E94" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F94" s="23" t="n">
+      <c r="F94" s="33" t="n">
         <f aca="false">E94*C94</f>
         <v>6</v>
       </c>
-      <c r="G94" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" s="40" t="n">
+      <c r="G94" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K94" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="K94" s="0"/>
+      <c r="L94" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="L94" s="1" t="n">
+      <c r="M94" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="M94" s="0"/>
       <c r="N94" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4497,67 +5800,77 @@
         <f aca="false">N94*B94</f>
         <v>268.56</v>
       </c>
-      <c r="Q94" s="9" t="n">
-        <f aca="false">P94-L94</f>
+      <c r="Q94" s="18" t="n">
+        <f aca="false">P94-M94</f>
         <v>73.56</v>
       </c>
       <c r="R94" s="1" t="n">
         <f aca="false">B94+G94</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="12"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="12"/>
+      <c r="T94" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="U94" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="21"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="21"/>
       <c r="J95" s="2"/>
-      <c r="M95" s="21"/>
-      <c r="Q95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="12"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="12"/>
-      <c r="M96" s="0"/>
-      <c r="Q96" s="9"/>
+      <c r="K95" s="31"/>
+      <c r="Q95" s="18"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="21"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="21"/>
+      <c r="K96" s="0"/>
+      <c r="Q96" s="18"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B97" s="12" t="n">
+      <c r="A97" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="C97" s="22" t="n">
+      <c r="C97" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E97" s="12" t="n">
+      <c r="E97" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F97" s="15" t="n">
+      <c r="F97" s="25" t="n">
         <f aca="false">E97*C97</f>
         <v>6</v>
       </c>
-      <c r="G97" s="19" t="n">
+      <c r="G97" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="H97" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>107</v>
+      <c r="H97" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="1" t="n">
+      <c r="K97" s="0"/>
+      <c r="L97" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="L97" s="1" t="n">
+      <c r="M97" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="M97" s="0"/>
       <c r="N97" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4568,59 +5881,76 @@
         <f aca="false">N97*B97</f>
         <v>358.08</v>
       </c>
-      <c r="Q97" s="44" t="n">
-        <f aca="false">P97-L97</f>
+      <c r="Q97" s="54" t="n">
+        <f aca="false">P97-M97</f>
         <v>103.08</v>
       </c>
-      <c r="R97" s="12" t="n">
+      <c r="R97" s="21" t="n">
         <f aca="false">B97+G97</f>
         <v>103</v>
       </c>
+      <c r="S97" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T97" s="16" t="str">
+        <f aca="false">A97</f>
+        <v>draid2:8d:96c:6s</v>
+      </c>
+      <c r="U97" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="V97" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W97" s="0" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="15"/>
+      <c r="F98" s="25"/>
       <c r="I98" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="12" t="n">
+        <v>168</v>
+      </c>
+      <c r="K98" s="0"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+    </row>
+    <row r="99" s="17" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="C99" s="22" t="n">
+      <c r="C99" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E99" s="11" t="n">
+      <c r="E99" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="F99" s="23" t="n">
+      <c r="F99" s="33" t="n">
         <f aca="false">E99*C99</f>
         <v>12</v>
       </c>
-      <c r="G99" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" s="11"/>
+      <c r="G99" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" s="20"/>
       <c r="J99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K99" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="L99" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="L99" s="1" t="n">
+      <c r="M99" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="M99" s="0"/>
       <c r="N99" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4631,54 +5961,63 @@
         <f aca="false">N99*B99</f>
         <v>358.08</v>
       </c>
-      <c r="Q99" s="44" t="n">
-        <f aca="false">P99-L99</f>
+      <c r="Q99" s="54" t="n">
+        <f aca="false">P99-M99</f>
         <v>110.08</v>
       </c>
       <c r="R99" s="1" t="n">
         <f aca="false">B99+G99</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="12" t="n">
+      <c r="S99" s="5"/>
+      <c r="T99" s="16" t="str">
+        <f aca="false">A99</f>
+        <v>draid2:12d:96c:12s</v>
+      </c>
+      <c r="U99" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="V99" s="0"/>
+      <c r="AMJ99" s="0"/>
+    </row>
+    <row r="100" s="17" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="C100" s="22" t="n">
+      <c r="C100" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="E100" s="11" t="n">
+      <c r="E100" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F100" s="23" t="n">
+      <c r="F100" s="33" t="n">
         <f aca="false">E100*C100</f>
         <v>8</v>
       </c>
-      <c r="G100" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K100" s="12" t="n">
+      <c r="G100" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J100" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L100" s="21" t="n">
         <v>322</v>
       </c>
-      <c r="L100" s="12" t="n">
+      <c r="M100" s="21" t="n">
         <v>279</v>
       </c>
-      <c r="M100" s="0"/>
       <c r="N100" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4689,94 +6028,128 @@
         <f aca="false">N100*B100</f>
         <v>358.08</v>
       </c>
-      <c r="Q100" s="45" t="n">
-        <f aca="false">P100-L100</f>
+      <c r="Q100" s="55" t="n">
+        <f aca="false">P100-M100</f>
         <v>79.08</v>
       </c>
       <c r="R100" s="1" t="n">
         <f aca="false">B100+G100</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="11"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="16" t="str">
+        <f aca="false">A100</f>
+        <v>draid2:24d:96c:8s</v>
+      </c>
+      <c r="U100" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="V100" s="0"/>
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" s="17" customFormat="true" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="20"/>
       <c r="J101" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M101" s="21" t="n">
+        <v>173</v>
+      </c>
+      <c r="K101" s="31" t="n">
         <v>0.0347222222222222</v>
       </c>
-      <c r="Q101" s="45"/>
-    </row>
-    <row r="102" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="11"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="0"/>
+      <c r="AMJ101" s="0"/>
+    </row>
+    <row r="102" s="17" customFormat="true" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="20"/>
       <c r="J102" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M102" s="21" t="n">
+        <v>174</v>
+      </c>
+      <c r="K102" s="31" t="n">
         <v>0.0243055555555556</v>
       </c>
-      <c r="Q102" s="45"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="15"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="55"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="0"/>
+      <c r="AMJ102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="25"/>
       <c r="J103" s="2"/>
-      <c r="M103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
     </row>
     <row r="104" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
-        <v>115</v>
+      <c r="A104" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C104" s="12" t="n">
+      <c r="C104" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="n">
         <v>48</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F104" s="23" t="n">
+        <v>176</v>
+      </c>
+      <c r="F104" s="33" t="n">
         <v>8</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H104" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>117</v>
+      <c r="H104" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K104" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="K104" s="0"/>
+      <c r="L104" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="L104" s="1" t="n">
+      <c r="M104" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="M104" s="0"/>
       <c r="N104" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4787,28 +6160,43 @@
         <f aca="false">N104*B104</f>
         <v>358.08</v>
       </c>
-      <c r="Q104" s="44" t="n">
-        <f aca="false">P104-L104</f>
+      <c r="Q104" s="54" t="n">
+        <f aca="false">P104-M104</f>
         <v>109.08</v>
       </c>
       <c r="R104" s="1" t="n">
         <f aca="false">B104+G104</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="15"/>
+      <c r="S104" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T104" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U104" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="V104" s="0" t="n">
+        <f aca="false">G104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="25"/>
       <c r="J105" s="2"/>
-      <c r="M105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="s">
-        <v>119</v>
+      <c r="K105" s="0"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+    </row>
+    <row r="106" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C106" s="12" t="n">
+      <c r="C106" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -4817,29 +6205,29 @@
       <c r="E106" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F106" s="23" t="n">
+      <c r="F106" s="33" t="n">
         <f aca="false">E106*C106</f>
         <v>12</v>
       </c>
-      <c r="G106" s="11" t="n">
+      <c r="G106" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="H106" s="40" t="n">
+      <c r="H106" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K106" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="K106" s="0"/>
+      <c r="L106" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="L106" s="16" t="n">
+      <c r="M106" s="26" t="n">
         <v>238</v>
       </c>
-      <c r="M106" s="0"/>
       <c r="N106" s="1" t="n">
         <v>3.73</v>
       </c>
@@ -4850,99 +6238,121 @@
         <f aca="false">N106*B106</f>
         <v>358.08</v>
       </c>
-      <c r="Q106" s="44" t="n">
-        <f aca="false">P106-L106</f>
+      <c r="Q106" s="54" t="n">
+        <f aca="false">P106-M106</f>
         <v>120.08</v>
       </c>
-      <c r="R106" s="12" t="n">
+      <c r="R106" s="21" t="n">
         <f aca="false">B106+G106</f>
         <v>100</v>
       </c>
+      <c r="T106" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="U106" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="V106" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W106" s="0" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="15"/>
+      <c r="F107" s="25"/>
       <c r="J107" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M107" s="46" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" s="56" t="n">
         <v>0.107638888888889</v>
       </c>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="15"/>
+      <c r="F108" s="25"/>
       <c r="J108" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M108" s="47" t="n">
+        <v>188</v>
+      </c>
+      <c r="K108" s="57" t="n">
         <v>0.0756944444444444</v>
       </c>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="15"/>
+      <c r="F109" s="25"/>
       <c r="J109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M109" s="48" t="n">
+        <v>189</v>
+      </c>
+      <c r="K109" s="58" t="n">
         <v>0.0583333333333333</v>
       </c>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="15"/>
+      <c r="F110" s="25"/>
       <c r="J110" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M110" s="48" t="n">
+        <v>190</v>
+      </c>
+      <c r="K110" s="58" t="n">
         <v>0.0569444444444444</v>
       </c>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="15"/>
+      <c r="F111" s="25"/>
       <c r="J111" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="M111" s="48" t="n">
+        <v>191</v>
+      </c>
+      <c r="K111" s="58" t="n">
         <v>0.00972222222222222</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="49" t="s">
-        <v>127</v>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+    </row>
+    <row r="112" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="59" t="s">
+        <v>192</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C112" s="12" t="n">
+      <c r="C112" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F112" s="17" t="n">
+        <v>176</v>
+      </c>
+      <c r="F112" s="27" t="n">
         <v>16</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H112" s="8" t="n">
+      <c r="H112" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K112" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="L112" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="L112" s="1" t="n">
+      <c r="M112" s="1" t="n">
         <v>251</v>
-      </c>
-      <c r="M112" s="3" t="n">
-        <v>0.0243055555555556</v>
       </c>
       <c r="N112" s="1" t="n">
         <v>3.73</v>
@@ -4954,50 +6364,65 @@
         <f aca="false">N112*B112</f>
         <v>358.08</v>
       </c>
-      <c r="Q112" s="44" t="n">
-        <f aca="false">P112-L112</f>
+      <c r="Q112" s="54" t="n">
+        <f aca="false">P112-M112</f>
         <v>107.08</v>
       </c>
       <c r="R112" s="1" t="n">
         <f aca="false">B112+G112</f>
         <v>96</v>
       </c>
+      <c r="S112" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T112" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="U112" s="23" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="15"/>
+      <c r="F113" s="25"/>
       <c r="J113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M113" s="3" t="n">
+        <v>195</v>
+      </c>
+      <c r="K113" s="3" t="n">
         <v>0.0444444444444444</v>
       </c>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="15"/>
+      <c r="F114" s="25"/>
       <c r="J114" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M114" s="50" t="n">
+        <v>196</v>
+      </c>
+      <c r="K114" s="60" t="n">
         <v>0.0625</v>
       </c>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
     </row>
     <row r="115" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="15"/>
+      <c r="F115" s="25"/>
       <c r="J115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M115" s="48" t="n">
+        <v>197</v>
+      </c>
+      <c r="K115" s="58" t="n">
         <v>0.0215277777777778</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
-        <v>132</v>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+    </row>
+    <row r="116" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C116" s="12" t="n">
+      <c r="C116" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -5006,26 +6431,27 @@
       <c r="E116" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F116" s="17" t="n">
+      <c r="F116" s="27" t="n">
         <f aca="false">E116*C116</f>
         <v>16</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H116" s="8" t="n">
+      <c r="H116" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K116" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="K116" s="3"/>
+      <c r="L116" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="L116" s="12" t="n">
+      <c r="M116" s="21" t="n">
         <v>254</v>
       </c>
       <c r="N116" s="1" t="n">
@@ -5038,23 +6464,38 @@
         <f aca="false">N116*B116</f>
         <v>358.08</v>
       </c>
-      <c r="Q116" s="45" t="n">
-        <f aca="false">P116-L116</f>
+      <c r="Q116" s="55" t="n">
+        <f aca="false">P116-M116</f>
         <v>104.08</v>
       </c>
       <c r="R116" s="1" t="n">
         <f aca="false">B116+G116</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="s">
-        <v>39</v>
+      <c r="S116" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T116" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="U116" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="V116" s="0"/>
+      <c r="AMJ116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+    </row>
+    <row r="118" s="17" customFormat="true" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C118" s="12" t="n">
+      <c r="C118" s="21" t="n">
         <v>6</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -5063,26 +6504,27 @@
       <c r="E118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F118" s="17" t="n">
+      <c r="F118" s="27" t="n">
         <f aca="false">E118*C118</f>
         <v>12</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H118" s="8" t="n">
+      <c r="H118" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K118" s="12" t="n">
+        <v>139</v>
+      </c>
+      <c r="K118" s="3"/>
+      <c r="L118" s="21" t="n">
         <v>306</v>
       </c>
-      <c r="L118" s="12" t="n">
+      <c r="M118" s="21" t="n">
         <v>272</v>
       </c>
       <c r="N118" s="1" t="n">
@@ -5095,23 +6537,39 @@
         <f aca="false">N118*B118</f>
         <v>358.08</v>
       </c>
-      <c r="Q118" s="44" t="n">
-        <f aca="false">P118-L118</f>
+      <c r="Q118" s="54" t="n">
+        <f aca="false">P118-M118</f>
         <v>86.08</v>
       </c>
       <c r="R118" s="1" t="n">
         <f aca="false">B118+G118</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
-        <v>133</v>
+      <c r="S118" s="5"/>
+      <c r="T118" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="U118" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <f aca="false">G118</f>
+        <v>0</v>
+      </c>
+      <c r="AMJ118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+    </row>
+    <row r="120" s="17" customFormat="true" ht="106.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C120" s="12" t="n">
+      <c r="C120" s="21" t="n">
         <v>8</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -5120,26 +6578,27 @@
       <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="17" t="n">
+      <c r="F120" s="27" t="n">
         <f aca="false">E120*C120</f>
         <v>16</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H120" s="8" t="n">
+      <c r="H120" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K120" s="39" t="n">
+        <v>203</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="49" t="n">
         <v>292</v>
       </c>
-      <c r="L120" s="12" t="n">
+      <c r="M120" s="21" t="n">
         <v>249</v>
       </c>
       <c r="N120" s="1" t="n">
@@ -5152,30 +6611,59 @@
         <f aca="false">N120*B120</f>
         <v>358.08</v>
       </c>
-      <c r="Q120" s="44" t="n">
-        <f aca="false">P120-L120</f>
+      <c r="Q120" s="54" t="n">
+        <f aca="false">P120-M120</f>
         <v>109.08</v>
       </c>
       <c r="R120" s="1" t="n">
         <f aca="false">B120+G120</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12"/>
-      <c r="C121" s="12"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="U120" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="V120" s="0" t="n">
+        <f aca="false">G120</f>
+        <v>0</v>
+      </c>
+      <c r="AMJ120" s="0"/>
+    </row>
+    <row r="121" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="21"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="1"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="10"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="39"/>
-      <c r="L121" s="12"/>
-      <c r="Q121" s="44"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="51" t="s">
-        <v>134</v>
+      <c r="K121" s="3"/>
+      <c r="L121" s="49"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="54"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="0"/>
+      <c r="AMJ121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>14</v>
@@ -5195,19 +6683,19 @@
       <c r="G123" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H123" s="17" t="n">
+      <c r="H123" s="27" t="n">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J123" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="K123" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="J123" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="L123" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="L123" s="34" t="n">
+      <c r="M123" s="44" t="n">
         <v>27.3</v>
       </c>
       <c r="N123" s="1" t="n">
@@ -5220,23 +6708,32 @@
         <f aca="false">N123*B123</f>
         <v>52.22</v>
       </c>
-      <c r="Q123" s="44" t="n">
-        <f aca="false">P123-L123</f>
+      <c r="Q123" s="54" t="n">
+        <f aca="false">P123-M123</f>
         <v>24.92</v>
       </c>
       <c r="R123" s="1" t="n">
         <f aca="false">B123+G123</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T123" s="16" t="str">
+        <f aca="false">A123</f>
+        <v>draid2:3d:1s:14c</v>
+      </c>
+      <c r="U123" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J124" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="53" t="s">
-        <v>137</v>
+        <v>209</v>
+      </c>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+    </row>
+    <row r="125" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="63" t="s">
+        <v>210</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>14</v>
@@ -5250,25 +6747,26 @@
       <c r="E125" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="34" t="n">
+      <c r="F125" s="44" t="n">
         <v>1</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H125" s="17" t="n">
+      <c r="H125" s="27" t="n">
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="K125" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="L125" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="L125" s="12" t="n">
+      <c r="M125" s="21" t="n">
         <v>37.8</v>
       </c>
       <c r="N125" s="1" t="n">
@@ -5281,75 +6779,124 @@
         <f aca="false">N125*B125</f>
         <v>52.22</v>
       </c>
-      <c r="Q125" s="45" t="n">
-        <f aca="false">P125-L125</f>
+      <c r="Q125" s="55" t="n">
+        <f aca="false">P125-M125</f>
         <v>14.42</v>
       </c>
       <c r="R125" s="1" t="n">
         <f aca="false">B125+G125</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="53"/>
-      <c r="F126" s="34"/>
-      <c r="H126" s="18"/>
-      <c r="L126" s="12"/>
-      <c r="Q126" s="45"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="53"/>
-      <c r="F127" s="34"/>
-      <c r="H127" s="18"/>
-      <c r="L127" s="12"/>
-      <c r="Q127" s="45"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="16" t="str">
+        <f aca="false">A125</f>
+        <v>draid2:11d:1s:14c</v>
+      </c>
+      <c r="U125" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="V125" s="0"/>
+      <c r="AMJ125" s="0"/>
+    </row>
+    <row r="126" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="63"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="2"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="55"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="0"/>
+      <c r="AMJ126" s="0"/>
+    </row>
+    <row r="127" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="63"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="2"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="55"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="0"/>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B129" s="12" t="n">
+      <c r="A128" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="T128" s="16" t="str">
+        <f aca="false">A128</f>
+        <v>Disk size change</v>
+      </c>
+      <c r="U128" s="16"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C129" s="22" t="n">
+      <c r="C129" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="n">
         <f aca="false">B129/C129</f>
         <v>32</v>
       </c>
-      <c r="E129" s="12" t="n">
+      <c r="E129" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F129" s="23" t="n">
+      <c r="F129" s="33" t="n">
         <f aca="false">E129*C129</f>
         <v>4</v>
       </c>
-      <c r="G129" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" s="8" t="n">
+      <c r="G129" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="K129" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J129" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K129" s="17"/>
+      <c r="L129" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="L129" s="1" t="n">
+      <c r="M129" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="M129" s="0"/>
-      <c r="N129" s="40" t="n">
+      <c r="N129" s="50" t="n">
         <v>11.2</v>
       </c>
       <c r="O129" s="1" t="n">
@@ -5359,23 +6906,33 @@
         <f aca="false">N129*B129</f>
         <v>358.4</v>
       </c>
-      <c r="Q129" s="9" t="n">
-        <f aca="false">P129-L129</f>
+      <c r="Q129" s="18" t="n">
+        <f aca="false">P129-M129</f>
         <v>83.4</v>
       </c>
-      <c r="R129" s="39" t="n">
+      <c r="R129" s="49" t="n">
         <f aca="false">B129+G129</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S129" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="T129" s="16" t="str">
+        <f aca="false">A129</f>
+        <v>draid1:27d:32c:4s</v>
+      </c>
+      <c r="U129" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B130" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B130" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C130" s="12" t="n">
+      <c r="C130" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -5385,26 +6942,27 @@
       <c r="E130" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F130" s="23" t="n">
+      <c r="F130" s="33" t="n">
         <f aca="false">E130*C130</f>
         <v>4</v>
       </c>
-      <c r="G130" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" s="8" t="n">
+      <c r="G130" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K130" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="L130" s="1" t="n">
+      <c r="M130" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="M130" s="0"/>
       <c r="N130" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5415,23 +6973,30 @@
         <f aca="false">N130*B130</f>
         <v>358.4</v>
       </c>
-      <c r="Q130" s="9" t="n">
-        <f aca="false">P130-L130</f>
+      <c r="Q130" s="18" t="n">
+        <f aca="false">P130-M130</f>
         <v>83.4</v>
       </c>
-      <c r="R130" s="39" t="n">
+      <c r="R130" s="49" t="n">
         <f aca="false">B130+G130</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B131" s="12" t="n">
+      <c r="T130" s="16" t="str">
+        <f aca="false">A130</f>
+        <v>draid1:13d:16c:2s</v>
+      </c>
+      <c r="U130" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C131" s="12" t="n">
+      <c r="C131" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -5441,29 +7006,29 @@
       <c r="E131" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F131" s="23" t="n">
+      <c r="F131" s="33" t="n">
         <f aca="false">E131*C131</f>
         <v>8</v>
       </c>
-      <c r="G131" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" s="10" t="n">
+      <c r="G131" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J131" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K131" s="34" t="n">
+        <v>44</v>
+      </c>
+      <c r="J131" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="K131" s="17"/>
+      <c r="L131" s="44" t="n">
         <v>266</v>
       </c>
-      <c r="L131" s="12" t="n">
+      <c r="M131" s="21" t="n">
         <v>211</v>
       </c>
-      <c r="M131" s="0"/>
       <c r="N131" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5475,54 +7040,61 @@
         <v>358.4</v>
       </c>
       <c r="Q131" s="4" t="n">
-        <f aca="false">P131-L131</f>
+        <f aca="false">P131-M131</f>
         <v>147.4</v>
       </c>
-      <c r="R131" s="39" t="n">
+      <c r="R131" s="49" t="n">
         <f aca="false">B131+G131</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T131" s="16" t="str">
+        <f aca="false">A131</f>
+        <v>draid1:5d:8c:2s</v>
+      </c>
+      <c r="U131" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B132" s="12" t="n">
+        <v>114</v>
+      </c>
+      <c r="B132" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C132" s="22" t="n">
+      <c r="C132" s="32" t="n">
         <v>1</v>
       </c>
       <c r="D132" s="1" t="n">
         <f aca="false">B132/C132</f>
         <v>32</v>
       </c>
-      <c r="E132" s="12" t="n">
+      <c r="E132" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F132" s="23" t="n">
+      <c r="F132" s="33" t="n">
         <f aca="false">E132*C132</f>
         <v>4</v>
       </c>
-      <c r="G132" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" s="40" t="n">
+      <c r="G132" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J132" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K132" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K132" s="17"/>
+      <c r="L132" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="L132" s="1" t="n">
+      <c r="M132" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="M132" s="0"/>
       <c r="N132" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5533,23 +7105,30 @@
         <f aca="false">N132*B132</f>
         <v>358.4</v>
       </c>
-      <c r="Q132" s="9" t="n">
-        <f aca="false">P132-L132</f>
+      <c r="Q132" s="18" t="n">
+        <f aca="false">P132-M132</f>
         <v>83.4</v>
       </c>
-      <c r="R132" s="39" t="n">
+      <c r="R132" s="49" t="n">
         <f aca="false">B132+G132</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T132" s="16" t="str">
+        <f aca="false">A132</f>
+        <v>draid2:26d:32c:4s</v>
+      </c>
+      <c r="U132" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B133" s="12" t="n">
+        <v>117</v>
+      </c>
+      <c r="B133" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C133" s="12" t="n">
+      <c r="C133" s="21" t="n">
         <v>2</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -5559,26 +7138,27 @@
       <c r="E133" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F133" s="23" t="n">
+      <c r="F133" s="33" t="n">
         <f aca="false">E133*C133</f>
         <v>4</v>
       </c>
-      <c r="G133" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" s="40" t="n">
+      <c r="G133" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K133" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="L133" s="35" t="n">
+      <c r="M133" s="45" t="n">
         <v>250</v>
       </c>
-      <c r="M133" s="0"/>
       <c r="N133" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5589,55 +7169,62 @@
         <f aca="false">N133*B133</f>
         <v>358.4</v>
       </c>
-      <c r="Q133" s="9" t="n">
-        <f aca="false">P133-L133</f>
+      <c r="Q133" s="18" t="n">
+        <f aca="false">P133-M133</f>
         <v>108.4</v>
       </c>
-      <c r="R133" s="39" t="n">
+      <c r="R133" s="49" t="n">
         <f aca="false">B133+G133</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B134" s="12" t="n">
+      <c r="T133" s="16" t="str">
+        <f aca="false">A133</f>
+        <v>draid2:12d:16c:2s</v>
+      </c>
+      <c r="U133" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B134" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C134" s="12" t="n">
+      <c r="C134" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D134" s="1" t="n">
         <f aca="false">B134/C134</f>
         <v>8</v>
       </c>
-      <c r="E134" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F134" s="23" t="n">
+      <c r="E134" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" s="33" t="n">
         <f aca="false">E134*C134</f>
         <v>8</v>
       </c>
-      <c r="G134" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" s="40" t="n">
+      <c r="G134" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="50" t="n">
         <v>2</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J134" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K134" s="34" t="n">
+        <v>118</v>
+      </c>
+      <c r="J134" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="K134" s="17"/>
+      <c r="L134" s="44" t="n">
         <v>266</v>
       </c>
-      <c r="L134" s="34" t="n">
+      <c r="M134" s="44" t="n">
         <v>172</v>
       </c>
-      <c r="M134" s="0"/>
       <c r="N134" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5649,54 +7236,60 @@
         <v>358.4</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <f aca="false">P134-L134</f>
+        <f aca="false">P134-M134</f>
         <v>186.4</v>
       </c>
-      <c r="R134" s="39" t="n">
+      <c r="R134" s="49" t="n">
         <f aca="false">B134+G134</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B135" s="12" t="n">
+      <c r="T134" s="16" t="str">
+        <f aca="false">A134</f>
+        <v>draid2:4d:8c:2s</v>
+      </c>
+      <c r="U134" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="135" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C135" s="12" t="n">
+      <c r="C135" s="21" t="n">
         <v>4</v>
       </c>
       <c r="D135" s="1" t="n">
         <f aca="false">B135/C135</f>
         <v>8</v>
       </c>
-      <c r="E135" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F135" s="23" t="n">
+      <c r="E135" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" s="33" t="n">
         <f aca="false">E135*C135</f>
         <v>4</v>
       </c>
-      <c r="G135" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J135" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K135" s="12" t="n">
+      <c r="G135" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J135" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L135" s="21" t="n">
         <v>310</v>
       </c>
-      <c r="L135" s="35" t="n">
+      <c r="M135" s="45" t="n">
         <v>211</v>
       </c>
-      <c r="M135" s="0"/>
       <c r="N135" s="1" t="n">
         <v>11.2</v>
       </c>
@@ -5707,23 +7300,42 @@
         <f aca="false">N135*B135</f>
         <v>358.4</v>
       </c>
-      <c r="Q135" s="9" t="n">
-        <f aca="false">P135-L135</f>
+      <c r="Q135" s="18" t="n">
+        <f aca="false">P135-M135</f>
         <v>147.4</v>
       </c>
-      <c r="R135" s="39" t="n">
+      <c r="R135" s="49" t="n">
         <f aca="false">B135+G135</f>
         <v>32</v>
       </c>
+      <c r="S135" s="5"/>
+      <c r="T135" s="16" t="str">
+        <f aca="false">A135</f>
+        <v>draid2:5d:8c:1s</v>
+      </c>
+      <c r="U135" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V135" s="0"/>
+      <c r="AMJ135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T137" s="16"/>
+      <c r="U137" s="16"/>
     </row>
     <row r="138" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="56" t="s">
-        <v>140</v>
-      </c>
+      <c r="A138" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="T138" s="16"/>
     </row>
     <row r="139" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="57" t="s">
-        <v>141</v>
+      <c r="A139" s="67" t="s">
+        <v>214</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>18</v>
@@ -5731,8 +7343,8 @@
       <c r="C139" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D139" s="34" t="s">
-        <v>142</v>
+      <c r="D139" s="44" t="s">
+        <v>215</v>
       </c>
       <c r="E139" s="1" t="n">
         <v>2</v>
@@ -5743,23 +7355,23 @@
       <c r="G139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H139" s="22" t="n">
+      <c r="H139" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J139" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="K139" s="12" t="n">
+        <v>216</v>
+      </c>
+      <c r="J139" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="K139" s="17"/>
+      <c r="L139" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="L139" s="35" t="n">
+      <c r="M139" s="45" t="n">
         <v>127</v>
       </c>
-      <c r="M139" s="0"/>
-      <c r="N139" s="12" t="n">
+      <c r="N139" s="21" t="n">
         <v>11.2</v>
       </c>
       <c r="O139" s="1" t="n">
@@ -5769,24 +7381,28 @@
         <f aca="false">N139*B139</f>
         <v>201.6</v>
       </c>
-      <c r="Q139" s="9" t="n">
-        <f aca="false">P139-L139</f>
+      <c r="Q139" s="18" t="n">
+        <f aca="false">P139-M139</f>
         <v>74.6</v>
       </c>
-      <c r="R139" s="39" t="n">
+      <c r="R139" s="49" t="n">
         <f aca="false">B139+G139</f>
         <v>19</v>
       </c>
+      <c r="T139" s="6" t="str">
+        <f aca="false">A139</f>
+        <v>zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} spare sdt</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="12"/>
+      <c r="D140" s="21"/>
       <c r="I140" s="2" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="57" t="s">
-        <v>146</v>
+      <c r="A141" s="67" t="s">
+        <v>219</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>24</v>
@@ -5794,34 +7410,34 @@
       <c r="C141" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D141" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E141" s="34" t="s">
-        <v>148</v>
+      <c r="D141" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E141" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="F141" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G141" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" s="22" t="n">
+      <c r="G141" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J141" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="K141" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="J141" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="L141" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="L141" s="1" t="n">
+      <c r="M141" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="N141" s="12" t="n">
+      <c r="N141" s="21" t="n">
         <v>11.2</v>
       </c>
       <c r="O141" s="1" t="n">
@@ -5831,87 +7447,131 @@
         <f aca="false">N141*B141</f>
         <v>268.8</v>
       </c>
-      <c r="Q141" s="9" t="n">
-        <f aca="false">P141-L141</f>
+      <c r="Q141" s="18" t="n">
+        <f aca="false">P141-M141</f>
         <v>98.8</v>
       </c>
-      <c r="R141" s="39" t="n">
+      <c r="R141" s="49" t="n">
         <f aca="false">B141+G141</f>
         <v>25</v>
       </c>
+      <c r="T141" s="6" t="str">
+        <f aca="false">A141</f>
+        <v>zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} draid1:4d:6'c':1's' sd{t..y} spare sdz</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I142" s="2" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M142" s="3" t="n">
+        <v>225</v>
+      </c>
+      <c r="K142" s="3" t="n">
         <v>0.0298611111111111</v>
+      </c>
+      <c r="T142" s="6" t="n">
+        <f aca="false">A142</f>
+        <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I143" s="2" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M143" s="3" t="n">
+        <v>227</v>
+      </c>
+      <c r="K143" s="3" t="n">
         <v>0.0305555555555556</v>
+      </c>
+      <c r="T143" s="6" t="n">
+        <f aca="false">A143</f>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I144" s="2" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M144" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="K144" s="3" t="n">
         <v>0.03125</v>
+      </c>
+      <c r="T144" s="6" t="n">
+        <f aca="false">A144</f>
+        <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J145" s="0" t="s">
-        <v>157</v>
+        <v>230</v>
+      </c>
+      <c r="T145" s="6" t="n">
+        <f aca="false">A145</f>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J146" s="0" t="s">
-        <v>158</v>
+        <v>231</v>
+      </c>
+      <c r="T146" s="6" t="n">
+        <f aca="false">A146</f>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J147" s="0" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="T147" s="6" t="n">
+        <f aca="false">A147</f>
+        <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J148" s="0" t="s">
-        <v>160</v>
+        <v>233</v>
+      </c>
+      <c r="T148" s="6" t="n">
+        <f aca="false">A148</f>
+        <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J149" s="0" t="s">
-        <v>161</v>
+        <v>234</v>
+      </c>
+      <c r="T149" s="6" t="n">
+        <f aca="false">A149</f>
+        <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I150" s="2" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>163</v>
+        <v>236</v>
+      </c>
+      <c r="T150" s="6" t="n">
+        <f aca="false">A150</f>
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J151" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M151" s="48" t="n">
+        <v>237</v>
+      </c>
+      <c r="K151" s="58" t="n">
         <v>0.0277777777777778</v>
+      </c>
+      <c r="T151" s="6" t="n">
+        <f aca="false">A151</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5934,7 +7594,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5946,100 +7606,108 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>168</v>
+        <v>240</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>172</v>
+        <v>244</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="52" t="s">
-        <v>179</v>
+      <c r="C10" s="62" t="s">
+        <v>252</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="59" t="s">
-        <v>184</v>
+      <c r="C14" s="69" t="s">
+        <v>257</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>258</v>
+      </c>
       <c r="D16" s="0" t="s">
-        <v>185</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="16" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="52" t="s">
-        <v>186</v>
+      <c r="D18" s="62" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -100,6 +100,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This is the “free space” in the filesystem you can actually use, can vary with compression</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N1" authorId="0">
       <text>
         <r>
@@ -114,6 +126,27 @@
       </text>
     </comment>
     <comment ref="N129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">“12GB” as seen by OS; </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF2FFF12"/>
+            <rFont val="Menlo-Regular"/>
+            <family val="0"/>
+          </rPr>
+          <t xml:space="preserve">12002390016 bytes </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -354,6 +387,9 @@
     <t xml:space="preserve">Copy ~7.3GB isos from UDF dvd mounted to zstd-3 DS - including sync - with no UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">sd{b..m}</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid1:14d:16c:1s</t>
   </si>
   <si>
@@ -518,6 +554,9 @@
     <t xml:space="preserve">6 with 0 vspare and 5 pspare + 1 UNAVAIL</t>
   </si>
   <si>
+    <t xml:space="preserve">sdz sday sdaz sdby sdcy</t>
+  </si>
+  <si>
     <t xml:space="preserve">draid2:5d:8c:1s</t>
   </si>
   <si>
@@ -532,7 +571,7 @@
     <t xml:space="preserve">5 with 4 vspares and 1 UNAVAIL</t>
   </si>
   <si>
-    <t xml:space="preserve">sd{b..y} sda{a..f}</t>
+    <t xml:space="preserve">sd{b..y} sda{a..h}</t>
   </si>
   <si>
     <t xml:space="preserve">3 with 2 vspares and 2 UNAVAIL</t>
@@ -543,7 +582,7 @@
   </si>
   <si>
     <t xml:space="preserve">sd{b..q} \
-sd{b..y} sda{a..g}</t>
+sd{r..y} sda{a..h}</t>
   </si>
   <si>
     <t xml:space="preserve">draid1:5d:8c:2s</t>
@@ -561,7 +600,7 @@
     <t xml:space="preserve">sd{b..i} \ 
 sd{j..q} \
 sd{r..y} \
-sda{a..g}</t>
+sda{a..h}</t>
   </si>
   <si>
     <t xml:space="preserve">draid2:26d:32c:4s</t>
@@ -895,6 +934,9 @@
     <t xml:space="preserve">draid2:12d:24c:2s</t>
   </si>
   <si>
+    <t xml:space="preserve">More data disks, less lost to parity, 1 vspare for every (12) disks</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -932,6 +974,12 @@
   </si>
   <si>
     <t xml:space="preserve">draid2:12d:96c:12s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be 14 with 12 vspares + 2 UNAVAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More data disks, less lost to parity, 1 vspare for every (8) disks</t>
   </si>
   <si>
     <t xml:space="preserve">draid2:24d:96c:8s</t>
@@ -1195,6 +1243,115 @@
   </si>
   <si>
     <t xml:space="preserve">Disk size change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAID2:5d:1s:8c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:13d:16c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:13d:16c:2s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid1:5d:8c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid1:5d:8c:2s
+draid1:5d:8c:2s
+draid1:5d:8c:2s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:16c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:12d:16c:2s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:4d:8c:2s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:4d:8c:2s
+draid2:4d:8c:2s
+draid2:4d:8c:2s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">draid2:5d:8c:1s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">draid2:5d:8c:1s
+draid2:5d:8c:1s
+draid2:5d:8c:1s</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Now this will really break your brain:</t>
@@ -1368,7 +1525,52 @@
     <t xml:space="preserve">Original Commit:</t>
   </si>
   <si>
+    <t xml:space="preserve">To deallocate a hotspare from the “spares” list:</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/openzfs/zfs/pull/10102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zpool remove $zp sdX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( “detach” is wrong syntax )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility - handy drive slicer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kneutron/ansitest/blob/master/ZFS/zfs-drive-slicer.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This would have made my life a lot easier had I created it earlier!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want it to look nice pipe output to ‘ column -t ‘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zfs-drive-slicer.sh 96 16 |column -t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 16 per vdev = 6 vdevs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdb   sdc   sdd   sde   sdf   sdg   sdh   sdi   sdj   sdk   sdl   sdm   sdn   sdo   sdp   sdq   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdr   sds   sdt   sdu   sdv   sdw   sdx   sdy   sdaa  sdab  sdac  sdad  sdae  sdaf  sdag  sdah  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdai  sdaj  sdak  sdal  sdam  sdan  sdao  sdap  sdaq  sdar  sdas  sdat  sdau  sdav  sdaw  sdax  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdba  sdbb  sdbc  sdbd  sdbe  sdbf  sdbg  sdbh  sdbi  sdbj  sdbk  sdbl  sdbm  sdbn  sdbo  sdbp  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdbq  sdbr  sdbs  sdbt  sdbu  sdbv  sdbw  sdbx  sdca  sdcb  sdcc  sdcd  sdce  sdcf  sdcg  sdch  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdci  sdcj  sdck  sdcl  sdcm  sdcn  sdco  sdcp  sdcq  sdcr  sdcs  sdct  sdcu  sdcv  sdcw  sdcx  \</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1582,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1492,6 +1694,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF00A933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1537,8 +1746,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +1771,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF2FFF12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -1598,7 +1820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1815,6 +2037,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1851,11 +2077,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1863,19 +2097,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1933,13 +2179,13 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1956,12 +2202,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ151"/>
+  <dimension ref="A1:AMJ153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2733,7 +2979,7 @@
         <v>draid1:10d:12c:1s</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,7 +2998,7 @@
     </row>
     <row r="17" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>16</v>
@@ -2780,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="2" t="n">
@@ -2812,7 +3058,7 @@
         <v>draid1:14d:16c:1s</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,7 +3090,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="20"/>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="30" t="n">
         <v>0.0770833333333333</v>
@@ -2857,7 +3103,7 @@
     </row>
     <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>16</v>
@@ -2882,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="2" t="n">
@@ -2920,13 +3166,13 @@
         <v>draid1:13d:16c:2s</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2959,7 +3205,7 @@
         <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>0.0319444444444444</v>
@@ -2989,14 +3235,10 @@
         <v>16</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <f aca="false">G21</f>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +3248,7 @@
       <c r="G22" s="26"/>
       <c r="I22" s="20"/>
       <c r="J22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="34" t="n">
         <v>0.05625</v>
@@ -3028,7 +3270,7 @@
       <c r="G23" s="26"/>
       <c r="I23" s="20"/>
       <c r="J23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23" s="34" t="n">
         <v>0.110416666666667</v>
@@ -3045,7 +3287,7 @@
     </row>
     <row r="24" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>16</v>
@@ -3070,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="2" t="n">
@@ -3106,7 +3348,7 @@
         <v>draid2:13d:16c:1s</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" s="0"/>
       <c r="AMJ24" s="0"/>
@@ -3150,7 +3392,7 @@
     </row>
     <row r="27" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>24</v>
@@ -3178,7 +3420,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="n">
         <v>0.0243055555555556</v>
@@ -3215,12 +3457,12 @@
         <v>draid1:8d:24c:1s</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>24</v>
@@ -3245,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K28" s="7" t="n">
         <v>0.0222222222222222</v>
@@ -3278,10 +3520,10 @@
         <v>24</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U28" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3532,7 @@
       <c r="F29" s="25"/>
       <c r="H29" s="19"/>
       <c r="J29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K29" s="31" t="n">
         <v>0.0194444444444444</v>
@@ -3308,7 +3550,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="25"/>
       <c r="J30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K30" s="7" t="n">
         <v>0.0201388888888889</v>
@@ -3325,7 +3567,7 @@
       <c r="F31" s="25"/>
       <c r="H31" s="19"/>
       <c r="J31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K31" s="31" t="n">
         <v>0.0138888888888889</v>
@@ -3351,7 +3593,7 @@
     </row>
     <row r="33" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>24</v>
@@ -3376,10 +3618,10 @@
         <v>2</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33" s="7" t="n">
         <v>0.0263888888888889</v>
@@ -3412,10 +3654,10 @@
         <v>24</v>
       </c>
       <c r="T33" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U33" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3667,7 @@
       <c r="F34" s="25"/>
       <c r="H34" s="19"/>
       <c r="J34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K34" s="31" t="n">
         <v>0.0166666666666667</v>
@@ -3443,7 +3685,7 @@
       <c r="F35" s="25"/>
       <c r="H35" s="19"/>
       <c r="J35" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" s="31" t="n">
         <v>0.00902777777777778</v>
@@ -3515,7 +3757,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K38" s="7" t="n">
         <v>0.0243055555555556</v>
@@ -3545,16 +3787,16 @@
         <v>25</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U38" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3805,7 @@
       <c r="F39" s="25"/>
       <c r="H39" s="19"/>
       <c r="J39" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="31" t="n">
         <v>0.01875</v>
@@ -3578,7 +3820,7 @@
       <c r="F40" s="25"/>
       <c r="H40" s="19"/>
       <c r="J40" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" s="31" t="n">
         <v>0.0194444444444444</v>
@@ -3593,7 +3835,7 @@
       <c r="F41" s="25"/>
       <c r="H41" s="19"/>
       <c r="J41" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" s="42" t="n">
         <v>0.0368055555555556</v>
@@ -3615,7 +3857,7 @@
     </row>
     <row r="43" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>24</v>
@@ -3668,16 +3910,16 @@
         <v>25</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U43" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V43" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,7 +3958,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K45" s="7" t="n">
         <v>0.0236111111111111</v>
@@ -3746,22 +3988,22 @@
         <v>25</v>
       </c>
       <c r="T45" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V45" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="25"/>
       <c r="J46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K46" s="31" t="n">
         <v>0.0173611111111111</v>
@@ -3772,7 +4014,7 @@
     <row r="47" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="25"/>
       <c r="J47" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K47" s="31" t="n">
         <v>0.0104166666666667</v>
@@ -3788,7 +4030,7 @@
     </row>
     <row r="49" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>24</v>
@@ -3813,10 +4055,10 @@
         <v>2</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K49" s="7" t="n">
         <v>0.0361111111111111</v>
@@ -3849,10 +4091,10 @@
         <v>24</v>
       </c>
       <c r="T49" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U49" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V49" s="0" t="n">
         <f aca="false">G49</f>
@@ -3866,7 +4108,7 @@
       <c r="G50" s="45"/>
       <c r="H50" s="19"/>
       <c r="J50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K50" s="31" t="n">
         <v>0.0298611111111111</v>
@@ -3882,7 +4124,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="19"/>
       <c r="J51" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K51" s="31" t="n">
         <v>0.0166666666666667</v>
@@ -3904,7 +4146,7 @@
     </row>
     <row r="53" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>24</v>
@@ -3929,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="0"/>
@@ -3962,11 +4204,13 @@
         <v>draid1:8d:24c:0s</v>
       </c>
       <c r="U53" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V53" s="0" t="n">
-        <f aca="false">G53</f>
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +4222,7 @@
     </row>
     <row r="55" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B55" s="49" t="n">
         <v>24</v>
@@ -4031,16 +4275,16 @@
         <v>25</v>
       </c>
       <c r="T55" s="23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U55" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V55" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4311,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="21" t="n">
         <v>32</v>
@@ -4092,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K58" s="17"/>
       <c r="L58" s="1" t="n">
@@ -4130,12 +4374,12 @@
         <v>draid1:27d:32c:4s</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="21" t="n">
         <v>32</v>
@@ -4160,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
@@ -4189,15 +4433,15 @@
         <v>32</v>
       </c>
       <c r="T59" s="23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U59" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B60" s="21" t="n">
         <v>32</v>
@@ -4222,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K60" s="17"/>
       <c r="L60" s="44" t="n">
@@ -4253,15 +4497,15 @@
         <v>32</v>
       </c>
       <c r="T60" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U60" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" s="21" t="n">
         <v>32</v>
@@ -4286,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="1" t="n">
@@ -4321,12 +4565,12 @@
         <v>draid2:26d:32c:4s</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B62" s="21" t="n">
         <v>32</v>
@@ -4351,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
@@ -4380,15 +4624,15 @@
         <v>32</v>
       </c>
       <c r="T62" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U62" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="21" t="n">
         <v>32</v>
@@ -4413,10 +4657,10 @@
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="21" t="n">
@@ -4444,19 +4688,15 @@
         <v>32</v>
       </c>
       <c r="T63" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U63" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V63" s="0" t="n">
-        <f aca="false">G63</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64" s="21" t="n">
         <v>32</v>
@@ -4481,10 +4721,10 @@
         <v>2</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L64" s="21" t="n">
         <v>102</v>
@@ -4516,12 +4756,9 @@
         <v>draid2:5d:8c:1s</v>
       </c>
       <c r="U64" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V64" s="0" t="n">
-        <f aca="false">G64</f>
-        <v>0</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="V64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,10 +4769,6 @@
       <c r="Q65" s="18"/>
       <c r="T65" s="16"/>
       <c r="U65" s="16"/>
-      <c r="V65" s="0" t="n">
-        <f aca="false">G65</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21"/>
@@ -4545,14 +4778,10 @@
       <c r="Q66" s="18"/>
       <c r="T66" s="16"/>
       <c r="U66" s="16"/>
-      <c r="V66" s="0" t="n">
-        <f aca="false">G66</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B67" s="21" t="n">
         <v>48</v>
@@ -4608,19 +4837,15 @@
         <v>24</v>
       </c>
       <c r="T67" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U67" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="V67" s="0" t="n">
-        <f aca="false">G67</f>
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" s="21" t="n">
         <v>48</v>
@@ -4645,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K68" s="0"/>
       <c r="L68" s="1" t="n">
@@ -4673,19 +4898,15 @@
         <v>48</v>
       </c>
       <c r="T68" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U68" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="V68" s="0" t="n">
-        <f aca="false">G68</f>
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B69" s="21" t="n">
         <v>48</v>
@@ -4710,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K69" s="0"/>
       <c r="L69" s="1" t="n">
@@ -4738,10 +4959,10 @@
         <v>48</v>
       </c>
       <c r="T69" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U69" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,7 +4977,7 @@
     </row>
     <row r="71" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="21" t="n">
         <v>48</v>
@@ -4781,10 +5002,10 @@
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K71" s="7" t="n">
         <v>0.0430555555555556</v>
@@ -4818,7 +5039,7 @@
         <v>draid2:8d:48c:2s</v>
       </c>
       <c r="U71" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,7 +5049,7 @@
       <c r="G72" s="21"/>
       <c r="H72" s="19"/>
       <c r="J72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K72" s="31" t="n">
         <v>0.0333333333333333</v>
@@ -4839,7 +5060,7 @@
     </row>
     <row r="73" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B73" s="21" t="n">
         <v>48</v>
@@ -4864,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K73" s="0"/>
       <c r="L73" s="1" t="n">
@@ -4895,10 +5116,10 @@
         <v>24</v>
       </c>
       <c r="T73" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U73" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,7 +5134,7 @@
     </row>
     <row r="75" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" s="21" t="n">
         <v>48</v>
@@ -4938,7 +5159,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K75" s="0"/>
       <c r="L75" s="1" t="n">
@@ -4966,15 +5187,15 @@
         <v>48</v>
       </c>
       <c r="T75" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="U75" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" s="17" customFormat="true" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="21" t="n">
         <v>48</v>
@@ -4999,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L76" s="1" t="n">
         <v>153</v>
@@ -5034,7 +5255,7 @@
         <v>draid2:12d:16c:2s</v>
       </c>
       <c r="U76" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V76" s="0"/>
       <c r="AMJ76" s="0"/>
@@ -5059,7 +5280,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B79" s="21" t="n">
         <v>72</v>
@@ -5119,12 +5340,12 @@
         <v>draid1:8d:72c:2s</v>
       </c>
       <c r="U79" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B80" s="21" t="n">
         <v>72</v>
@@ -5177,10 +5398,10 @@
         <v>72</v>
       </c>
       <c r="T80" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U80" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5416,7 @@
     </row>
     <row r="82" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B82" s="21" t="n">
         <v>72</v>
@@ -5248,15 +5469,15 @@
         <v>72</v>
       </c>
       <c r="T82" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U82" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" s="17" customFormat="true" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B83" s="21" t="n">
         <v>72</v>
@@ -5284,7 +5505,7 @@
         <v>44</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L83" s="1" t="n">
         <v>241</v>
@@ -5312,10 +5533,10 @@
       </c>
       <c r="S83" s="5"/>
       <c r="T83" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="U83" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="U83" s="23" t="s">
-        <v>147</v>
       </c>
       <c r="V83" s="0"/>
       <c r="AMJ83" s="0"/>
@@ -5331,7 +5552,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K84" s="31" t="n">
         <v>0.0340277777777778</v>
@@ -5360,7 +5581,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K85" s="31" t="n">
         <v>0.0354166666666667</v>
@@ -5390,7 +5611,7 @@
     </row>
     <row r="87" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B87" s="21" t="n">
         <v>72</v>
@@ -5415,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J87" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K87" s="0"/>
       <c r="L87" s="1" t="n">
@@ -5453,12 +5674,12 @@
         <v>draid2:12d:72c:2s</v>
       </c>
       <c r="U87" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B88" s="21" t="n">
         <v>72</v>
@@ -5483,10 +5704,10 @@
         <v>2</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L88" s="1" t="n">
         <v>256</v>
@@ -5518,7 +5739,7 @@
         <v>draid2:8d:72c:2s</v>
       </c>
       <c r="U88" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V88" s="0"/>
       <c r="AMJ88" s="0"/>
@@ -5549,7 +5770,7 @@
     </row>
     <row r="90" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B90" s="21" t="n">
         <v>72</v>
@@ -5574,7 +5795,7 @@
         <v>2</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K90" s="0"/>
       <c r="L90" s="1" t="n">
@@ -5602,15 +5823,15 @@
         <v>72</v>
       </c>
       <c r="T90" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U90" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" s="17" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B91" s="21" t="n">
         <v>72</v>
@@ -5635,10 +5856,10 @@
         <v>2</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L91" s="1" t="n">
         <v>248</v>
@@ -5666,17 +5887,17 @@
       </c>
       <c r="S91" s="5"/>
       <c r="T91" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U91" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V91" s="0"/>
       <c r="AMJ91" s="0"/>
     </row>
     <row r="92" s="17" customFormat="true" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B92" s="21" t="n">
         <v>72</v>
@@ -5701,10 +5922,10 @@
         <v>2</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L92" s="1" t="n">
         <v>248</v>
@@ -5732,10 +5953,10 @@
       </c>
       <c r="S92" s="5"/>
       <c r="T92" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="U92" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V92" s="0"/>
       <c r="AMJ92" s="0"/>
@@ -5753,7 +5974,7 @@
     </row>
     <row r="94" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B94" s="21" t="n">
         <v>72</v>
@@ -5778,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="K94" s="0"/>
       <c r="L94" s="1" t="n">
@@ -5809,10 +6030,10 @@
         <v>72</v>
       </c>
       <c r="T94" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="U94" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,7 +6057,7 @@
     </row>
     <row r="97" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B97" s="21" t="n">
         <v>96</v>
@@ -5850,7 +6071,7 @@
       <c r="E97" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F97" s="25" t="n">
+      <c r="F97" s="54" t="n">
         <f aca="false">E97*C97</f>
         <v>6</v>
       </c>
@@ -5861,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="0"/>
@@ -5881,7 +6102,7 @@
         <f aca="false">N97*B97</f>
         <v>358.08</v>
       </c>
-      <c r="Q97" s="54" t="n">
+      <c r="Q97" s="55" t="n">
         <f aca="false">P97-M97</f>
         <v>103.08</v>
       </c>
@@ -5897,27 +6118,27 @@
         <v>draid2:8d:96c:6s</v>
       </c>
       <c r="U97" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V97" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W97" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F98" s="25"/>
       <c r="I98" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K98" s="0"/>
       <c r="T98" s="16"/>
       <c r="U98" s="16"/>
     </row>
-    <row r="99" s="17" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" s="17" customFormat="true" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B99" s="21" t="n">
         <v>96</v>
@@ -5941,9 +6162,11 @@
       <c r="H99" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="I99" s="20"/>
+      <c r="I99" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="J99" s="2" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="L99" s="1" t="n">
         <v>308</v>
@@ -5961,7 +6184,7 @@
         <f aca="false">N99*B99</f>
         <v>358.08</v>
       </c>
-      <c r="Q99" s="54" t="n">
+      <c r="Q99" s="55" t="n">
         <f aca="false">P99-M99</f>
         <v>110.08</v>
       </c>
@@ -5975,14 +6198,14 @@
         <v>draid2:12d:96c:12s</v>
       </c>
       <c r="U99" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V99" s="0"/>
       <c r="AMJ99" s="0"/>
     </row>
     <row r="100" s="17" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B100" s="21" t="n">
         <v>96</v>
@@ -6007,10 +6230,10 @@
         <v>2</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J100" s="20" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L100" s="21" t="n">
         <v>322</v>
@@ -6028,7 +6251,7 @@
         <f aca="false">N100*B100</f>
         <v>358.08</v>
       </c>
-      <c r="Q100" s="55" t="n">
+      <c r="Q100" s="56" t="n">
         <f aca="false">P100-M100</f>
         <v>79.08</v>
       </c>
@@ -6042,7 +6265,7 @@
         <v>draid2:24d:96c:8s</v>
       </c>
       <c r="U100" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="V100" s="0"/>
       <c r="AMJ100" s="0"/>
@@ -6058,7 +6281,7 @@
       <c r="H101" s="35"/>
       <c r="I101" s="20"/>
       <c r="J101" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K101" s="31" t="n">
         <v>0.0347222222222222</v>
@@ -6068,7 +6291,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="55"/>
+      <c r="Q101" s="56"/>
       <c r="R101" s="1"/>
       <c r="S101" s="5"/>
       <c r="T101" s="16"/>
@@ -6087,7 +6310,7 @@
       <c r="H102" s="35"/>
       <c r="I102" s="20"/>
       <c r="J102" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K102" s="31" t="n">
         <v>0.0243055555555556</v>
@@ -6097,7 +6320,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="55"/>
+      <c r="Q102" s="56"/>
       <c r="R102" s="1"/>
       <c r="S102" s="5"/>
       <c r="T102" s="16"/>
@@ -6114,7 +6337,7 @@
     </row>
     <row r="104" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>96</v>
@@ -6126,7 +6349,7 @@
         <v>48</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F104" s="33" t="n">
         <v>8</v>
@@ -6138,10 +6361,10 @@
         <v>2</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K104" s="0"/>
       <c r="L104" s="1" t="n">
@@ -6160,7 +6383,7 @@
         <f aca="false">N104*B104</f>
         <v>358.08</v>
       </c>
-      <c r="Q104" s="54" t="n">
+      <c r="Q104" s="55" t="n">
         <f aca="false">P104-M104</f>
         <v>109.08</v>
       </c>
@@ -6172,14 +6395,10 @@
         <v>24</v>
       </c>
       <c r="T104" s="23" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="U104" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="V104" s="0" t="n">
-        <f aca="false">G104</f>
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,7 +6410,7 @@
     </row>
     <row r="106" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>96</v>
@@ -6216,10 +6435,10 @@
         <v>2</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K106" s="0"/>
       <c r="L106" s="1" t="n">
@@ -6238,7 +6457,7 @@
         <f aca="false">N106*B106</f>
         <v>358.08</v>
       </c>
-      <c r="Q106" s="54" t="n">
+      <c r="Q106" s="55" t="n">
         <f aca="false">P106-M106</f>
         <v>120.08</v>
       </c>
@@ -6247,24 +6466,24 @@
         <v>100</v>
       </c>
       <c r="T106" s="23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="U106" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V106" s="0" t="s">
         <v>26</v>
       </c>
       <c r="W106" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F107" s="25"/>
       <c r="J107" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K107" s="56" t="n">
+        <v>192</v>
+      </c>
+      <c r="K107" s="57" t="n">
         <v>0.107638888888889</v>
       </c>
       <c r="T107" s="16"/>
@@ -6273,9 +6492,9 @@
     <row r="108" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F108" s="25"/>
       <c r="J108" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K108" s="57" t="n">
+        <v>193</v>
+      </c>
+      <c r="K108" s="58" t="n">
         <v>0.0756944444444444</v>
       </c>
       <c r="T108" s="16"/>
@@ -6284,9 +6503,9 @@
     <row r="109" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F109" s="25"/>
       <c r="J109" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K109" s="58" t="n">
+        <v>194</v>
+      </c>
+      <c r="K109" s="59" t="n">
         <v>0.0583333333333333</v>
       </c>
       <c r="T109" s="16"/>
@@ -6295,9 +6514,9 @@
     <row r="110" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F110" s="25"/>
       <c r="J110" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K110" s="58" t="n">
+        <v>195</v>
+      </c>
+      <c r="K110" s="59" t="n">
         <v>0.0569444444444444</v>
       </c>
       <c r="T110" s="16"/>
@@ -6306,17 +6525,17 @@
     <row r="111" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F111" s="25"/>
       <c r="J111" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K111" s="58" t="n">
+        <v>196</v>
+      </c>
+      <c r="K111" s="59" t="n">
         <v>0.00972222222222222</v>
       </c>
       <c r="T111" s="16"/>
       <c r="U111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="59" t="s">
-        <v>192</v>
+      <c r="A112" s="60" t="s">
+        <v>197</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>96</v>
@@ -6328,7 +6547,7 @@
         <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F112" s="27" t="n">
         <v>16</v>
@@ -6340,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K112" s="3" t="n">
         <v>0.0243055555555556</v>
@@ -6364,7 +6583,7 @@
         <f aca="false">N112*B112</f>
         <v>358.08</v>
       </c>
-      <c r="Q112" s="54" t="n">
+      <c r="Q112" s="55" t="n">
         <f aca="false">P112-M112</f>
         <v>107.08</v>
       </c>
@@ -6376,16 +6595,16 @@
         <v>24</v>
       </c>
       <c r="T112" s="23" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="U112" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F113" s="25"/>
       <c r="J113" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K113" s="3" t="n">
         <v>0.0444444444444444</v>
@@ -6396,9 +6615,9 @@
     <row r="114" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F114" s="25"/>
       <c r="J114" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K114" s="60" t="n">
+        <v>201</v>
+      </c>
+      <c r="K114" s="61" t="n">
         <v>0.0625</v>
       </c>
       <c r="T114" s="16"/>
@@ -6407,9 +6626,9 @@
     <row r="115" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F115" s="25"/>
       <c r="J115" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K115" s="58" t="n">
+        <v>202</v>
+      </c>
+      <c r="K115" s="59" t="n">
         <v>0.0215277777777778</v>
       </c>
       <c r="T115" s="16"/>
@@ -6417,7 +6636,7 @@
     </row>
     <row r="116" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>96</v>
@@ -6442,10 +6661,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="1" t="n">
@@ -6464,7 +6683,7 @@
         <f aca="false">N116*B116</f>
         <v>358.08</v>
       </c>
-      <c r="Q116" s="55" t="n">
+      <c r="Q116" s="56" t="n">
         <f aca="false">P116-M116</f>
         <v>104.08</v>
       </c>
@@ -6476,10 +6695,10 @@
         <v>24</v>
       </c>
       <c r="T116" s="23" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="U116" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V116" s="0"/>
       <c r="AMJ116" s="0"/>
@@ -6490,7 +6709,7 @@
     </row>
     <row r="118" s="17" customFormat="true" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>96</v>
@@ -6518,7 +6737,7 @@
         <v>44</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="21" t="n">
@@ -6537,7 +6756,7 @@
         <f aca="false">N118*B118</f>
         <v>358.08</v>
       </c>
-      <c r="Q118" s="54" t="n">
+      <c r="Q118" s="55" t="n">
         <f aca="false">P118-M118</f>
         <v>86.08</v>
       </c>
@@ -6547,15 +6766,12 @@
       </c>
       <c r="S118" s="5"/>
       <c r="T118" s="23" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="U118" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="V118" s="0" t="n">
-        <f aca="false">G118</f>
-        <v>0</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="V118" s="0"/>
       <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6564,7 +6780,7 @@
     </row>
     <row r="120" s="17" customFormat="true" ht="106.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>96</v>
@@ -6592,7 +6808,7 @@
         <v>44</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="49" t="n">
@@ -6611,7 +6827,7 @@
         <f aca="false">N120*B120</f>
         <v>358.08</v>
       </c>
-      <c r="Q120" s="54" t="n">
+      <c r="Q120" s="55" t="n">
         <f aca="false">P120-M120</f>
         <v>109.08</v>
       </c>
@@ -6621,15 +6837,12 @@
       </c>
       <c r="S120" s="5"/>
       <c r="T120" s="23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="U120" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="V120" s="0" t="n">
-        <f aca="false">G120</f>
-        <v>0</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="V120" s="0"/>
       <c r="AMJ120" s="0"/>
     </row>
     <row r="121" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6649,7 +6862,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-      <c r="Q121" s="54"/>
+      <c r="Q121" s="55"/>
       <c r="R121" s="1"/>
       <c r="S121" s="5"/>
       <c r="T121" s="16"/>
@@ -6662,8 +6875,8 @@
       <c r="U122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="61" t="s">
-        <v>206</v>
+      <c r="A123" s="62" t="s">
+        <v>211</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>14</v>
@@ -6687,10 +6900,10 @@
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J123" s="62" t="s">
-        <v>207</v>
+        <v>69</v>
+      </c>
+      <c r="J123" s="63" t="s">
+        <v>212</v>
       </c>
       <c r="L123" s="1" t="n">
         <v>47.5</v>
@@ -6708,7 +6921,7 @@
         <f aca="false">N123*B123</f>
         <v>52.22</v>
       </c>
-      <c r="Q123" s="54" t="n">
+      <c r="Q123" s="55" t="n">
         <f aca="false">P123-M123</f>
         <v>24.92</v>
       </c>
@@ -6721,19 +6934,19 @@
         <v>draid2:3d:1s:14c</v>
       </c>
       <c r="U123" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J124" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="T124" s="16"/>
       <c r="U124" s="16"/>
     </row>
     <row r="125" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="63" t="s">
-        <v>210</v>
+      <c r="A125" s="64" t="s">
+        <v>215</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>14</v>
@@ -6757,10 +6970,10 @@
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J125" s="17" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="1" t="n">
@@ -6779,7 +6992,7 @@
         <f aca="false">N125*B125</f>
         <v>52.22</v>
       </c>
-      <c r="Q125" s="55" t="n">
+      <c r="Q125" s="56" t="n">
         <f aca="false">P125-M125</f>
         <v>14.42</v>
       </c>
@@ -6793,13 +7006,13 @@
         <v>draid2:11d:1s:14c</v>
       </c>
       <c r="U125" s="16" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="V125" s="0"/>
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="63"/>
+      <c r="A126" s="64"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6814,7 +7027,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="Q126" s="55"/>
+      <c r="Q126" s="56"/>
       <c r="R126" s="1"/>
       <c r="S126" s="5"/>
       <c r="T126" s="16"/>
@@ -6823,7 +7036,7 @@
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="63"/>
+      <c r="A127" s="64"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6838,7 +7051,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="Q127" s="55"/>
+      <c r="Q127" s="56"/>
       <c r="R127" s="1"/>
       <c r="S127" s="5"/>
       <c r="T127" s="16"/>
@@ -6847,8 +7060,8 @@
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="64" t="s">
-        <v>212</v>
+      <c r="A128" s="65" t="s">
+        <v>217</v>
       </c>
       <c r="T128" s="16" t="str">
         <f aca="false">A128</f>
@@ -6856,180 +7069,118 @@
       </c>
       <c r="U128" s="16"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="21" t="s">
-        <v>104</v>
+    <row r="129" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="66" t="s">
+        <v>218</v>
       </c>
       <c r="B129" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="C129" s="32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" s="35" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="1" t="n">
         <f aca="false">B129/C129</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E129" s="21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F129" s="33" t="n">
         <f aca="false">E129*C129</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G129" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H129" s="14" t="n">
-        <v>1</v>
+      <c r="H129" s="27" t="n">
+        <v>2</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K129" s="17"/>
-      <c r="L129" s="1" t="n">
-        <v>310</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L129" s="32"/>
       <c r="M129" s="1" t="n">
-        <v>275</v>
+        <v>70</v>
       </c>
       <c r="N129" s="50" t="n">
-        <v>11.2</v>
+        <v>14.55</v>
       </c>
       <c r="O129" s="1" t="n">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="P129" s="1" t="n">
         <f aca="false">N129*B129</f>
-        <v>358.4</v>
+        <v>116.4</v>
       </c>
       <c r="Q129" s="18" t="n">
         <f aca="false">P129-M129</f>
-        <v>83.4</v>
+        <v>46.4</v>
       </c>
       <c r="R129" s="49" t="n">
         <f aca="false">B129+G129</f>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="T129" s="16" t="str">
         <f aca="false">A129</f>
-        <v>draid1:27d:32c:4s</v>
+        <v>DRAID2:5d:1s:8c</v>
       </c>
       <c r="U129" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="67"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="21" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="C130" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" s="1" t="n">
-        <f aca="false">B130/C130</f>
-        <v>16</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F130" s="33" t="n">
-        <f aca="false">E130*C130</f>
-        <v>4</v>
-      </c>
-      <c r="G130" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="M130" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="N130" s="1" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="O130" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="P130" s="1" t="n">
-        <f aca="false">N130*B130</f>
-        <v>358.4</v>
-      </c>
-      <c r="Q130" s="18" t="n">
-        <f aca="false">P130-M130</f>
-        <v>83.4</v>
-      </c>
-      <c r="R130" s="49" t="n">
-        <f aca="false">B130+G130</f>
-        <v>32</v>
-      </c>
-      <c r="T130" s="16" t="str">
-        <f aca="false">A130</f>
-        <v>draid1:13d:16c:2s</v>
-      </c>
-      <c r="U130" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="B131" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C131" s="21" t="n">
-        <v>4</v>
+      <c r="C131" s="32" t="n">
+        <v>1</v>
       </c>
       <c r="D131" s="1" t="n">
         <f aca="false">B131/C131</f>
-        <v>8</v>
-      </c>
-      <c r="E131" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="E131" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="F131" s="33" t="n">
         <f aca="false">E131*C131</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G131" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H131" s="19" t="n">
+      <c r="H131" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J131" s="65" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="J131" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="K131" s="17"/>
-      <c r="L131" s="44" t="n">
-        <v>266</v>
-      </c>
-      <c r="M131" s="21" t="n">
-        <v>211</v>
-      </c>
-      <c r="N131" s="1" t="n">
+      <c r="L131" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="M131" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="N131" s="50" t="n">
         <v>11.2</v>
       </c>
       <c r="O131" s="1" t="n">
@@ -7039,38 +7190,41 @@
         <f aca="false">N131*B131</f>
         <v>358.4</v>
       </c>
-      <c r="Q131" s="4" t="n">
+      <c r="Q131" s="18" t="n">
         <f aca="false">P131-M131</f>
-        <v>147.4</v>
+        <v>83.4</v>
       </c>
       <c r="R131" s="49" t="n">
         <f aca="false">B131+G131</f>
         <v>32</v>
       </c>
+      <c r="S131" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="T131" s="16" t="str">
         <f aca="false">A131</f>
-        <v>draid1:5d:8c:2s</v>
-      </c>
-      <c r="U131" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>draid1:27d:32c:4s</v>
+      </c>
+      <c r="U131" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B132" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C132" s="32" t="n">
-        <v>1</v>
+      <c r="C132" s="21" t="n">
+        <v>2</v>
       </c>
       <c r="D132" s="1" t="n">
         <f aca="false">B132/C132</f>
-        <v>32</v>
-      </c>
-      <c r="E132" s="21" t="n">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F132" s="33" t="n">
         <f aca="false">E132*C132</f>
@@ -7079,15 +7233,13 @@
       <c r="G132" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H132" s="50" t="n">
-        <v>2</v>
+      <c r="H132" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J132" s="17" t="s">
-        <v>116</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J132" s="17"/>
       <c r="K132" s="17"/>
       <c r="L132" s="1" t="n">
         <v>310</v>
@@ -7113,51 +7265,52 @@
         <f aca="false">B132+G132</f>
         <v>32</v>
       </c>
-      <c r="T132" s="16" t="str">
-        <f aca="false">A132</f>
-        <v>draid2:26d:32c:4s</v>
-      </c>
-      <c r="U132" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>117</v>
+      <c r="T132" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="U132" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="B133" s="21" t="n">
         <v>32</v>
       </c>
       <c r="C133" s="21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D133" s="1" t="n">
         <f aca="false">B133/C133</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F133" s="33" t="n">
         <f aca="false">E133*C133</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G133" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H133" s="50" t="n">
-        <v>2</v>
+      <c r="H133" s="19" t="n">
+        <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J133" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="J133" s="68" t="s">
+        <v>113</v>
+      </c>
       <c r="K133" s="17"/>
-      <c r="L133" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="M133" s="45" t="n">
-        <v>250</v>
+      <c r="L133" s="44" t="n">
+        <v>266</v>
+      </c>
+      <c r="M133" s="21" t="n">
+        <v>211</v>
       </c>
       <c r="N133" s="1" t="n">
         <v>11.2</v>
@@ -7169,42 +7322,41 @@
         <f aca="false">N133*B133</f>
         <v>358.4</v>
       </c>
-      <c r="Q133" s="18" t="n">
+      <c r="Q133" s="4" t="n">
         <f aca="false">P133-M133</f>
-        <v>108.4</v>
+        <v>147.4</v>
       </c>
       <c r="R133" s="49" t="n">
         <f aca="false">B133+G133</f>
         <v>32</v>
       </c>
-      <c r="T133" s="16" t="str">
-        <f aca="false">A133</f>
-        <v>draid2:12d:16c:2s</v>
+      <c r="T133" s="23" t="s">
+        <v>220</v>
       </c>
       <c r="U133" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="45" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B134" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="C134" s="21" t="n">
-        <v>4</v>
+      <c r="C134" s="32" t="n">
+        <v>1</v>
       </c>
       <c r="D134" s="1" t="n">
         <f aca="false">B134/C134</f>
-        <v>8</v>
-      </c>
-      <c r="E134" s="44" t="n">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="E134" s="21" t="n">
+        <v>4</v>
       </c>
       <c r="F134" s="33" t="n">
         <f aca="false">E134*C134</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G134" s="21" t="n">
         <v>0</v>
@@ -7213,17 +7365,17 @@
         <v>2</v>
       </c>
       <c r="I134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J134" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J134" s="65" t="s">
-        <v>111</v>
-      </c>
       <c r="K134" s="17"/>
-      <c r="L134" s="44" t="n">
-        <v>266</v>
-      </c>
-      <c r="M134" s="44" t="n">
-        <v>172</v>
+      <c r="L134" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="M134" s="1" t="n">
+        <v>275</v>
       </c>
       <c r="N134" s="1" t="n">
         <v>11.2</v>
@@ -7235,9 +7387,9 @@
         <f aca="false">N134*B134</f>
         <v>358.4</v>
       </c>
-      <c r="Q134" s="4" t="n">
+      <c r="Q134" s="18" t="n">
         <f aca="false">P134-M134</f>
-        <v>186.4</v>
+        <v>83.4</v>
       </c>
       <c r="R134" s="49" t="n">
         <f aca="false">B134+G134</f>
@@ -7245,28 +7397,28 @@
       </c>
       <c r="T134" s="16" t="str">
         <f aca="false">A134</f>
-        <v>draid2:4d:8c:2s</v>
-      </c>
-      <c r="U134" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="21" t="s">
-        <v>102</v>
+        <v>draid2:26d:32c:4s</v>
+      </c>
+      <c r="U134" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B135" s="21" t="n">
         <v>32</v>
       </c>
       <c r="C135" s="21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="n">
         <f aca="false">B135/C135</f>
-        <v>8</v>
-      </c>
-      <c r="E135" s="21" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F135" s="33" t="n">
         <f aca="false">E135*C135</f>
@@ -7278,17 +7430,16 @@
       <c r="H135" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="I135" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J135" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L135" s="21" t="n">
+      <c r="I135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="1" t="n">
         <v>310</v>
       </c>
       <c r="M135" s="45" t="n">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="N135" s="1" t="n">
         <v>11.2</v>
@@ -7302,140 +7453,202 @@
       </c>
       <c r="Q135" s="18" t="n">
         <f aca="false">P135-M135</f>
-        <v>147.4</v>
+        <v>108.4</v>
       </c>
       <c r="R135" s="49" t="n">
         <f aca="false">B135+G135</f>
         <v>32</v>
       </c>
-      <c r="S135" s="5"/>
-      <c r="T135" s="16" t="str">
-        <f aca="false">A135</f>
-        <v>draid2:5d:8c:1s</v>
+      <c r="T135" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="U135" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C136" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <f aca="false">B136/C136</f>
+        <v>8</v>
+      </c>
+      <c r="E136" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" s="33" t="n">
+        <f aca="false">E136*C136</f>
+        <v>8</v>
+      </c>
+      <c r="G136" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J136" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="V135" s="0"/>
-      <c r="AMJ135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T136" s="16"/>
-      <c r="U136" s="16"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T137" s="16"/>
-      <c r="U137" s="16"/>
-    </row>
-    <row r="138" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="66" t="s">
-        <v>213</v>
-      </c>
+      <c r="K136" s="17"/>
+      <c r="L136" s="44" t="n">
+        <v>266</v>
+      </c>
+      <c r="M136" s="44" t="n">
+        <v>172</v>
+      </c>
+      <c r="N136" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O136" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P136" s="1" t="n">
+        <f aca="false">N136*B136</f>
+        <v>358.4</v>
+      </c>
+      <c r="Q136" s="4" t="n">
+        <f aca="false">P136-M136</f>
+        <v>186.4</v>
+      </c>
+      <c r="R136" s="49" t="n">
+        <f aca="false">B136+G136</f>
+        <v>32</v>
+      </c>
+      <c r="T136" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="U136" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" s="17" customFormat="true" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B137" s="21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C137" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <f aca="false">B137/C137</f>
+        <v>8</v>
+      </c>
+      <c r="E137" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" s="33" t="n">
+        <f aca="false">E137*C137</f>
+        <v>4</v>
+      </c>
+      <c r="G137" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J137" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L137" s="21" t="n">
+        <v>310</v>
+      </c>
+      <c r="M137" s="45" t="n">
+        <v>211</v>
+      </c>
+      <c r="N137" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O137" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P137" s="1" t="n">
+        <f aca="false">N137*B137</f>
+        <v>358.4</v>
+      </c>
+      <c r="Q137" s="18" t="n">
+        <f aca="false">P137-M137</f>
+        <v>147.4</v>
+      </c>
+      <c r="R137" s="49" t="n">
+        <f aca="false">B137+G137</f>
+        <v>32</v>
+      </c>
+      <c r="S137" s="5"/>
+      <c r="T137" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="U137" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="V137" s="0"/>
+      <c r="AMJ137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T138" s="16"/>
-    </row>
-    <row r="139" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="67" t="s">
-        <v>214</v>
-      </c>
-      <c r="B139" s="1" t="n">
+      <c r="U138" s="16"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T139" s="16"/>
+      <c r="U139" s="16"/>
+    </row>
+    <row r="140" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="T140" s="16"/>
+    </row>
+    <row r="141" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="B141" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C139" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D139" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="E139" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" s="1" t="n">
+      <c r="C141" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G139" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J139" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="K139" s="17"/>
-      <c r="L139" s="21" t="n">
+      <c r="G141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J141" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="K141" s="17"/>
+      <c r="L141" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="M139" s="45" t="n">
+      <c r="M141" s="45" t="n">
         <v>127</v>
-      </c>
-      <c r="N139" s="21" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="O139" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="P139" s="1" t="n">
-        <f aca="false">N139*B139</f>
-        <v>201.6</v>
-      </c>
-      <c r="Q139" s="18" t="n">
-        <f aca="false">P139-M139</f>
-        <v>74.6</v>
-      </c>
-      <c r="R139" s="49" t="n">
-        <f aca="false">B139+G139</f>
-        <v>19</v>
-      </c>
-      <c r="T139" s="6" t="str">
-        <f aca="false">A139</f>
-        <v>zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} spare sdt</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="21"/>
-      <c r="I140" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C141" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D141" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="E141" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F141" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G141" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J141" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="L141" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="M141" s="1" t="n">
-        <v>170</v>
       </c>
       <c r="N141" s="21" t="n">
         <v>11.2</v>
@@ -7445,78 +7658,126 @@
       </c>
       <c r="P141" s="1" t="n">
         <f aca="false">N141*B141</f>
-        <v>268.8</v>
+        <v>201.6</v>
       </c>
       <c r="Q141" s="18" t="n">
         <f aca="false">P141-M141</f>
-        <v>98.8</v>
+        <v>74.6</v>
       </c>
       <c r="R141" s="49" t="n">
         <f aca="false">B141+G141</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="T141" s="6" t="str">
         <f aca="false">A141</f>
+        <v>zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} spare sdt</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="21"/>
+      <c r="I142" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J143" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="L143" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="M143" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="N143" s="21" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O143" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="P143" s="1" t="n">
+        <f aca="false">N143*B143</f>
+        <v>268.8</v>
+      </c>
+      <c r="Q143" s="18" t="n">
+        <f aca="false">P143-M143</f>
+        <v>98.8</v>
+      </c>
+      <c r="R143" s="49" t="n">
+        <f aca="false">B143+G143</f>
+        <v>25</v>
+      </c>
+      <c r="T143" s="6" t="str">
+        <f aca="false">A143</f>
         <v>zp=zdraidtest; time zpool create -o autoreplace=on -o autoexpand=on -O atime=off -O compression=lz4 $zp draid1:5d:8'c':2's' sd{b..i} draid1:7d:10'c':2's' sd{j..s} draid1:4d:6'c':1's' sd{t..y} spare sdz</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K142" s="3" t="n">
-        <v>0.0298611111111111</v>
-      </c>
-      <c r="T142" s="6" t="n">
-        <f aca="false">A142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K143" s="3" t="n">
-        <v>0.0305555555555556</v>
-      </c>
-      <c r="T143" s="6" t="n">
-        <f aca="false">A143</f>
-        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I144" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K144" s="3" t="n">
-        <v>0.03125</v>
+        <v>0.0298611111111111</v>
       </c>
       <c r="T144" s="6" t="n">
         <f aca="false">A144</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J145" s="0" t="s">
-        <v>230</v>
+    <row r="145" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>0.0305555555555556</v>
       </c>
       <c r="T145" s="6" t="n">
         <f aca="false">A145</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J146" s="0" t="s">
-        <v>231</v>
+    <row r="146" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I146" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>0.03125</v>
       </c>
       <c r="T146" s="6" t="n">
         <f aca="false">A146</f>
@@ -7525,7 +7786,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J147" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="T147" s="6" t="n">
         <f aca="false">A147</f>
@@ -7534,7 +7795,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J148" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="T148" s="6" t="n">
         <f aca="false">A148</f>
@@ -7543,34 +7804,52 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J149" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="T149" s="6" t="n">
         <f aca="false">A149</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="2" t="s">
-        <v>235</v>
-      </c>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J150" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="T150" s="6" t="n">
         <f aca="false">A150</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J151" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K151" s="58" t="n">
-        <v>0.0277777777777778</v>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J151" s="0" t="s">
+        <v>245</v>
       </c>
       <c r="T151" s="6" t="n">
         <f aca="false">A151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I152" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="T152" s="6" t="n">
+        <f aca="false">A152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J153" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K153" s="59" t="n">
+        <v>0.0277777777777778</v>
+      </c>
+      <c r="T153" s="6" t="n">
+        <f aca="false">A153</f>
         <v>0</v>
       </c>
     </row>
@@ -7591,123 +7870,192 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="83.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="112.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>241</v>
+        <v>251</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="62" t="s">
-        <v>252</v>
+      <c r="C10" s="63" t="s">
+        <v>263</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="69" t="s">
-        <v>257</v>
+      <c r="C14" s="72" t="s">
+        <v>268</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="16" t="s">
-        <v>260</v>
+      <c r="C17" s="73" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="62" t="s">
-        <v>261</v>
+      <c r="D18" s="63" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>273</v>
+      </c>
       <c r="D19" s="0" t="s">
-        <v>262</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="75" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="294">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -1220,8 +1220,8 @@
 sda{m..x} \
 sdb{a..l} \
 sdb{m..x} \
-sdc{a..l} \
-Sdc{m..x}</t>
+sdc{a..l} \ 
+sdc{m..x}</t>
   </si>
   <si>
     <t xml:space="preserve">draid2:3d:1s:14c</t>
@@ -1572,6 +1572,21 @@
   <si>
     <t xml:space="preserve">sdci  sdcj  sdck  sdcl  sdcm  sdcn  sdco  sdcp  sdcq  sdcr  sdcs  sdct  sdcu  sdcv  sdcw  sdcx  \</t>
   </si>
+  <si>
+    <t xml:space="preserve">LEGEND:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow = Warning, may not be enough resources allocated in the event of failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green = Should be a pretty good config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red = Something bad happened here, beware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bold = Standout from other configs, just a point to be aware of, nothing too serious</t>
+  </si>
 </sst>
 </file>
 
@@ -1582,7 +1597,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1655,13 +1670,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF4000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF4000"/>
       <name val="Arial"/>
@@ -1753,6 +1768,12 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1820,7 +1841,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1877,7 +1898,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1897,7 +1918,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1909,27 +1930,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1937,11 +1962,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1953,23 +1974,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2005,20 +2038,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2033,19 +2054,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2061,11 +2078,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2122,6 +2139,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2207,7 +2244,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="U120" activeCellId="0" sqref="U120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,7 +2479,7 @@
       <c r="B4" s="2"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="13"/>
       <c r="J4" s="2"/>
       <c r="K4" s="7"/>
@@ -2475,7 +2512,7 @@
       <c r="G5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -2535,7 +2572,7 @@
         <f aca="false">E6*C6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="21" t="n">
+      <c r="G6" s="23" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="14" t="n">
@@ -2570,10 +2607,10 @@
         <f aca="false">B6+G6</f>
         <v>10</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="24" t="s">
         <v>34</v>
       </c>
       <c r="V6" s="0" t="s">
@@ -2596,10 +2633,10 @@
       <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">E7*C7</f>
         <v>0</v>
       </c>
@@ -2639,10 +2676,10 @@
         <v>10</v>
       </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="24" t="s">
         <v>34</v>
       </c>
       <c r="V7" s="0" t="s">
@@ -2655,9 +2692,9 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="7"/>
@@ -2668,7 +2705,7 @@
       <c r="U8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -2680,10 +2717,10 @@
       <c r="D9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="27" t="n">
+      <c r="E9" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="22" t="n">
         <f aca="false">E9*C9</f>
         <v>2</v>
       </c>
@@ -2693,10 +2730,10 @@
       <c r="H9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="26" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="7"/>
@@ -2731,13 +2768,13 @@
       <c r="U9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="2"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="25" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="2"/>
@@ -2749,7 +2786,7 @@
       <c r="U10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -2761,10 +2798,10 @@
       <c r="D11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="27" t="n">
+      <c r="E11" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="n">
         <f aca="false">E11*C11</f>
         <v>2</v>
       </c>
@@ -2774,7 +2811,7 @@
       <c r="H11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="20" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -2831,14 +2868,14 @@
       <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">E12*C12</f>
         <v>2</v>
       </c>
       <c r="G12" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="19" t="n">
+      <c r="H12" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2869,10 +2906,10 @@
         <f aca="false">B12+G12</f>
         <v>12</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="U12" s="23" t="s">
+      <c r="U12" s="24" t="s">
         <v>50</v>
       </c>
       <c r="V12" s="0" t="s">
@@ -2887,7 +2924,7 @@
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="K13" s="0"/>
@@ -2902,10 +2939,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="20"/>
       <c r="J14" s="2"/>
       <c r="K14" s="7"/>
@@ -2928,17 +2965,17 @@
       <c r="D15" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="n">
+      <c r="E15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="n">
         <f aca="false">E15*C15</f>
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -2984,9 +3021,9 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="20"/>
       <c r="J16" s="2"/>
       <c r="K16" s="7"/>
@@ -3009,17 +3046,17 @@
       <c r="D17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="n">
+      <c r="E17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="33" t="n">
         <f aca="false">E17*C17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="26" t="n">
+      <c r="G17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -3064,10 +3101,10 @@
     <row r="18" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="2"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="20"/>
       <c r="J18" s="2" t="s">
         <v>53</v>
@@ -3084,10 +3121,10 @@
     <row r="19" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="20"/>
       <c r="J19" s="2" t="s">
         <v>58</v>
@@ -3108,20 +3145,20 @@
       <c r="B20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="32" t="n">
+      <c r="C20" s="35" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E20" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" s="33" t="n">
+      <c r="E20" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="36" t="n">
         <f aca="false">E20*C20</f>
         <v>2</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="36" t="n">
         <v>2</v>
       </c>
       <c r="H20" s="14" t="n">
@@ -3182,7 +3219,7 @@
       <c r="B21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="23" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -3191,14 +3228,14 @@
       <c r="E21" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="33" t="n">
+      <c r="F21" s="36" t="n">
         <f aca="false">E21*C21</f>
         <v>2</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="19" t="n">
+      <c r="H21" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -3234,23 +3271,23 @@
         <f aca="false">B21+G21</f>
         <v>16</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="23" t="s">
+      <c r="U21" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="I22" s="20"/>
       <c r="J22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="34" t="n">
+      <c r="K22" s="37" t="n">
         <v>0.05625</v>
       </c>
       <c r="L22" s="2"/>
@@ -3265,14 +3302,14 @@
     </row>
     <row r="23" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
       <c r="I23" s="20"/>
       <c r="J23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="34" t="n">
+      <c r="K23" s="37" t="n">
         <v>0.110416666666667</v>
       </c>
       <c r="L23" s="2"/>
@@ -3298,17 +3335,17 @@
       <c r="D24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E24" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="25" t="n">
+      <c r="E24" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="33" t="n">
         <f aca="false">E24*C24</f>
         <v>1</v>
       </c>
-      <c r="G24" s="26" t="n">
+      <c r="G24" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="29" t="n">
+      <c r="H24" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I24" s="13" t="s">
@@ -3358,10 +3395,10 @@
       <c r="B25" s="2"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="19"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="13"/>
       <c r="J25" s="2"/>
       <c r="K25" s="7"/>
@@ -3380,7 +3417,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
-      <c r="F26" s="25"/>
+      <c r="F26" s="26"/>
       <c r="J26" s="2"/>
       <c r="K26" s="7"/>
       <c r="L26" s="2"/>
@@ -3403,17 +3440,17 @@
       <c r="D27" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E27" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="25" t="n">
+      <c r="E27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33" t="n">
         <f aca="false">E27*C27</f>
         <v>1</v>
       </c>
-      <c r="G27" s="26" t="n">
+      <c r="G27" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="14" t="n">
+      <c r="H27" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -3467,7 +3504,7 @@
       <c r="B28" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="32" t="n">
+      <c r="C28" s="35" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="n">
@@ -3476,14 +3513,14 @@
       <c r="E28" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="33" t="n">
+      <c r="F28" s="36" t="n">
         <f aca="false">E28*C28</f>
         <v>4</v>
       </c>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H28" s="14" t="n">
+      <c r="H28" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="20" t="s">
@@ -3495,7 +3532,7 @@
       <c r="K28" s="7" t="n">
         <v>0.0222222222222222</v>
       </c>
-      <c r="L28" s="38" t="n">
+      <c r="L28" s="41" t="n">
         <v>73</v>
       </c>
       <c r="M28" s="13" t="n">
@@ -3511,7 +3548,7 @@
         <f aca="false">N28*B28</f>
         <v>89.52</v>
       </c>
-      <c r="Q28" s="39" t="n">
+      <c r="Q28" s="42" t="n">
         <f aca="false">P28-M28</f>
         <v>26.62</v>
       </c>
@@ -3519,75 +3556,76 @@
         <f aca="false">B28+G28</f>
         <v>24</v>
       </c>
-      <c r="T28" s="23" t="s">
+      <c r="T28" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="U28" s="23" t="s">
+      <c r="U28" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="25"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="26"/>
+      <c r="H29" s="14"/>
       <c r="J29" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K29" s="31" t="n">
         <v>0.0194444444444444</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="Q29" s="39"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="Q29" s="42"/>
       <c r="T29" s="16"/>
       <c r="U29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="25"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="K30" s="7" t="n">
         <v>0.0201388888888889</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="Q30" s="39"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="Q30" s="42"/>
       <c r="T30" s="16"/>
       <c r="U30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="25"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="26"/>
+      <c r="H31" s="14"/>
       <c r="J31" s="2" t="s">
         <v>80</v>
       </c>
       <c r="K31" s="31" t="n">
         <v>0.0138888888888889</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="Q31" s="39"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="Q31" s="42"/>
       <c r="T31" s="16"/>
       <c r="U31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="25"/>
-      <c r="H32" s="19"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="14"/>
       <c r="J32" s="2"/>
       <c r="K32" s="31"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="Q32" s="39"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="Q32" s="42"/>
       <c r="T32" s="16"/>
       <c r="U32" s="16"/>
     </row>
@@ -3607,14 +3645,14 @@
       <c r="E33" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="33" t="n">
+      <c r="F33" s="36" t="n">
         <f aca="false">E33*C33</f>
         <v>4</v>
       </c>
-      <c r="G33" s="26" t="n">
+      <c r="G33" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="29" t="n">
+      <c r="H33" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="20" t="s">
@@ -3626,10 +3664,10 @@
       <c r="K33" s="7" t="n">
         <v>0.0263888888888889</v>
       </c>
-      <c r="L33" s="38" t="n">
+      <c r="L33" s="41" t="n">
         <v>73</v>
       </c>
-      <c r="M33" s="38" t="n">
+      <c r="M33" s="41" t="n">
         <v>56.5</v>
       </c>
       <c r="N33" s="1" t="n">
@@ -3642,7 +3680,7 @@
         <f aca="false">N33*B33</f>
         <v>89.52</v>
       </c>
-      <c r="Q33" s="40" t="n">
+      <c r="Q33" s="43" t="n">
         <f aca="false">P33-M33</f>
         <v>33.02</v>
       </c>
@@ -3653,10 +3691,10 @@
       <c r="S33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T33" s="23" t="s">
+      <c r="T33" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="U33" s="23" t="s">
+      <c r="U33" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3664,17 +3702,17 @@
       <c r="A34" s="21"/>
       <c r="B34" s="2"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="25"/>
-      <c r="H34" s="19"/>
+      <c r="F34" s="26"/>
+      <c r="H34" s="14"/>
       <c r="J34" s="2" t="s">
         <v>84</v>
       </c>
       <c r="K34" s="31" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="Q34" s="39"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="Q34" s="42"/>
       <c r="T34" s="16"/>
       <c r="U34" s="16"/>
     </row>
@@ -3682,30 +3720,30 @@
       <c r="A35" s="21"/>
       <c r="B35" s="2"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="25"/>
-      <c r="H35" s="19"/>
+      <c r="F35" s="26"/>
+      <c r="H35" s="14"/>
       <c r="J35" s="20" t="s">
         <v>85</v>
       </c>
       <c r="K35" s="31" t="n">
         <v>0.00902777777777778</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="Q35" s="39"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="Q35" s="42"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="25"/>
-      <c r="H36" s="19"/>
+      <c r="F36" s="26"/>
+      <c r="H36" s="14"/>
       <c r="J36" s="2"/>
       <c r="K36" s="31"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="Q36" s="39"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="Q36" s="42"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
     </row>
@@ -3714,7 +3752,7 @@
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="25"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
       <c r="K37" s="0"/>
@@ -3743,14 +3781,14 @@
       <c r="E38" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F38" s="33" t="n">
+      <c r="F38" s="36" t="n">
         <f aca="false">E38*C38</f>
         <v>3</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="19" t="n">
+      <c r="H38" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3786,10 +3824,10 @@
         <f aca="false">B38+G38</f>
         <v>25</v>
       </c>
-      <c r="T38" s="23" t="s">
+      <c r="T38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="U38" s="23" t="s">
+      <c r="U38" s="24" t="s">
         <v>87</v>
       </c>
       <c r="V38" s="0" t="s">
@@ -3802,8 +3840,8 @@
     <row r="39" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="25"/>
-      <c r="H39" s="19"/>
+      <c r="F39" s="26"/>
+      <c r="H39" s="14"/>
       <c r="J39" s="2" t="s">
         <v>89</v>
       </c>
@@ -3817,9 +3855,9 @@
     <row r="40" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="25"/>
-      <c r="H40" s="19"/>
-      <c r="J40" s="41" t="s">
+      <c r="F40" s="26"/>
+      <c r="H40" s="14"/>
+      <c r="J40" s="44" t="s">
         <v>90</v>
       </c>
       <c r="K40" s="31" t="n">
@@ -3832,12 +3870,12 @@
     <row r="41" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="25"/>
-      <c r="H41" s="19"/>
+      <c r="F41" s="26"/>
+      <c r="H41" s="14"/>
       <c r="J41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K41" s="42" t="n">
+      <c r="K41" s="45" t="n">
         <v>0.0368055555555556</v>
       </c>
       <c r="Q41" s="18"/>
@@ -3847,8 +3885,8 @@
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="25"/>
-      <c r="H42" s="19"/>
+      <c r="F42" s="26"/>
+      <c r="H42" s="14"/>
       <c r="J42" s="2"/>
       <c r="K42" s="31"/>
       <c r="Q42" s="18"/>
@@ -3856,7 +3894,7 @@
       <c r="U42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="46" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="1" t="n">
@@ -3871,14 +3909,14 @@
       <c r="E43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F43" s="27" t="n">
+      <c r="F43" s="22" t="n">
         <f aca="false">E43*C43</f>
         <v>9</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H43" s="19" t="n">
+      <c r="H43" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -3909,10 +3947,10 @@
         <f aca="false">B43+G43</f>
         <v>25</v>
       </c>
-      <c r="T43" s="23" t="s">
+      <c r="T43" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="23" t="s">
+      <c r="U43" s="24" t="s">
         <v>87</v>
       </c>
       <c r="V43" s="0" t="s">
@@ -3923,7 +3961,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="25"/>
+      <c r="F44" s="26"/>
       <c r="K44" s="0"/>
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
@@ -3944,14 +3982,14 @@
       <c r="E45" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="27" t="n">
+      <c r="F45" s="22" t="n">
         <f aca="false">E45*C45</f>
         <v>4</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="19" t="n">
+      <c r="H45" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -3966,7 +4004,7 @@
       <c r="L45" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="M45" s="44" t="n">
+      <c r="M45" s="47" t="n">
         <v>56</v>
       </c>
       <c r="N45" s="1" t="n">
@@ -3987,10 +4025,10 @@
         <f aca="false">B45+G45</f>
         <v>25</v>
       </c>
-      <c r="T45" s="23" t="s">
+      <c r="T45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="23" t="s">
+      <c r="U45" s="24" t="s">
         <v>95</v>
       </c>
       <c r="V45" s="0" t="s">
@@ -4001,7 +4039,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="25"/>
+      <c r="F46" s="26"/>
       <c r="J46" s="2" t="s">
         <v>96</v>
       </c>
@@ -4012,8 +4050,8 @@
       <c r="U46" s="16"/>
     </row>
     <row r="47" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="25"/>
-      <c r="J47" s="41" t="s">
+      <c r="F47" s="26"/>
+      <c r="J47" s="44" t="s">
         <v>97</v>
       </c>
       <c r="K47" s="31" t="n">
@@ -4023,7 +4061,7 @@
       <c r="U47" s="16"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="25"/>
+      <c r="F48" s="26"/>
       <c r="K48" s="0"/>
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
@@ -4044,14 +4082,14 @@
       <c r="E49" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="F49" s="33" t="n">
+      <c r="F49" s="36" t="n">
         <f aca="false">E49*C49</f>
         <v>4</v>
       </c>
-      <c r="G49" s="45" t="n">
+      <c r="G49" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="29" t="n">
+      <c r="H49" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="20" t="s">
@@ -4066,7 +4104,7 @@
       <c r="L49" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="M49" s="44" t="n">
+      <c r="M49" s="47" t="n">
         <v>41.4</v>
       </c>
       <c r="N49" s="1" t="n">
@@ -4090,10 +4128,10 @@
       <c r="S49" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="23" t="s">
+      <c r="T49" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="U49" s="23" t="s">
+      <c r="U49" s="24" t="s">
         <v>95</v>
       </c>
       <c r="V49" s="0" t="n">
@@ -4104,48 +4142,48 @@
     <row r="50" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="19"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="14"/>
       <c r="J50" s="2" t="s">
         <v>96</v>
       </c>
       <c r="K50" s="31" t="n">
         <v>0.0298611111111111</v>
       </c>
-      <c r="M50" s="44"/>
+      <c r="M50" s="47"/>
       <c r="T50" s="16"/>
       <c r="U50" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="19"/>
-      <c r="J51" s="41" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="14"/>
+      <c r="J51" s="44" t="s">
         <v>100</v>
       </c>
       <c r="K51" s="31" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="M51" s="44"/>
+      <c r="M51" s="47"/>
       <c r="T51" s="16"/>
       <c r="U51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="19"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="14"/>
       <c r="K52" s="7"/>
-      <c r="M52" s="44"/>
+      <c r="M52" s="47"/>
       <c r="T52" s="16"/>
       <c r="U52" s="16"/>
     </row>
     <row r="53" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B53" s="1" t="n">
@@ -4157,17 +4195,17 @@
       <c r="D53" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E53" s="46" t="n">
+      <c r="E53" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="47" t="n">
+      <c r="F53" s="25" t="n">
         <f aca="false">E53*C53</f>
         <v>0</v>
       </c>
-      <c r="G53" s="29" t="n">
+      <c r="G53" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="H53" s="14" t="n">
+      <c r="H53" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I53" s="20" t="s">
@@ -4191,7 +4229,7 @@
         <f aca="false">N53*B53</f>
         <v>89.52</v>
       </c>
-      <c r="Q53" s="48" t="n">
+      <c r="Q53" s="49" t="n">
         <f aca="false">P53-M53</f>
         <v>13.72</v>
       </c>
@@ -4214,7 +4252,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="25"/>
+      <c r="F54" s="26"/>
       <c r="J54" s="2"/>
       <c r="K54" s="0"/>
       <c r="T54" s="16"/>
@@ -4224,7 +4262,7 @@
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="49" t="n">
+      <c r="B55" s="34" t="n">
         <v>24</v>
       </c>
       <c r="C55" s="21" t="n">
@@ -4236,7 +4274,7 @@
       <c r="E55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="33" t="n">
+      <c r="F55" s="36" t="n">
         <f aca="false">E55*C55</f>
         <v>3</v>
       </c>
@@ -4274,10 +4312,10 @@
         <f aca="false">B55+G55</f>
         <v>25</v>
       </c>
-      <c r="T55" s="23" t="s">
+      <c r="T55" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="U55" s="23" t="s">
+      <c r="U55" s="24" t="s">
         <v>87</v>
       </c>
       <c r="V55" s="0" t="s">
@@ -4288,10 +4326,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="49"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="21"/>
       <c r="F56" s="51"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="35"/>
       <c r="I56" s="52"/>
       <c r="K56" s="0"/>
@@ -4302,7 +4340,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="21"/>
-      <c r="F57" s="25"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="21"/>
       <c r="K57" s="0"/>
       <c r="Q57" s="18"/>
@@ -4325,14 +4363,14 @@
       <c r="E58" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F58" s="33" t="n">
+      <c r="F58" s="36" t="n">
         <f aca="false">E58*C58</f>
         <v>4</v>
       </c>
       <c r="G58" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H58" s="14" t="n">
+      <c r="H58" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -4393,14 +4431,14 @@
       <c r="E59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F59" s="33" t="n">
+      <c r="F59" s="36" t="n">
         <f aca="false">E59*C59</f>
         <v>4</v>
       </c>
       <c r="G59" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H59" s="14" t="n">
+      <c r="H59" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -4432,15 +4470,15 @@
         <f aca="false">B59+G59</f>
         <v>32</v>
       </c>
-      <c r="T59" s="23" t="s">
+      <c r="T59" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="U59" s="23" t="s">
+      <c r="U59" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="48" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="21" t="n">
@@ -4455,14 +4493,14 @@
       <c r="E60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F60" s="33" t="n">
+      <c r="F60" s="36" t="n">
         <f aca="false">E60*C60</f>
         <v>8</v>
       </c>
       <c r="G60" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H60" s="19" t="n">
+      <c r="H60" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -4472,7 +4510,7 @@
         <v>113</v>
       </c>
       <c r="K60" s="17"/>
-      <c r="L60" s="44" t="n">
+      <c r="L60" s="47" t="n">
         <v>88</v>
       </c>
       <c r="M60" s="21" t="n">
@@ -4496,10 +4534,10 @@
         <f aca="false">B60+G60</f>
         <v>32</v>
       </c>
-      <c r="T60" s="23" t="s">
+      <c r="T60" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="U60" s="23" t="s">
+      <c r="U60" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4513,13 +4551,13 @@
       <c r="C61" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="19" t="n">
         <v>32</v>
       </c>
       <c r="E61" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F61" s="33" t="n">
+      <c r="F61" s="36" t="n">
         <f aca="false">E61*C61</f>
         <v>4</v>
       </c>
@@ -4584,7 +4622,7 @@
       <c r="E62" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F62" s="33" t="n">
+      <c r="F62" s="36" t="n">
         <f aca="false">E62*C62</f>
         <v>4</v>
       </c>
@@ -4602,7 +4640,7 @@
       <c r="L62" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="M62" s="45" t="n">
+      <c r="M62" s="48" t="n">
         <v>82</v>
       </c>
       <c r="N62" s="1" t="n">
@@ -4623,15 +4661,15 @@
         <f aca="false">B62+G62</f>
         <v>32</v>
       </c>
-      <c r="T62" s="23" t="s">
+      <c r="T62" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="U62" s="23" t="s">
+      <c r="U62" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="48" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="21" t="n">
@@ -4646,7 +4684,7 @@
       <c r="E63" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F63" s="33" t="n">
+      <c r="F63" s="36" t="n">
         <f aca="false">E63*C63</f>
         <v>8</v>
       </c>
@@ -4666,7 +4704,7 @@
       <c r="L63" s="21" t="n">
         <v>88</v>
       </c>
-      <c r="M63" s="44" t="n">
+      <c r="M63" s="47" t="n">
         <v>56.8</v>
       </c>
       <c r="N63" s="1" t="n">
@@ -4687,10 +4725,10 @@
         <f aca="false">B63+G63</f>
         <v>32</v>
       </c>
-      <c r="T63" s="23" t="s">
+      <c r="T63" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="U63" s="23" t="s">
+      <c r="U63" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4710,7 +4748,7 @@
       <c r="E64" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F64" s="33" t="n">
+      <c r="F64" s="36" t="n">
         <f aca="false">E64*C64</f>
         <v>4</v>
       </c>
@@ -4729,7 +4767,7 @@
       <c r="L64" s="21" t="n">
         <v>102</v>
       </c>
-      <c r="M64" s="45" t="n">
+      <c r="M64" s="48" t="n">
         <v>69.5</v>
       </c>
       <c r="N64" s="1" t="n">
@@ -4755,7 +4793,7 @@
         <f aca="false">A64</f>
         <v>draid2:5d:8c:1s</v>
       </c>
-      <c r="U64" s="23" t="s">
+      <c r="U64" s="24" t="s">
         <v>115</v>
       </c>
       <c r="V64" s="0"/>
@@ -4763,7 +4801,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21"/>
-      <c r="F65" s="25"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="21"/>
       <c r="K65" s="0"/>
       <c r="Q65" s="18"/>
@@ -4772,7 +4810,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21"/>
-      <c r="F66" s="25"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="21"/>
       <c r="K66" s="0"/>
       <c r="Q66" s="18"/>
@@ -4789,20 +4827,20 @@
       <c r="C67" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="32" t="n">
         <v>48</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="33" t="n">
         <f aca="false">E67*C67</f>
         <v>1</v>
       </c>
-      <c r="G67" s="49" t="n">
+      <c r="G67" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H67" s="14" t="n">
+      <c r="H67" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -4859,14 +4897,14 @@
       <c r="E68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="13" t="n">
         <f aca="false">E68*C68</f>
         <v>2</v>
       </c>
-      <c r="G68" s="49" t="n">
+      <c r="G68" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H68" s="14" t="n">
+      <c r="H68" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -4897,10 +4935,10 @@
         <f aca="false">B68+G68</f>
         <v>48</v>
       </c>
-      <c r="T68" s="23" t="s">
+      <c r="T68" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="U68" s="23" t="s">
+      <c r="U68" s="24" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4920,14 +4958,14 @@
       <c r="E69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F69" s="53" t="n">
+      <c r="F69" s="51" t="n">
         <f aca="false">E69*C69</f>
         <v>3</v>
       </c>
-      <c r="G69" s="49" t="n">
+      <c r="G69" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H69" s="14" t="n">
+      <c r="H69" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -4958,18 +4996,18 @@
         <f aca="false">B69+G69</f>
         <v>48</v>
       </c>
-      <c r="T69" s="23" t="s">
+      <c r="T69" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="U69" s="23" t="s">
+      <c r="U69" s="24" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21"/>
-      <c r="F70" s="25"/>
+      <c r="F70" s="26"/>
       <c r="G70" s="21"/>
-      <c r="H70" s="19"/>
+      <c r="H70" s="14"/>
       <c r="K70" s="0"/>
       <c r="Q70" s="18"/>
       <c r="T70" s="16"/>
@@ -4991,14 +5029,14 @@
       <c r="E71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="26" t="n">
         <f aca="false">E71*C71</f>
         <v>2</v>
       </c>
-      <c r="G71" s="49" t="n">
+      <c r="G71" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H71" s="29" t="n">
+      <c r="H71" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I71" s="2" t="s">
@@ -5045,9 +5083,9 @@
     <row r="72" customFormat="false" ht="56.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="21"/>
       <c r="C72" s="35"/>
-      <c r="F72" s="25"/>
+      <c r="F72" s="26"/>
       <c r="G72" s="21"/>
-      <c r="H72" s="19"/>
+      <c r="H72" s="14"/>
       <c r="J72" s="2" t="s">
         <v>136</v>
       </c>
@@ -5074,14 +5112,14 @@
       <c r="E73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F73" s="33" t="n">
+      <c r="F73" s="36" t="n">
         <f aca="false">E73*C73</f>
         <v>4</v>
       </c>
-      <c r="G73" s="49" t="n">
+      <c r="G73" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H73" s="29" t="n">
+      <c r="H73" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I73" s="2" t="s">
@@ -5115,18 +5153,18 @@
       <c r="S73" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T73" s="23" t="s">
+      <c r="T73" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="U73" s="23" t="s">
+      <c r="U73" s="24" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="21"/>
-      <c r="F74" s="25"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="21"/>
-      <c r="H74" s="19"/>
+      <c r="H74" s="14"/>
       <c r="K74" s="0"/>
       <c r="Q74" s="18"/>
       <c r="T74" s="16"/>
@@ -5148,14 +5186,14 @@
       <c r="E75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F75" s="33" t="n">
+      <c r="F75" s="36" t="n">
         <f aca="false">E75*C75</f>
         <v>6</v>
       </c>
-      <c r="G75" s="49" t="n">
+      <c r="G75" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H75" s="29" t="n">
+      <c r="H75" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I75" s="2" t="s">
@@ -5186,10 +5224,10 @@
         <f aca="false">B75+G75</f>
         <v>48</v>
       </c>
-      <c r="T75" s="23" t="s">
+      <c r="T75" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="U75" s="23" t="s">
+      <c r="U75" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5209,14 +5247,14 @@
       <c r="E76" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F76" s="33" t="n">
+      <c r="F76" s="36" t="n">
         <f aca="false">E76*C76</f>
         <v>6</v>
       </c>
-      <c r="G76" s="49" t="n">
+      <c r="G76" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H76" s="29" t="n">
+      <c r="H76" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -5254,7 +5292,7 @@
         <f aca="false">A76</f>
         <v>draid2:12d:16c:2s</v>
       </c>
-      <c r="U76" s="23" t="s">
+      <c r="U76" s="24" t="s">
         <v>132</v>
       </c>
       <c r="V76" s="0"/>
@@ -5262,7 +5300,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="21"/>
-      <c r="F77" s="25"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="21"/>
       <c r="K77" s="0"/>
       <c r="Q77" s="18"/>
@@ -5271,7 +5309,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="21"/>
-      <c r="F78" s="25"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="21"/>
       <c r="K78" s="0"/>
       <c r="Q78" s="18"/>
@@ -5294,14 +5332,14 @@
       <c r="E79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="13" t="n">
         <f aca="false">E79*C79</f>
         <v>2</v>
       </c>
-      <c r="G79" s="49" t="n">
+      <c r="G79" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H79" s="14" t="n">
+      <c r="H79" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
@@ -5359,14 +5397,14 @@
       <c r="E80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="13" t="n">
         <f aca="false">E80*C80</f>
         <v>4</v>
       </c>
-      <c r="G80" s="49" t="n">
+      <c r="G80" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H80" s="14" t="n">
+      <c r="H80" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="2" t="s">
@@ -5397,18 +5435,18 @@
         <f aca="false">B80+G80</f>
         <v>72</v>
       </c>
-      <c r="T80" s="23" t="s">
+      <c r="T80" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="U80" s="23" t="s">
+      <c r="U80" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="21"/>
-      <c r="F81" s="25"/>
+      <c r="F81" s="26"/>
       <c r="G81" s="21"/>
-      <c r="H81" s="19"/>
+      <c r="H81" s="14"/>
       <c r="K81" s="0"/>
       <c r="Q81" s="18"/>
       <c r="T81" s="16"/>
@@ -5430,14 +5468,14 @@
       <c r="E82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F82" s="33" t="n">
+      <c r="F82" s="36" t="n">
         <f aca="false">E82*C82</f>
         <v>6</v>
       </c>
-      <c r="G82" s="49" t="n">
+      <c r="G82" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H82" s="14" t="n">
+      <c r="H82" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
@@ -5468,10 +5506,10 @@
         <f aca="false">B82+G82</f>
         <v>72</v>
       </c>
-      <c r="T82" s="23" t="s">
+      <c r="T82" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="U82" s="23" t="s">
+      <c r="U82" s="24" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5491,14 +5529,14 @@
       <c r="E83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F83" s="33" t="n">
+      <c r="F83" s="36" t="n">
         <f aca="false">E83*C83</f>
         <v>6</v>
       </c>
-      <c r="G83" s="49" t="n">
+      <c r="G83" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="H83" s="14" t="n">
+      <c r="H83" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="2" t="s">
@@ -5532,10 +5570,10 @@
         <v>72</v>
       </c>
       <c r="S83" s="5"/>
-      <c r="T83" s="23" t="s">
+      <c r="T83" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="U83" s="23" t="s">
+      <c r="U83" s="24" t="s">
         <v>149</v>
       </c>
       <c r="V83" s="0"/>
@@ -5547,9 +5585,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="25"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="19"/>
+      <c r="H84" s="14"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2" t="s">
         <v>135</v>
@@ -5576,9 +5614,9 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="25"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="21"/>
-      <c r="H85" s="19"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
         <v>152</v>
@@ -5601,9 +5639,9 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="21"/>
-      <c r="F86" s="25"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="21"/>
-      <c r="H86" s="19"/>
+      <c r="H86" s="14"/>
       <c r="K86" s="0"/>
       <c r="Q86" s="18"/>
       <c r="T86" s="16"/>
@@ -5625,11 +5663,11 @@
       <c r="E87" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="F87" s="25" t="n">
+      <c r="F87" s="33" t="n">
         <f aca="false">E87*C87</f>
         <v>2</v>
       </c>
-      <c r="G87" s="49" t="n">
+      <c r="G87" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H87" s="50" t="n">
@@ -5693,11 +5731,11 @@
       <c r="E88" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="F88" s="25" t="n">
+      <c r="F88" s="33" t="n">
         <f aca="false">E88*C88</f>
         <v>2</v>
       </c>
-      <c r="G88" s="49" t="n">
+      <c r="G88" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H88" s="50" t="n">
@@ -5750,8 +5788,8 @@
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="19"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="14"/>
       <c r="H89" s="35"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -5769,7 +5807,7 @@
       <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="49" t="s">
+      <c r="A90" s="34" t="s">
         <v>157</v>
       </c>
       <c r="B90" s="21" t="n">
@@ -5784,11 +5822,11 @@
       <c r="E90" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F90" s="25" t="n">
+      <c r="F90" s="13" t="n">
         <f aca="false">E90*C90</f>
         <v>4</v>
       </c>
-      <c r="G90" s="49" t="n">
+      <c r="G90" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H90" s="50" t="n">
@@ -5822,10 +5860,10 @@
         <f aca="false">B90+G90</f>
         <v>72</v>
       </c>
-      <c r="T90" s="23" t="s">
+      <c r="T90" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="U90" s="23" t="s">
+      <c r="U90" s="24" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5845,11 +5883,11 @@
       <c r="E91" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F91" s="25" t="n">
+      <c r="F91" s="13" t="n">
         <f aca="false">E91*C91</f>
         <v>4</v>
       </c>
-      <c r="G91" s="49" t="n">
+      <c r="G91" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H91" s="50" t="n">
@@ -5886,10 +5924,10 @@
         <v>72</v>
       </c>
       <c r="S91" s="5"/>
-      <c r="T91" s="23" t="s">
+      <c r="T91" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="U91" s="23" t="s">
+      <c r="U91" s="24" t="s">
         <v>146</v>
       </c>
       <c r="V91" s="0"/>
@@ -5911,11 +5949,11 @@
       <c r="E92" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F92" s="25" t="n">
+      <c r="F92" s="13" t="n">
         <f aca="false">E92*C92</f>
         <v>4</v>
       </c>
-      <c r="G92" s="49" t="n">
+      <c r="G92" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H92" s="50" t="n">
@@ -5952,10 +5990,10 @@
         <v>72</v>
       </c>
       <c r="S92" s="5"/>
-      <c r="T92" s="23" t="s">
+      <c r="T92" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="U92" s="23" t="s">
+      <c r="U92" s="24" t="s">
         <v>146</v>
       </c>
       <c r="V92" s="0"/>
@@ -5964,7 +6002,7 @@
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
-      <c r="F93" s="25"/>
+      <c r="F93" s="26"/>
       <c r="G93" s="21"/>
       <c r="H93" s="35"/>
       <c r="K93" s="0"/>
@@ -5988,11 +6026,11 @@
       <c r="E94" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F94" s="33" t="n">
+      <c r="F94" s="36" t="n">
         <f aca="false">E94*C94</f>
         <v>6</v>
       </c>
-      <c r="G94" s="49" t="n">
+      <c r="G94" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H94" s="50" t="n">
@@ -6029,16 +6067,16 @@
         <f aca="false">B94+G94</f>
         <v>72</v>
       </c>
-      <c r="T94" s="23" t="s">
+      <c r="T94" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="U94" s="23" t="s">
+      <c r="U94" s="24" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="21"/>
-      <c r="F95" s="25"/>
+      <c r="F95" s="26"/>
       <c r="G95" s="21"/>
       <c r="J95" s="2"/>
       <c r="K95" s="31"/>
@@ -6048,7 +6086,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="21"/>
-      <c r="F96" s="25"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="21"/>
       <c r="K96" s="0"/>
       <c r="Q96" s="18"/>
@@ -6071,11 +6109,11 @@
       <c r="E97" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F97" s="54" t="n">
+      <c r="F97" s="53" t="n">
         <f aca="false">E97*C97</f>
         <v>6</v>
       </c>
-      <c r="G97" s="29" t="n">
+      <c r="G97" s="23" t="n">
         <v>7</v>
       </c>
       <c r="H97" s="50" t="n">
@@ -6102,7 +6140,7 @@
         <f aca="false">N97*B97</f>
         <v>358.08</v>
       </c>
-      <c r="Q97" s="55" t="n">
+      <c r="Q97" s="54" t="n">
         <f aca="false">P97-M97</f>
         <v>103.08</v>
       </c>
@@ -6128,7 +6166,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F98" s="25"/>
+      <c r="F98" s="26"/>
       <c r="I98" s="2" t="s">
         <v>171</v>
       </c>
@@ -6152,11 +6190,11 @@
       <c r="E99" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="F99" s="33" t="n">
+      <c r="F99" s="36" t="n">
         <f aca="false">E99*C99</f>
         <v>12</v>
       </c>
-      <c r="G99" s="49" t="n">
+      <c r="G99" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H99" s="50" t="n">
@@ -6184,7 +6222,7 @@
         <f aca="false">N99*B99</f>
         <v>358.08</v>
       </c>
-      <c r="Q99" s="55" t="n">
+      <c r="Q99" s="54" t="n">
         <f aca="false">P99-M99</f>
         <v>110.08</v>
       </c>
@@ -6219,11 +6257,11 @@
       <c r="E100" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F100" s="33" t="n">
+      <c r="F100" s="36" t="n">
         <f aca="false">E100*C100</f>
         <v>8</v>
       </c>
-      <c r="G100" s="49" t="n">
+      <c r="G100" s="34" t="n">
         <v>0</v>
       </c>
       <c r="H100" s="50" t="n">
@@ -6251,7 +6289,7 @@
         <f aca="false">N100*B100</f>
         <v>358.08</v>
       </c>
-      <c r="Q100" s="56" t="n">
+      <c r="Q100" s="55" t="n">
         <f aca="false">P100-M100</f>
         <v>79.08</v>
       </c>
@@ -6275,9 +6313,9 @@
       <c r="B101" s="21"/>
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="19"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="35"/>
       <c r="I101" s="20"/>
       <c r="J101" s="2" t="s">
@@ -6291,7 +6329,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="56"/>
+      <c r="Q101" s="55"/>
       <c r="R101" s="1"/>
       <c r="S101" s="5"/>
       <c r="T101" s="16"/>
@@ -6304,9 +6342,9 @@
       <c r="B102" s="21"/>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="19"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="14"/>
       <c r="H102" s="35"/>
       <c r="I102" s="20"/>
       <c r="J102" s="2" t="s">
@@ -6320,7 +6358,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="56"/>
+      <c r="Q102" s="55"/>
       <c r="R102" s="1"/>
       <c r="S102" s="5"/>
       <c r="T102" s="16"/>
@@ -6329,7 +6367,7 @@
       <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="25"/>
+      <c r="F103" s="26"/>
       <c r="J103" s="2"/>
       <c r="K103" s="0"/>
       <c r="T103" s="16"/>
@@ -6351,7 +6389,7 @@
       <c r="E104" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F104" s="33" t="n">
+      <c r="F104" s="36" t="n">
         <v>8</v>
       </c>
       <c r="G104" s="2" t="n">
@@ -6383,7 +6421,7 @@
         <f aca="false">N104*B104</f>
         <v>358.08</v>
       </c>
-      <c r="Q104" s="55" t="n">
+      <c r="Q104" s="54" t="n">
         <f aca="false">P104-M104</f>
         <v>109.08</v>
       </c>
@@ -6394,15 +6432,15 @@
       <c r="S104" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T104" s="23" t="s">
+      <c r="T104" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="U104" s="23" t="s">
+      <c r="U104" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="25"/>
+      <c r="F105" s="26"/>
       <c r="J105" s="2"/>
       <c r="K105" s="0"/>
       <c r="T105" s="16"/>
@@ -6424,7 +6462,7 @@
       <c r="E106" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F106" s="33" t="n">
+      <c r="F106" s="36" t="n">
         <f aca="false">E106*C106</f>
         <v>12</v>
       </c>
@@ -6444,7 +6482,7 @@
       <c r="L106" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="M106" s="26" t="n">
+      <c r="M106" s="27" t="n">
         <v>238</v>
       </c>
       <c r="N106" s="1" t="n">
@@ -6457,7 +6495,7 @@
         <f aca="false">N106*B106</f>
         <v>358.08</v>
       </c>
-      <c r="Q106" s="55" t="n">
+      <c r="Q106" s="54" t="n">
         <f aca="false">P106-M106</f>
         <v>120.08</v>
       </c>
@@ -6465,10 +6503,10 @@
         <f aca="false">B106+G106</f>
         <v>100</v>
       </c>
-      <c r="T106" s="23" t="s">
+      <c r="T106" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="U106" s="23" t="s">
+      <c r="U106" s="24" t="s">
         <v>190</v>
       </c>
       <c r="V106" s="0" t="s">
@@ -6479,62 +6517,62 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="25"/>
+      <c r="F107" s="26"/>
       <c r="J107" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K107" s="57" t="n">
+      <c r="K107" s="56" t="n">
         <v>0.107638888888889</v>
       </c>
       <c r="T107" s="16"/>
       <c r="U107" s="16"/>
     </row>
     <row r="108" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="25"/>
+      <c r="F108" s="26"/>
       <c r="J108" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K108" s="58" t="n">
+      <c r="K108" s="57" t="n">
         <v>0.0756944444444444</v>
       </c>
       <c r="T108" s="16"/>
       <c r="U108" s="16"/>
     </row>
     <row r="109" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="25"/>
+      <c r="F109" s="26"/>
       <c r="J109" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K109" s="59" t="n">
+      <c r="K109" s="58" t="n">
         <v>0.0583333333333333</v>
       </c>
       <c r="T109" s="16"/>
       <c r="U109" s="16"/>
     </row>
     <row r="110" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="25"/>
+      <c r="F110" s="26"/>
       <c r="J110" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K110" s="59" t="n">
+      <c r="K110" s="58" t="n">
         <v>0.0569444444444444</v>
       </c>
       <c r="T110" s="16"/>
       <c r="U110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="25"/>
+      <c r="F111" s="26"/>
       <c r="J111" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K111" s="59" t="n">
+      <c r="K111" s="58" t="n">
         <v>0.00972222222222222</v>
       </c>
       <c r="T111" s="16"/>
       <c r="U111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="60" t="s">
+      <c r="A112" s="59" t="s">
         <v>197</v>
       </c>
       <c r="B112" s="1" t="n">
@@ -6549,13 +6587,13 @@
       <c r="E112" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F112" s="27" t="n">
+      <c r="F112" s="22" t="n">
         <v>16</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H112" s="14" t="n">
+      <c r="H112" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -6583,7 +6621,7 @@
         <f aca="false">N112*B112</f>
         <v>358.08</v>
       </c>
-      <c r="Q112" s="55" t="n">
+      <c r="Q112" s="54" t="n">
         <f aca="false">P112-M112</f>
         <v>107.08</v>
       </c>
@@ -6594,15 +6632,15 @@
       <c r="S112" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T112" s="23" t="s">
+      <c r="T112" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="U112" s="23" t="s">
+      <c r="U112" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="25"/>
+      <c r="F113" s="26"/>
       <c r="J113" s="2" t="s">
         <v>200</v>
       </c>
@@ -6613,22 +6651,22 @@
       <c r="U113" s="16"/>
     </row>
     <row r="114" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="25"/>
+      <c r="F114" s="26"/>
       <c r="J114" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K114" s="61" t="n">
+      <c r="K114" s="60" t="n">
         <v>0.0625</v>
       </c>
       <c r="T114" s="16"/>
       <c r="U114" s="16"/>
     </row>
     <row r="115" customFormat="false" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="25"/>
+      <c r="F115" s="26"/>
       <c r="J115" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K115" s="59" t="n">
+      <c r="K115" s="58" t="n">
         <v>0.0215277777777778</v>
       </c>
       <c r="T115" s="16"/>
@@ -6650,14 +6688,14 @@
       <c r="E116" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F116" s="27" t="n">
+      <c r="F116" s="22" t="n">
         <f aca="false">E116*C116</f>
         <v>16</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H116" s="14" t="n">
+      <c r="H116" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -6683,7 +6721,7 @@
         <f aca="false">N116*B116</f>
         <v>358.08</v>
       </c>
-      <c r="Q116" s="56" t="n">
+      <c r="Q116" s="55" t="n">
         <f aca="false">P116-M116</f>
         <v>104.08</v>
       </c>
@@ -6694,10 +6732,10 @@
       <c r="S116" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T116" s="23" t="s">
+      <c r="T116" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="U116" s="23" t="s">
+      <c r="U116" s="24" t="s">
         <v>190</v>
       </c>
       <c r="V116" s="0"/>
@@ -6723,14 +6761,14 @@
       <c r="E118" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F118" s="27" t="n">
+      <c r="F118" s="22" t="n">
         <f aca="false">E118*C118</f>
         <v>12</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H118" s="14" t="n">
+      <c r="H118" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -6756,7 +6794,7 @@
         <f aca="false">N118*B118</f>
         <v>358.08</v>
       </c>
-      <c r="Q118" s="55" t="n">
+      <c r="Q118" s="54" t="n">
         <f aca="false">P118-M118</f>
         <v>86.08</v>
       </c>
@@ -6765,10 +6803,10 @@
         <v>96</v>
       </c>
       <c r="S118" s="5"/>
-      <c r="T118" s="23" t="s">
+      <c r="T118" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="U118" s="23" t="s">
+      <c r="U118" s="24" t="s">
         <v>206</v>
       </c>
       <c r="V118" s="0"/>
@@ -6794,14 +6832,14 @@
       <c r="E120" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F120" s="27" t="n">
+      <c r="F120" s="22" t="n">
         <f aca="false">E120*C120</f>
         <v>16</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H120" s="14" t="n">
+      <c r="H120" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -6811,7 +6849,7 @@
         <v>208</v>
       </c>
       <c r="K120" s="3"/>
-      <c r="L120" s="49" t="n">
+      <c r="L120" s="34" t="n">
         <v>292</v>
       </c>
       <c r="M120" s="21" t="n">
@@ -6827,7 +6865,7 @@
         <f aca="false">N120*B120</f>
         <v>358.08</v>
       </c>
-      <c r="Q120" s="55" t="n">
+      <c r="Q120" s="54" t="n">
         <f aca="false">P120-M120</f>
         <v>109.08</v>
       </c>
@@ -6836,10 +6874,10 @@
         <v>96</v>
       </c>
       <c r="S120" s="5"/>
-      <c r="T120" s="23" t="s">
+      <c r="T120" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="U120" s="23" t="s">
+      <c r="U120" s="24" t="s">
         <v>210</v>
       </c>
       <c r="V120" s="0"/>
@@ -6851,18 +6889,18 @@
       <c r="C121" s="21"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="28"/>
+      <c r="F121" s="29"/>
       <c r="G121" s="35"/>
-      <c r="H121" s="19"/>
+      <c r="H121" s="14"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="49"/>
+      <c r="L121" s="34"/>
       <c r="M121" s="21"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-      <c r="Q121" s="55"/>
+      <c r="Q121" s="54"/>
       <c r="R121" s="1"/>
       <c r="S121" s="5"/>
       <c r="T121" s="16"/>
@@ -6875,7 +6913,7 @@
       <c r="U122" s="16"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="62" t="s">
+      <c r="A123" s="61" t="s">
         <v>211</v>
       </c>
       <c r="B123" s="1" t="n">
@@ -6890,25 +6928,25 @@
       <c r="E123" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F123" s="1" t="n">
+      <c r="F123" s="32" t="n">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H123" s="27" t="n">
+      <c r="H123" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J123" s="63" t="s">
+      <c r="J123" s="62" t="s">
         <v>212</v>
       </c>
       <c r="L123" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="M123" s="44" t="n">
+      <c r="M123" s="47" t="n">
         <v>27.3</v>
       </c>
       <c r="N123" s="1" t="n">
@@ -6921,7 +6959,7 @@
         <f aca="false">N123*B123</f>
         <v>52.22</v>
       </c>
-      <c r="Q123" s="55" t="n">
+      <c r="Q123" s="54" t="n">
         <f aca="false">P123-M123</f>
         <v>24.92</v>
       </c>
@@ -6945,7 +6983,7 @@
       <c r="U124" s="16"/>
     </row>
     <row r="125" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="64" t="s">
+      <c r="A125" s="63" t="s">
         <v>215</v>
       </c>
       <c r="B125" s="1" t="n">
@@ -6960,13 +6998,13 @@
       <c r="E125" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="44" t="n">
+      <c r="F125" s="19" t="n">
         <v>1</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H125" s="27" t="n">
+      <c r="H125" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -6992,7 +7030,7 @@
         <f aca="false">N125*B125</f>
         <v>52.22</v>
       </c>
-      <c r="Q125" s="56" t="n">
+      <c r="Q125" s="55" t="n">
         <f aca="false">P125-M125</f>
         <v>14.42</v>
       </c>
@@ -7012,14 +7050,14 @@
       <c r="AMJ125" s="0"/>
     </row>
     <row r="126" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="64"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="44"/>
+      <c r="F126" s="47"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="28"/>
+      <c r="H126" s="29"/>
       <c r="I126" s="2"/>
       <c r="K126" s="3"/>
       <c r="L126" s="1"/>
@@ -7027,7 +7065,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="Q126" s="56"/>
+      <c r="Q126" s="55"/>
       <c r="R126" s="1"/>
       <c r="S126" s="5"/>
       <c r="T126" s="16"/>
@@ -7036,14 +7074,14 @@
       <c r="AMJ126" s="0"/>
     </row>
     <row r="127" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="64"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="44"/>
+      <c r="F127" s="47"/>
       <c r="G127" s="1"/>
-      <c r="H127" s="28"/>
+      <c r="H127" s="29"/>
       <c r="I127" s="2"/>
       <c r="K127" s="3"/>
       <c r="L127" s="1"/>
@@ -7051,7 +7089,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="Q127" s="56"/>
+      <c r="Q127" s="55"/>
       <c r="R127" s="1"/>
       <c r="S127" s="5"/>
       <c r="T127" s="16"/>
@@ -7060,7 +7098,7 @@
       <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="65" t="s">
+      <c r="A128" s="64" t="s">
         <v>217</v>
       </c>
       <c r="T128" s="16" t="str">
@@ -7070,7 +7108,7 @@
       <c r="U128" s="16"/>
     </row>
     <row r="129" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="66" t="s">
+      <c r="A129" s="65" t="s">
         <v>218</v>
       </c>
       <c r="B129" s="21" t="n">
@@ -7086,14 +7124,14 @@
       <c r="E129" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F129" s="33" t="n">
+      <c r="F129" s="36" t="n">
         <f aca="false">E129*C129</f>
         <v>1</v>
       </c>
       <c r="G129" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H129" s="27" t="n">
+      <c r="H129" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -7120,7 +7158,7 @@
         <f aca="false">P129-M129</f>
         <v>46.4</v>
       </c>
-      <c r="R129" s="49" t="n">
+      <c r="R129" s="34" t="n">
         <f aca="false">B129+G129</f>
         <v>8</v>
       </c>
@@ -7136,7 +7174,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="67"/>
+      <c r="A130" s="66"/>
       <c r="T130" s="16"/>
       <c r="U130" s="16"/>
     </row>
@@ -7157,14 +7195,14 @@
       <c r="E131" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F131" s="33" t="n">
+      <c r="F131" s="36" t="n">
         <f aca="false">E131*C131</f>
         <v>4</v>
       </c>
       <c r="G131" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H131" s="14" t="n">
+      <c r="H131" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -7194,7 +7232,7 @@
         <f aca="false">P131-M131</f>
         <v>83.4</v>
       </c>
-      <c r="R131" s="49" t="n">
+      <c r="R131" s="34" t="n">
         <f aca="false">B131+G131</f>
         <v>32</v>
       </c>
@@ -7226,14 +7264,14 @@
       <c r="E132" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F132" s="33" t="n">
+      <c r="F132" s="36" t="n">
         <f aca="false">E132*C132</f>
         <v>4</v>
       </c>
       <c r="G132" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H132" s="14" t="n">
+      <c r="H132" s="19" t="n">
         <v>1</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -7261,19 +7299,19 @@
         <f aca="false">P132-M132</f>
         <v>83.4</v>
       </c>
-      <c r="R132" s="49" t="n">
+      <c r="R132" s="34" t="n">
         <f aca="false">B132+G132</f>
         <v>32</v>
       </c>
-      <c r="T132" s="23" t="s">
+      <c r="T132" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="U132" s="23" t="s">
+      <c r="U132" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="45" t="s">
+      <c r="A133" s="48" t="s">
         <v>112</v>
       </c>
       <c r="B133" s="21" t="n">
@@ -7289,24 +7327,24 @@
       <c r="E133" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F133" s="33" t="n">
+      <c r="F133" s="36" t="n">
         <f aca="false">E133*C133</f>
         <v>8</v>
       </c>
       <c r="G133" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H133" s="19" t="n">
+      <c r="H133" s="14" t="n">
         <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J133" s="68" t="s">
+      <c r="J133" s="67" t="s">
         <v>113</v>
       </c>
       <c r="K133" s="17"/>
-      <c r="L133" s="44" t="n">
+      <c r="L133" s="47" t="n">
         <v>266</v>
       </c>
       <c r="M133" s="21" t="n">
@@ -7326,14 +7364,14 @@
         <f aca="false">P133-M133</f>
         <v>147.4</v>
       </c>
-      <c r="R133" s="49" t="n">
+      <c r="R133" s="34" t="n">
         <f aca="false">B133+G133</f>
         <v>32</v>
       </c>
-      <c r="T133" s="23" t="s">
+      <c r="T133" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="U133" s="23" t="s">
+      <c r="U133" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7354,7 +7392,7 @@
       <c r="E134" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="F134" s="33" t="n">
+      <c r="F134" s="36" t="n">
         <f aca="false">E134*C134</f>
         <v>4</v>
       </c>
@@ -7391,7 +7429,7 @@
         <f aca="false">P134-M134</f>
         <v>83.4</v>
       </c>
-      <c r="R134" s="49" t="n">
+      <c r="R134" s="34" t="n">
         <f aca="false">B134+G134</f>
         <v>32</v>
       </c>
@@ -7420,7 +7458,7 @@
       <c r="E135" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F135" s="33" t="n">
+      <c r="F135" s="36" t="n">
         <f aca="false">E135*C135</f>
         <v>4</v>
       </c>
@@ -7438,7 +7476,7 @@
       <c r="L135" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="M135" s="45" t="n">
+      <c r="M135" s="48" t="n">
         <v>250</v>
       </c>
       <c r="N135" s="1" t="n">
@@ -7455,19 +7493,19 @@
         <f aca="false">P135-M135</f>
         <v>108.4</v>
       </c>
-      <c r="R135" s="49" t="n">
+      <c r="R135" s="34" t="n">
         <f aca="false">B135+G135</f>
         <v>32</v>
       </c>
-      <c r="T135" s="23" t="s">
+      <c r="T135" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="U135" s="23" t="s">
+      <c r="U135" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="45" t="s">
+      <c r="A136" s="48" t="s">
         <v>122</v>
       </c>
       <c r="B136" s="21" t="n">
@@ -7480,10 +7518,10 @@
         <f aca="false">B136/C136</f>
         <v>8</v>
       </c>
-      <c r="E136" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F136" s="33" t="n">
+      <c r="E136" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" s="36" t="n">
         <f aca="false">E136*C136</f>
         <v>8</v>
       </c>
@@ -7496,14 +7534,14 @@
       <c r="I136" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J136" s="68" t="s">
+      <c r="J136" s="67" t="s">
         <v>113</v>
       </c>
       <c r="K136" s="17"/>
-      <c r="L136" s="44" t="n">
+      <c r="L136" s="47" t="n">
         <v>266</v>
       </c>
-      <c r="M136" s="44" t="n">
+      <c r="M136" s="47" t="n">
         <v>172</v>
       </c>
       <c r="N136" s="1" t="n">
@@ -7520,14 +7558,14 @@
         <f aca="false">P136-M136</f>
         <v>186.4</v>
       </c>
-      <c r="R136" s="49" t="n">
+      <c r="R136" s="34" t="n">
         <f aca="false">B136+G136</f>
         <v>32</v>
       </c>
-      <c r="T136" s="23" t="s">
+      <c r="T136" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="U136" s="23" t="s">
+      <c r="U136" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7548,7 +7586,7 @@
       <c r="E137" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="F137" s="33" t="n">
+      <c r="F137" s="36" t="n">
         <f aca="false">E137*C137</f>
         <v>4</v>
       </c>
@@ -7567,7 +7605,7 @@
       <c r="L137" s="21" t="n">
         <v>310</v>
       </c>
-      <c r="M137" s="45" t="n">
+      <c r="M137" s="48" t="n">
         <v>211</v>
       </c>
       <c r="N137" s="1" t="n">
@@ -7584,15 +7622,15 @@
         <f aca="false">P137-M137</f>
         <v>147.4</v>
       </c>
-      <c r="R137" s="49" t="n">
+      <c r="R137" s="34" t="n">
         <f aca="false">B137+G137</f>
         <v>32</v>
       </c>
       <c r="S137" s="5"/>
-      <c r="T137" s="23" t="s">
+      <c r="T137" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="U137" s="23" t="s">
+      <c r="U137" s="24" t="s">
         <v>115</v>
       </c>
       <c r="V137" s="0"/>
@@ -7607,13 +7645,13 @@
       <c r="U139" s="16"/>
     </row>
     <row r="140" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="69" t="s">
+      <c r="A140" s="68" t="s">
         <v>224</v>
       </c>
       <c r="T140" s="16"/>
     </row>
     <row r="141" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="70" t="s">
+      <c r="A141" s="69" t="s">
         <v>225</v>
       </c>
       <c r="B141" s="1" t="n">
@@ -7622,7 +7660,7 @@
       <c r="C141" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D141" s="44" t="s">
+      <c r="D141" s="47" t="s">
         <v>226</v>
       </c>
       <c r="E141" s="1" t="n">
@@ -7640,14 +7678,14 @@
       <c r="I141" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J141" s="71" t="s">
+      <c r="J141" s="70" t="s">
         <v>228</v>
       </c>
       <c r="K141" s="17"/>
       <c r="L141" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="M141" s="45" t="n">
+      <c r="M141" s="48" t="n">
         <v>127</v>
       </c>
       <c r="N141" s="21" t="n">
@@ -7664,7 +7702,7 @@
         <f aca="false">P141-M141</f>
         <v>74.6</v>
       </c>
-      <c r="R141" s="49" t="n">
+      <c r="R141" s="34" t="n">
         <f aca="false">B141+G141</f>
         <v>19</v>
       </c>
@@ -7680,7 +7718,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="70" t="s">
+      <c r="A143" s="69" t="s">
         <v>230</v>
       </c>
       <c r="B143" s="1" t="n">
@@ -7689,10 +7727,10 @@
       <c r="C143" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D143" s="44" t="s">
+      <c r="D143" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="44" t="s">
+      <c r="E143" s="47" t="s">
         <v>232</v>
       </c>
       <c r="F143" s="1" t="n">
@@ -7707,7 +7745,7 @@
       <c r="I143" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J143" s="71" t="s">
+      <c r="J143" s="70" t="s">
         <v>234</v>
       </c>
       <c r="L143" s="1" t="n">
@@ -7730,7 +7768,7 @@
         <f aca="false">P143-M143</f>
         <v>98.8</v>
       </c>
-      <c r="R143" s="49" t="n">
+      <c r="R143" s="34" t="n">
         <f aca="false">B143+G143</f>
         <v>25</v>
       </c>
@@ -7845,7 +7883,7 @@
       <c r="J153" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="K153" s="59" t="n">
+      <c r="K153" s="58" t="n">
         <v>0.0277777777777778</v>
       </c>
       <c r="T153" s="6" t="n">
@@ -7870,17 +7908,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="112.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,7 +7932,7 @@
       <c r="C1" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7901,7 +7940,7 @@
       <c r="C2" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7909,7 +7948,7 @@
       <c r="C4" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7938,7 +7977,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>263</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -7959,7 +7998,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>268</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -7975,12 +8014,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="72" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7993,7 +8032,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8003,10 +8042,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="62" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8021,7 +8060,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>281</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -8029,33 +8068,67 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="74" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="74" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="74" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="74" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="74" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="76"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="76"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="78" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="79"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="62" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ZFSDRAID" sheetId="1" state="visible" r:id="rId2"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="297">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -1579,7 +1579,16 @@
     <t xml:space="preserve">Yellow = Warning, may not be enough resources allocated in the event of failure</t>
   </si>
   <si>
+    <t xml:space="preserve">UNAVAIL = drive was failed intentionally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“2 with 1 vspare and 1 UNAVAIL” = (2) simultaneous failures, 1 has active spare in use and the remaining one is relying on the RAIDZ level</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green = Should be a pretty good config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( 1 more disk failure in this vdev will kill the pool )</t>
   </si>
   <si>
     <t xml:space="preserve">Red = Something bad happened here, beware</t>
@@ -1597,7 +1606,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1770,6 +1779,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1841,7 +1857,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2138,10 +2154,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2154,11 +2182,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2241,8 +2269,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ153"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="U120" activeCellId="0" sqref="U120"/>
     </sheetView>
@@ -7908,10 +7936,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8049,86 +8077,95 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="74" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>282</v>
+      <c r="D27" s="76" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="74" t="s">
-        <v>283</v>
+      <c r="D28" s="76" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="74" t="s">
-        <v>284</v>
+      <c r="D29" s="76" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="74" t="s">
-        <v>285</v>
+      <c r="D30" s="76" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="74" t="s">
-        <v>286</v>
+      <c r="D31" s="76" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="74" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="74" t="s">
+      <c r="D32" s="76" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="77" t="s">
         <v>289</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="79"/>
+      <c r="D35" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="75" t="s">
-        <v>290</v>
+      <c r="C36" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="76"/>
+      <c r="C37" s="79"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="77" t="s">
-        <v>291</v>
+      <c r="C38" s="81" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="76"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="78" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="79"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="62" t="s">
-        <v>293</v>
+      <c r="C39" s="82"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="62" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/ZFS/zfs-draid-configs.xlsx
+++ b/ZFS/zfs-draid-configs.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="ZFSDRAID" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Notes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ZFSnondraid" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -238,8 +239,85 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Physical disks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is the “free space” in the filesystem you can actually use, can vary with compression</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">NOTE This is what is seen by the OS as usable space, not HD mfr 1000
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Total number of physical disks (inpool + spares)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">List of disks to include in VDEV
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="352">
   <si>
     <t xml:space="preserve">ZFS DRAID configs</t>
   </si>
@@ -1086,6 +1164,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">draid2:10d:30c:1s</t>
     </r>
@@ -1107,6 +1186,7 @@
         <color rgb="FF2FFF12"/>
         <rFont val="Menlo-Regular"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">sdag sdah sdai sdaj sdak sdal sdam sdan sdao sdap sdaq sdar sdas sdat sdau sdav sdaw sdax sdba sdbb sdbc sdbd sdbe sdbf sdbg sdbh sdbi sdbj sdbk sdbl  </t>
     </r>
@@ -1139,6 +1219,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">draid2:7d:10c:1s
 draid2:7d:10c:1s
@@ -1401,15 +1482,120 @@
   <si>
     <t xml:space="preserve">Bold = Standout from other configs, just a point to be aware of, nothing too serious</t>
   </si>
+  <si>
+    <t xml:space="preserve">ZFS RAIDZ configs (non-DRAID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Pspares (per POOL, not per-vdev)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can sustain X failures PER vdev (Total disks in vdev -raidz level) -pspares, if any</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time to CP .iso (2.6GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost to parity (GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zp=ztest # Command to create:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b c d e f g h i j k l m n o p q r s t u v w x y 
+a b c d e f g h i j k l m n o p q r s t u v w x (sdaa sdba sdca)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raidz1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 with 2 UNAVAIL and 1 pspare in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient redundancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75 sec to lz4; 
+7.55 sec to zstd-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dev/sdb /dev/sdc /dev/sdd /dev/sde /dev/sdf /dev/sdg /dev/sdh /dev/sdi /dev/sdj /dev/sdk /dev/sdl /dev/sdm /dev/sdn /dev/sdo /dev/sdp /dev/sdq /dev/sdr /dev/sds /dev/sdt /dev/sdu /dev/sdv /dev/sdw /dev/sdx /dev/sdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare sdz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raidz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 with 3 UNAVAIL and 1 pspare in use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0 sec to lz4; 10.35 sec to zstd-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dev/sd{b..y}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient hotspares - should have 2-4 at least</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4 sec to lz4;
+11.69 sec to zstd-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raidz2 /dev/sd{b..m} \
+raidz2 /dev/sd{n..y}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 with 5 UNAVAIL , 3 pspares in use
+If all pspares are being used the next vdev can only sustain 2 failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Should be) Sufficient hotspares and good redundancy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7 sec to lz4;
+11.55 sec to zstd-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raidz2 sdb sdc sdd sde sdf sdg sdh sdi \
+raidz2 sdj sdk sdl sdm sdn sdo sdp sdq \
+raidz2 sdr sds sdt sdu sdv sdw sdx sdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare sdz sdca sdcb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 with 6 UNAVAIL , 4 pspares in use; NOTE this is an entire vdev!
+If all pspares are being used the next vdev can only sustain 2 failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufficient hotspares and good redundancy but losing free space to parity; not “wide” enough; however I/O may be faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6 sec to lz4;
+16.14 sec to zstd-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raidz2 sdb sdc sdd sde sdf sdg \
+raidz2 sdh sdi sdj sdk sdl sdm \
+raidz2 sdn sdo sdp sdq sdr sds \
+raidz2 sdt sdu sdv sdw sdx sdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare sdz sdca sdcb sdcc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1544,11 +1730,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -1559,6 +1740,7 @@
       <color rgb="FF2FFF12"/>
       <name val="Menlo-Regular"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1614,6 +1796,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1695,7 +1883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1948,39 +2136,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1992,11 +2168,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2012,12 +2188,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2100,12 +2324,12 @@
   <dimension ref="A1:AMJ169"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A153" activeCellId="0" sqref="A153"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.02"/>
@@ -2127,7 +2351,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="71.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="6" width="23.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="6" width="65.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="29.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="29.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,7 +8092,7 @@
       <c r="M150" s="41" t="n">
         <v>107</v>
       </c>
-      <c r="N150" s="63" t="n">
+      <c r="N150" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="O150" s="1" t="n">
@@ -7893,7 +8117,7 @@
         <f aca="false">A150</f>
         <v>draid2:2d:60c:0s</v>
       </c>
-      <c r="U150" s="64" t="s">
+      <c r="U150" s="23" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7939,7 +8163,7 @@
       <c r="M151" s="40" t="n">
         <v>157</v>
       </c>
-      <c r="N151" s="63" t="n">
+      <c r="N151" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="O151" s="1" t="n">
@@ -7964,7 +8188,7 @@
         <f aca="false">A151</f>
         <v>draid2:10d:60c:6s</v>
       </c>
-      <c r="U151" s="64" t="s">
+      <c r="U151" s="23" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7975,7 +8199,7 @@
       <c r="B152" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C152" s="65" t="n">
+      <c r="C152" s="14" t="n">
         <v>2</v>
       </c>
       <c r="D152" s="1" t="n">
@@ -8010,7 +8234,7 @@
       <c r="M152" s="40" t="n">
         <v>157</v>
       </c>
-      <c r="N152" s="63" t="n">
+      <c r="N152" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="O152" s="1" t="n">
@@ -8034,7 +8258,7 @@
       <c r="T152" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="U152" s="66" t="s">
+      <c r="U152" s="63" t="s">
         <v>242</v>
       </c>
     </row>
@@ -8045,7 +8269,7 @@
       <c r="B153" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C153" s="65" t="n">
+      <c r="C153" s="14" t="n">
         <v>6</v>
       </c>
       <c r="D153" s="1" t="n">
@@ -8080,7 +8304,7 @@
       <c r="M153" s="40" t="n">
         <v>147</v>
       </c>
-      <c r="N153" s="63" t="n">
+      <c r="N153" s="1" t="n">
         <v>3.7</v>
       </c>
       <c r="O153" s="1" t="n">
@@ -8101,10 +8325,10 @@
       <c r="S153" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T153" s="66" t="s">
+      <c r="T153" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="U153" s="66" t="s">
+      <c r="U153" s="63" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8117,13 +8341,13 @@
       <c r="U155" s="16"/>
     </row>
     <row r="156" customFormat="false" ht="54.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="67" t="s">
+      <c r="A156" s="64" t="s">
         <v>249</v>
       </c>
       <c r="T156" s="16"/>
     </row>
     <row r="157" customFormat="false" ht="166.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="65" t="s">
         <v>250</v>
       </c>
       <c r="B157" s="1" t="n">
@@ -8150,7 +8374,7 @@
       <c r="I157" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="J157" s="69" t="s">
+      <c r="J157" s="66" t="s">
         <v>253</v>
       </c>
       <c r="K157" s="17"/>
@@ -8190,7 +8414,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="190.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="68" t="s">
+      <c r="A159" s="65" t="s">
         <v>255</v>
       </c>
       <c r="B159" s="1" t="n">
@@ -8217,7 +8441,7 @@
       <c r="I159" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J159" s="69" t="s">
+      <c r="J159" s="66" t="s">
         <v>259</v>
       </c>
       <c r="L159" s="1" t="n">
@@ -8365,7 +8589,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J150" r:id="rId2" display="https://zfsonlinux.topicbox.com/groups/zfs-discuss/T5d26c94dbafdb88b"/>
+    <hyperlink ref="J150" r:id="rId2" display="https://zfsonlinux.topicbox.com/groups/zfs-discuss/T5d26c94dbafdb88b – not v.efficient, too much lost to parity and NO vspares"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8385,15 +8609,15 @@
   </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="77.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="112.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="112.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
   </cols>
   <sheetData>
@@ -8473,7 +8697,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="67" t="s">
         <v>293</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -8489,7 +8713,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="68" t="s">
         <v>296</v>
       </c>
     </row>
@@ -8507,7 +8731,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="68" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8517,7 +8741,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="69" t="s">
         <v>302</v>
       </c>
       <c r="D23" s="55" t="s">
@@ -8525,17 +8749,17 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="70" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="70" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="71" t="s">
         <v>306</v>
       </c>
       <c r="E26" s="0" t="s">
@@ -8543,42 +8767,42 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="72" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="72" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="72" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="72" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="72" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="72" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="73" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="74" t="s">
         <v>315</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -8586,13 +8810,13 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="76"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="0" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="75" t="s">
         <v>318</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -8600,15 +8824,15 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="76"/>
+      <c r="C37" s="73"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="76" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="80"/>
+      <c r="C39" s="77"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="55" t="s">
@@ -8624,4 +8848,428 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="29.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="78" customFormat="true" ht="128.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="78" customFormat="true" ht="167.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <f aca="false">L2*B2</f>
+        <v>89.52</v>
+      </c>
+      <c r="O2" s="82" t="n">
+        <f aca="false">N2-K2</f>
+        <v>7.11999999999999</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <f aca="false">B2+E2</f>
+        <v>25</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="83" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="T2" s="12"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="78" customFormat="true" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <f aca="false">L3*B3</f>
+        <v>89.52</v>
+      </c>
+      <c r="O3" s="82" t="n">
+        <f aca="false">N3-K3</f>
+        <v>11.42</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <f aca="false">B3+E3</f>
+        <v>25</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="83" t="s">
+        <v>338</v>
+      </c>
+      <c r="S3" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="78" customFormat="true" ht="53.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">B4/C4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">L4*B4</f>
+        <v>89.52</v>
+      </c>
+      <c r="O4" s="89" t="n">
+        <f aca="false">N4-K4</f>
+        <v>18.12</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <f aca="false">B4+E4</f>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="78" customFormat="true" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" s="86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">B5/C5</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K5" s="20" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <f aca="false">L5*B5</f>
+        <v>89.52</v>
+      </c>
+      <c r="O5" s="89" t="n">
+        <f aca="false">N5-K5</f>
+        <v>25.42</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <f aca="false">B5+E5</f>
+        <v>27</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="78" customFormat="true" ht="134.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">B6/C6</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>512</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <f aca="false">L6*B6</f>
+        <v>89.52</v>
+      </c>
+      <c r="O6" s="82" t="n">
+        <f aca="false">N6-K6</f>
+        <v>32.72</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <f aca="false">B6+E6</f>
+        <v>28</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="S6" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>